--- a/Ullrich-StaggeredFiniteElements-Budget-v1.xlsx
+++ b/Ullrich-StaggeredFiniteElements-Budget-v1.xlsx
@@ -1753,68 +1753,176 @@
     <xf numFmtId="9" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1825,6 +1933,45 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1837,24 +1984,12 @@
     <xf numFmtId="9" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1870,24 +2005,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1897,132 +2017,64 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="37" fontId="14" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2030,10 +2082,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -2051,60 +2099,12 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="37" fontId="14" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2465,7 +2465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3768,26 +3768,26 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="B45" s="227" t="s">
+      <c r="B45" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="228"/>
-      <c r="D45" s="227" t="s">
+      <c r="C45" s="213"/>
+      <c r="D45" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="228"/>
-      <c r="F45" s="227" t="s">
+      <c r="E45" s="213"/>
+      <c r="F45" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="228"/>
-      <c r="H45" s="227" t="s">
+      <c r="G45" s="213"/>
+      <c r="H45" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="I45" s="228"/>
-      <c r="J45" s="227" t="s">
+      <c r="I45" s="213"/>
+      <c r="J45" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="K45" s="228"/>
+      <c r="K45" s="213"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="9" t="s">
@@ -4933,26 +4933,26 @@
       <c r="A84" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="227" t="s">
+      <c r="B84" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="228"/>
-      <c r="D84" s="227" t="s">
+      <c r="C84" s="213"/>
+      <c r="D84" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="228"/>
-      <c r="F84" s="227" t="s">
+      <c r="E84" s="213"/>
+      <c r="F84" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="228"/>
-      <c r="H84" s="227" t="s">
+      <c r="G84" s="213"/>
+      <c r="H84" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="I84" s="228"/>
-      <c r="J84" s="227" t="s">
+      <c r="I84" s="213"/>
+      <c r="J84" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="K84" s="228"/>
+      <c r="K84" s="213"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="9"/>
@@ -5311,26 +5311,26 @@
       <c r="A95" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B95" s="227" t="s">
+      <c r="B95" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="228"/>
-      <c r="D95" s="227" t="s">
+      <c r="C95" s="213"/>
+      <c r="D95" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="228"/>
-      <c r="F95" s="227" t="s">
+      <c r="E95" s="213"/>
+      <c r="F95" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="G95" s="228"/>
-      <c r="H95" s="227" t="s">
+      <c r="G95" s="213"/>
+      <c r="H95" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="I95" s="228"/>
-      <c r="J95" s="227" t="s">
+      <c r="I95" s="213"/>
+      <c r="J95" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="K95" s="228"/>
+      <c r="K95" s="213"/>
     </row>
     <row r="96" spans="1:12">
       <c r="B96" s="11" t="s">
@@ -5410,53 +5410,53 @@
       <c r="A98" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B98" s="217" t="s">
+      <c r="B98" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="217"/>
-      <c r="D98" s="217" t="s">
+      <c r="C98" s="216"/>
+      <c r="D98" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="217"/>
-      <c r="F98" s="217" t="s">
+      <c r="E98" s="216"/>
+      <c r="F98" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="G98" s="217"/>
-      <c r="H98" s="215" t="s">
+      <c r="G98" s="216"/>
+      <c r="H98" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="I98" s="216"/>
-      <c r="J98" s="218" t="s">
+      <c r="I98" s="215"/>
+      <c r="J98" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="K98" s="219"/>
+      <c r="K98" s="218"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="B99" s="222" t="str">
+      <c r="B99" s="221" t="str">
         <f>IF(B97=C97,B97*100&amp;"%",B97*100&amp;"%"&amp;"/"&amp;C97*100&amp;"%")</f>
         <v>56.5%</v>
       </c>
-      <c r="C99" s="222"/>
-      <c r="D99" s="222" t="str">
+      <c r="C99" s="221"/>
+      <c r="D99" s="221" t="str">
         <f>IF(D97=E97,D97*100&amp;"%",D97*100&amp;"%"&amp;"/"&amp;E97*100&amp;"%")</f>
         <v>57%</v>
       </c>
-      <c r="E99" s="222"/>
-      <c r="F99" s="222" t="str">
+      <c r="E99" s="221"/>
+      <c r="F99" s="221" t="str">
         <f>IF(F97=G97,F97*100&amp;"%",F97*100&amp;"%"&amp;"/"&amp;G97*100&amp;"%")</f>
         <v>57%</v>
       </c>
-      <c r="G99" s="222"/>
-      <c r="H99" s="215" t="str">
+      <c r="G99" s="221"/>
+      <c r="H99" s="214" t="str">
         <f>IF(H97=I97,H97*100&amp;"%",H97*100&amp;"%"&amp;"/"&amp;I97*100&amp;"%")</f>
         <v>57%</v>
       </c>
-      <c r="I99" s="216"/>
-      <c r="J99" s="215" t="str">
+      <c r="I99" s="215"/>
+      <c r="J99" s="214" t="str">
         <f>IF(J97=K97,J97*100&amp;"%",J97*100&amp;"%"&amp;"/"&amp;K97*100&amp;"%")</f>
         <v>57%</v>
       </c>
-      <c r="K99" s="216"/>
+      <c r="K99" s="215"/>
     </row>
     <row r="100" spans="1:11">
       <c r="H100" s="40"/>
@@ -6534,10 +6534,10 @@
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="221" t="s">
+      <c r="A136" s="220" t="s">
         <v>130</v>
       </c>
-      <c r="B136" s="221"/>
+      <c r="B136" s="220"/>
       <c r="C136" s="43">
         <f>SUM(C121:C135)</f>
         <v>0</v>
@@ -7100,10 +7100,10 @@
       </c>
     </row>
     <row r="154" spans="1:19">
-      <c r="A154" s="221" t="s">
+      <c r="A154" s="220" t="s">
         <v>130</v>
       </c>
-      <c r="B154" s="221"/>
+      <c r="B154" s="220"/>
       <c r="C154" s="43">
         <f>SUM(C139:C153)</f>
         <v>0</v>
@@ -8785,14 +8785,14 @@
       </c>
     </row>
     <row r="198" spans="1:12">
-      <c r="A198" s="225" t="s">
+      <c r="A198" s="208" t="s">
         <v>179</v>
       </c>
-      <c r="B198" s="223" t="s">
+      <c r="B198" s="210" t="s">
         <v>183</v>
       </c>
-      <c r="C198" s="223"/>
-      <c r="D198" s="224"/>
+      <c r="C198" s="210"/>
+      <c r="D198" s="211"/>
       <c r="E198" s="203">
         <f>C13</f>
         <v>3</v>
@@ -8815,12 +8815,12 @@
       </c>
     </row>
     <row r="199" spans="1:12">
-      <c r="A199" s="226"/>
-      <c r="B199" s="223" t="s">
+      <c r="A199" s="209"/>
+      <c r="B199" s="210" t="s">
         <v>184</v>
       </c>
-      <c r="C199" s="223"/>
-      <c r="D199" s="224"/>
+      <c r="C199" s="210"/>
+      <c r="D199" s="211"/>
       <c r="E199" s="203">
         <f>C14</f>
         <v>0</v>
@@ -8843,14 +8843,14 @@
       </c>
     </row>
     <row r="200" spans="1:12">
-      <c r="A200" s="225" t="s">
+      <c r="A200" s="208" t="s">
         <v>180</v>
       </c>
-      <c r="B200" s="223" t="s">
+      <c r="B200" s="210" t="s">
         <v>183</v>
       </c>
-      <c r="C200" s="223"/>
-      <c r="D200" s="224"/>
+      <c r="C200" s="210"/>
+      <c r="D200" s="211"/>
       <c r="E200" s="4">
         <f>IF(AND(MONTH(C2)=9,DAY(C2)&lt;=5),0.5,IF(AND(MONTH(C2)=7,DAY(C2)&lt;=5),2.5,IF(AND(MONTH(C2)=7,DAY(C2)&gt;5),2,IF(AND(MONTH(C2)=8,DAY(C2)&lt;=5),1.5,IF(AND(MONTH(C2)=8,DAY(C2)&gt;5),1,0)))))</f>
         <v>2.5</v>
@@ -8873,12 +8873,12 @@
       </c>
     </row>
     <row r="201" spans="1:12">
-      <c r="A201" s="226"/>
-      <c r="B201" s="223" t="s">
+      <c r="A201" s="209"/>
+      <c r="B201" s="210" t="s">
         <v>184</v>
       </c>
-      <c r="C201" s="223"/>
-      <c r="D201" s="224"/>
+      <c r="C201" s="210"/>
+      <c r="D201" s="211"/>
       <c r="E201" s="4">
         <f>2.5-E200</f>
         <v>0</v>
@@ -8901,14 +8901,14 @@
       </c>
     </row>
     <row r="202" spans="1:12">
-      <c r="A202" s="225" t="s">
+      <c r="A202" s="208" t="s">
         <v>181</v>
       </c>
-      <c r="B202" s="223" t="s">
+      <c r="B202" s="210" t="s">
         <v>183</v>
       </c>
-      <c r="C202" s="223"/>
-      <c r="D202" s="224"/>
+      <c r="C202" s="210"/>
+      <c r="D202" s="211"/>
       <c r="E202" s="4">
         <f>IF(AND(MONTH(C2)=7,DAY(C2)&lt;=5),2,IF(AND(MONTH(C2)=7,DAY(C2)&gt;5),1.5,IF(AND(MONTH(C2)=8,DAY(C2)&lt;=5),1,IF(AND(MONTH(C2)=8,DAY(C2)&gt;5),0.5,0))))</f>
         <v>2</v>
@@ -8931,12 +8931,12 @@
       </c>
     </row>
     <row r="203" spans="1:12">
-      <c r="A203" s="226"/>
-      <c r="B203" s="223" t="s">
+      <c r="A203" s="209"/>
+      <c r="B203" s="210" t="s">
         <v>184</v>
       </c>
-      <c r="C203" s="223"/>
-      <c r="D203" s="224"/>
+      <c r="C203" s="210"/>
+      <c r="D203" s="211"/>
       <c r="E203" s="4">
         <f>2-E202</f>
         <v>0</v>
@@ -8959,14 +8959,14 @@
       </c>
     </row>
     <row r="204" spans="1:12">
-      <c r="A204" s="225" t="s">
+      <c r="A204" s="208" t="s">
         <v>180</v>
       </c>
-      <c r="B204" s="223" t="s">
+      <c r="B204" s="210" t="s">
         <v>185</v>
       </c>
-      <c r="C204" s="223"/>
-      <c r="D204" s="224"/>
+      <c r="C204" s="210"/>
+      <c r="D204" s="211"/>
       <c r="E204" s="205">
         <f>IF(E200&gt;C9,C9,E200)</f>
         <v>2.5</v>
@@ -8989,12 +8989,12 @@
       </c>
     </row>
     <row r="205" spans="1:12">
-      <c r="A205" s="226"/>
-      <c r="B205" s="223" t="s">
+      <c r="A205" s="209"/>
+      <c r="B205" s="210" t="s">
         <v>186</v>
       </c>
-      <c r="C205" s="223"/>
-      <c r="D205" s="224"/>
+      <c r="C205" s="210"/>
+      <c r="D205" s="211"/>
       <c r="E205" s="205">
         <f>IF(E201&gt;C10,C10,E201)</f>
         <v>0</v>
@@ -9017,14 +9017,14 @@
       </c>
     </row>
     <row r="206" spans="1:12">
-      <c r="A206" s="225" t="s">
+      <c r="A206" s="208" t="s">
         <v>181</v>
       </c>
-      <c r="B206" s="223" t="s">
+      <c r="B206" s="210" t="s">
         <v>187</v>
       </c>
-      <c r="C206" s="223"/>
-      <c r="D206" s="224"/>
+      <c r="C206" s="210"/>
+      <c r="D206" s="211"/>
       <c r="E206" s="205">
         <f>IF(E202&gt;C9,C9,E202)</f>
         <v>2</v>
@@ -9047,12 +9047,12 @@
       </c>
     </row>
     <row r="207" spans="1:12">
-      <c r="A207" s="226"/>
-      <c r="B207" s="223" t="s">
+      <c r="A207" s="209"/>
+      <c r="B207" s="210" t="s">
         <v>186</v>
       </c>
-      <c r="C207" s="223"/>
-      <c r="D207" s="224"/>
+      <c r="C207" s="210"/>
+      <c r="D207" s="211"/>
       <c r="E207" s="205">
         <f>IF(E203&gt;C10,C10,E203)</f>
         <v>0</v>
@@ -9104,26 +9104,26 @@
     </row>
     <row r="211" spans="1:12">
       <c r="A211" s="2"/>
-      <c r="B211" s="220" t="s">
+      <c r="B211" s="219" t="s">
         <v>10</v>
       </c>
-      <c r="C211" s="220"/>
-      <c r="D211" s="220" t="s">
+      <c r="C211" s="219"/>
+      <c r="D211" s="219" t="s">
         <v>11</v>
       </c>
-      <c r="E211" s="220"/>
-      <c r="F211" s="217" t="s">
+      <c r="E211" s="219"/>
+      <c r="F211" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="G211" s="217"/>
-      <c r="H211" s="217" t="s">
+      <c r="G211" s="216"/>
+      <c r="H211" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="I211" s="217"/>
-      <c r="J211" s="217" t="s">
+      <c r="I211" s="216"/>
+      <c r="J211" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="K211" s="217"/>
+      <c r="K211" s="216"/>
     </row>
     <row r="212" spans="1:12">
       <c r="A212" s="93" t="str">
@@ -10336,26 +10336,26 @@
       <c r="A240" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="B240" s="210" t="s">
+      <c r="B240" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="C240" s="210"/>
-      <c r="D240" s="210" t="s">
+      <c r="C240" s="222"/>
+      <c r="D240" s="222" t="s">
         <v>11</v>
       </c>
-      <c r="E240" s="210"/>
-      <c r="F240" s="210" t="s">
+      <c r="E240" s="222"/>
+      <c r="F240" s="222" t="s">
         <v>12</v>
       </c>
-      <c r="G240" s="210"/>
-      <c r="H240" s="210" t="s">
+      <c r="G240" s="222"/>
+      <c r="H240" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="I240" s="210"/>
-      <c r="J240" s="210" t="s">
+      <c r="I240" s="222"/>
+      <c r="J240" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="K240" s="210"/>
+      <c r="K240" s="222"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="99"/>
@@ -11521,930 +11521,930 @@
       <c r="A268" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="B268" s="210"/>
-      <c r="C268" s="210"/>
-      <c r="D268" s="210"/>
-      <c r="E268" s="210"/>
-      <c r="F268" s="210"/>
-      <c r="G268" s="210"/>
-      <c r="H268" s="210"/>
-      <c r="I268" s="210"/>
-      <c r="J268" s="210"/>
-      <c r="K268" s="210"/>
+      <c r="B268" s="222"/>
+      <c r="C268" s="222"/>
+      <c r="D268" s="222"/>
+      <c r="E268" s="222"/>
+      <c r="F268" s="222"/>
+      <c r="G268" s="222"/>
+      <c r="H268" s="222"/>
+      <c r="I268" s="222"/>
+      <c r="J268" s="222"/>
+      <c r="K268" s="222"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="101" t="str">
         <f>A242</f>
         <v>P.  Ullrich</v>
       </c>
-      <c r="B269" s="213">
+      <c r="B269" s="223">
         <f>IF(B$241=C$241,B$241*100,IF(C242=0,B$241*100,IF(B242=0,C$241*100,B$241*100&amp;"/"&amp;C$241*100)))</f>
         <v>17</v>
       </c>
-      <c r="C269" s="214"/>
-      <c r="D269" s="213">
+      <c r="C269" s="224"/>
+      <c r="D269" s="223">
         <f>IF(D$241=E$241,D$241*100,IF(E242=0,D$241*100,IF(D242=0,E$241*100,D$241*100&amp;"/"&amp;E$241*100)))</f>
         <v>18</v>
       </c>
-      <c r="E269" s="214"/>
-      <c r="F269" s="213">
+      <c r="E269" s="224"/>
+      <c r="F269" s="223">
         <f>IF(F$241=G$241,F$241*100,IF(G242=0,F$241*100,IF(F242=0,G$241*100,F$241*100&amp;"/"&amp;G$241*100)))</f>
         <v>18.5</v>
       </c>
-      <c r="G269" s="214"/>
-      <c r="H269" s="213">
+      <c r="G269" s="224"/>
+      <c r="H269" s="223">
         <f>IF(H$241=I$241,H$241*100,IF(I242=0,H$241*100,IF(H242=0,I$241*100,H$241*100&amp;"/"&amp;I$241*100)))</f>
         <v>0</v>
       </c>
-      <c r="I269" s="214"/>
-      <c r="J269" s="211">
+      <c r="I269" s="224"/>
+      <c r="J269" s="225">
         <f>IF(J$241=K$241,J$241*100,IF(K242=0,J$241*100,IF(J242=0,K$241*100,J$241*100&amp;"/"&amp;K$241*100)))</f>
         <v>0</v>
       </c>
-      <c r="K269" s="212"/>
+      <c r="K269" s="226"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="101" t="str">
         <f t="shared" ref="A270:A292" si="74">A243</f>
         <v>TBN (GSR IV)</v>
       </c>
-      <c r="B270" s="213">
+      <c r="B270" s="223">
         <f t="shared" ref="B270:B292" si="75">IF(B$241=C$241,B$241*100,IF(C243=0,B$241*100,IF(B243=0,C$241*100,B$241*100&amp;"/"&amp;C$241*100)))</f>
         <v>17</v>
       </c>
-      <c r="C270" s="214"/>
-      <c r="D270" s="213">
+      <c r="C270" s="224"/>
+      <c r="D270" s="223">
         <f t="shared" ref="D270:D292" si="76">IF(D$241=E$241,D$241*100,IF(E243=0,D$241*100,IF(D243=0,E$241*100,D$241*100&amp;"/"&amp;E$241*100)))</f>
         <v>18</v>
       </c>
-      <c r="E270" s="214"/>
-      <c r="F270" s="213">
+      <c r="E270" s="224"/>
+      <c r="F270" s="223">
         <f t="shared" ref="F270:F292" si="77">IF(F$241=G$241,F$241*100,IF(G243=0,F$241*100,IF(F243=0,G$241*100,F$241*100&amp;"/"&amp;G$241*100)))</f>
         <v>18.5</v>
       </c>
-      <c r="G270" s="214"/>
-      <c r="H270" s="213">
+      <c r="G270" s="224"/>
+      <c r="H270" s="223">
         <f t="shared" ref="H270:H292" si="78">IF(H$241=I$241,H$241*100,IF(I243=0,H$241*100,IF(H243=0,I$241*100,H$241*100&amp;"/"&amp;I$241*100)))</f>
         <v>0</v>
       </c>
-      <c r="I270" s="214"/>
-      <c r="J270" s="211">
+      <c r="I270" s="224"/>
+      <c r="J270" s="225">
         <f t="shared" ref="J270:J292" si="79">IF(J$241=K$241,J$241*100,IF(K243=0,J$241*100,IF(J243=0,K$241*100,J$241*100&amp;"/"&amp;K$241*100)))</f>
         <v>0</v>
       </c>
-      <c r="K270" s="212"/>
+      <c r="K270" s="226"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="101" t="str">
         <f t="shared" si="74"/>
         <v>Postdoctoral Scholar</v>
       </c>
-      <c r="B271" s="213">
+      <c r="B271" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C271" s="214"/>
-      <c r="D271" s="213">
+      <c r="C271" s="224"/>
+      <c r="D271" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E271" s="214"/>
-      <c r="F271" s="213">
+      <c r="E271" s="224"/>
+      <c r="F271" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G271" s="214"/>
-      <c r="H271" s="213">
+      <c r="G271" s="224"/>
+      <c r="H271" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I271" s="214"/>
-      <c r="J271" s="211">
+      <c r="I271" s="224"/>
+      <c r="J271" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K271" s="212"/>
+      <c r="K271" s="226"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B272" s="213">
+      <c r="B272" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C272" s="214"/>
-      <c r="D272" s="213">
+      <c r="C272" s="224"/>
+      <c r="D272" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E272" s="214"/>
-      <c r="F272" s="213">
+      <c r="E272" s="224"/>
+      <c r="F272" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G272" s="214"/>
-      <c r="H272" s="213">
+      <c r="G272" s="224"/>
+      <c r="H272" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I272" s="214"/>
-      <c r="J272" s="211">
+      <c r="I272" s="224"/>
+      <c r="J272" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K272" s="212"/>
+      <c r="K272" s="226"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B273" s="213">
+      <c r="B273" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C273" s="214"/>
-      <c r="D273" s="213">
+      <c r="C273" s="224"/>
+      <c r="D273" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E273" s="214"/>
-      <c r="F273" s="213">
+      <c r="E273" s="224"/>
+      <c r="F273" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G273" s="214"/>
-      <c r="H273" s="213">
+      <c r="G273" s="224"/>
+      <c r="H273" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I273" s="214"/>
-      <c r="J273" s="211">
+      <c r="I273" s="224"/>
+      <c r="J273" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K273" s="212"/>
+      <c r="K273" s="226"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B274" s="213">
+      <c r="B274" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C274" s="214"/>
-      <c r="D274" s="213">
+      <c r="C274" s="224"/>
+      <c r="D274" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E274" s="214"/>
-      <c r="F274" s="213">
+      <c r="E274" s="224"/>
+      <c r="F274" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G274" s="214"/>
-      <c r="H274" s="213">
+      <c r="G274" s="224"/>
+      <c r="H274" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I274" s="214"/>
-      <c r="J274" s="211">
+      <c r="I274" s="224"/>
+      <c r="J274" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K274" s="212"/>
+      <c r="K274" s="226"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B275" s="213">
+      <c r="B275" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C275" s="214"/>
-      <c r="D275" s="213">
+      <c r="C275" s="224"/>
+      <c r="D275" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E275" s="214"/>
-      <c r="F275" s="213">
+      <c r="E275" s="224"/>
+      <c r="F275" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G275" s="214"/>
-      <c r="H275" s="213">
+      <c r="G275" s="224"/>
+      <c r="H275" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I275" s="214"/>
-      <c r="J275" s="211">
+      <c r="I275" s="224"/>
+      <c r="J275" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K275" s="212"/>
+      <c r="K275" s="226"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B276" s="213">
+      <c r="B276" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C276" s="214"/>
-      <c r="D276" s="213">
+      <c r="C276" s="224"/>
+      <c r="D276" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E276" s="214"/>
-      <c r="F276" s="213">
+      <c r="E276" s="224"/>
+      <c r="F276" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G276" s="214"/>
-      <c r="H276" s="213">
+      <c r="G276" s="224"/>
+      <c r="H276" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I276" s="214"/>
-      <c r="J276" s="211">
+      <c r="I276" s="224"/>
+      <c r="J276" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K276" s="212"/>
+      <c r="K276" s="226"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B277" s="213">
+      <c r="B277" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C277" s="214"/>
-      <c r="D277" s="213">
+      <c r="C277" s="224"/>
+      <c r="D277" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E277" s="214"/>
-      <c r="F277" s="213">
+      <c r="E277" s="224"/>
+      <c r="F277" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G277" s="214"/>
-      <c r="H277" s="213">
+      <c r="G277" s="224"/>
+      <c r="H277" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I277" s="214"/>
-      <c r="J277" s="211">
+      <c r="I277" s="224"/>
+      <c r="J277" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K277" s="212"/>
+      <c r="K277" s="226"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B278" s="213">
+      <c r="B278" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C278" s="214"/>
-      <c r="D278" s="213">
+      <c r="C278" s="224"/>
+      <c r="D278" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E278" s="214"/>
-      <c r="F278" s="213">
+      <c r="E278" s="224"/>
+      <c r="F278" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G278" s="214"/>
-      <c r="H278" s="213">
+      <c r="G278" s="224"/>
+      <c r="H278" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I278" s="214"/>
-      <c r="J278" s="211">
+      <c r="I278" s="224"/>
+      <c r="J278" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K278" s="212"/>
+      <c r="K278" s="226"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B279" s="213">
+      <c r="B279" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C279" s="214"/>
-      <c r="D279" s="213">
+      <c r="C279" s="224"/>
+      <c r="D279" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E279" s="214"/>
-      <c r="F279" s="213">
+      <c r="E279" s="224"/>
+      <c r="F279" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G279" s="214"/>
-      <c r="H279" s="213">
+      <c r="G279" s="224"/>
+      <c r="H279" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I279" s="214"/>
-      <c r="J279" s="211">
+      <c r="I279" s="224"/>
+      <c r="J279" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K279" s="212"/>
+      <c r="K279" s="226"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B280" s="213">
+      <c r="B280" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C280" s="214"/>
-      <c r="D280" s="213">
+      <c r="C280" s="224"/>
+      <c r="D280" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E280" s="214"/>
-      <c r="F280" s="213">
+      <c r="E280" s="224"/>
+      <c r="F280" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G280" s="214"/>
-      <c r="H280" s="213">
+      <c r="G280" s="224"/>
+      <c r="H280" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I280" s="214"/>
-      <c r="J280" s="211">
+      <c r="I280" s="224"/>
+      <c r="J280" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K280" s="212"/>
+      <c r="K280" s="226"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B281" s="213">
+      <c r="B281" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C281" s="214"/>
-      <c r="D281" s="213">
+      <c r="C281" s="224"/>
+      <c r="D281" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E281" s="214"/>
-      <c r="F281" s="213">
+      <c r="E281" s="224"/>
+      <c r="F281" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G281" s="214"/>
-      <c r="H281" s="213">
+      <c r="G281" s="224"/>
+      <c r="H281" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I281" s="214"/>
-      <c r="J281" s="211">
+      <c r="I281" s="224"/>
+      <c r="J281" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K281" s="212"/>
+      <c r="K281" s="226"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B282" s="213">
+      <c r="B282" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C282" s="214"/>
-      <c r="D282" s="213">
+      <c r="C282" s="224"/>
+      <c r="D282" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E282" s="214"/>
-      <c r="F282" s="213">
+      <c r="E282" s="224"/>
+      <c r="F282" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G282" s="214"/>
-      <c r="H282" s="213">
+      <c r="G282" s="224"/>
+      <c r="H282" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I282" s="214"/>
-      <c r="J282" s="211">
+      <c r="I282" s="224"/>
+      <c r="J282" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K282" s="212"/>
+      <c r="K282" s="226"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B283" s="213">
+      <c r="B283" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C283" s="214"/>
-      <c r="D283" s="213">
+      <c r="C283" s="224"/>
+      <c r="D283" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E283" s="214"/>
-      <c r="F283" s="213">
+      <c r="E283" s="224"/>
+      <c r="F283" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G283" s="214"/>
-      <c r="H283" s="213">
+      <c r="G283" s="224"/>
+      <c r="H283" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I283" s="214"/>
-      <c r="J283" s="211">
+      <c r="I283" s="224"/>
+      <c r="J283" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K283" s="212"/>
+      <c r="K283" s="226"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B284" s="213">
+      <c r="B284" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C284" s="214"/>
-      <c r="D284" s="213">
+      <c r="C284" s="224"/>
+      <c r="D284" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E284" s="214"/>
-      <c r="F284" s="213">
+      <c r="E284" s="224"/>
+      <c r="F284" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G284" s="214"/>
-      <c r="H284" s="213">
+      <c r="G284" s="224"/>
+      <c r="H284" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I284" s="214"/>
-      <c r="J284" s="211">
+      <c r="I284" s="224"/>
+      <c r="J284" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K284" s="212"/>
+      <c r="K284" s="226"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B285" s="213">
+      <c r="B285" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C285" s="214"/>
-      <c r="D285" s="213">
+      <c r="C285" s="224"/>
+      <c r="D285" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E285" s="214"/>
-      <c r="F285" s="213">
+      <c r="E285" s="224"/>
+      <c r="F285" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G285" s="214"/>
-      <c r="H285" s="213">
+      <c r="G285" s="224"/>
+      <c r="H285" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I285" s="214"/>
-      <c r="J285" s="211">
+      <c r="I285" s="224"/>
+      <c r="J285" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K285" s="212"/>
+      <c r="K285" s="226"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B286" s="213">
+      <c r="B286" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C286" s="214"/>
-      <c r="D286" s="213">
+      <c r="C286" s="224"/>
+      <c r="D286" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E286" s="214"/>
-      <c r="F286" s="213">
+      <c r="E286" s="224"/>
+      <c r="F286" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G286" s="214"/>
-      <c r="H286" s="213">
+      <c r="G286" s="224"/>
+      <c r="H286" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I286" s="214"/>
-      <c r="J286" s="211">
+      <c r="I286" s="224"/>
+      <c r="J286" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K286" s="212"/>
+      <c r="K286" s="226"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B287" s="213">
+      <c r="B287" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C287" s="214"/>
-      <c r="D287" s="213">
+      <c r="C287" s="224"/>
+      <c r="D287" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E287" s="214"/>
-      <c r="F287" s="213">
+      <c r="E287" s="224"/>
+      <c r="F287" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G287" s="214"/>
-      <c r="H287" s="213">
+      <c r="G287" s="224"/>
+      <c r="H287" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I287" s="214"/>
-      <c r="J287" s="211">
+      <c r="I287" s="224"/>
+      <c r="J287" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K287" s="212"/>
+      <c r="K287" s="226"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B288" s="213">
+      <c r="B288" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C288" s="214"/>
-      <c r="D288" s="213">
+      <c r="C288" s="224"/>
+      <c r="D288" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E288" s="214"/>
-      <c r="F288" s="213">
+      <c r="E288" s="224"/>
+      <c r="F288" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G288" s="214"/>
-      <c r="H288" s="213">
+      <c r="G288" s="224"/>
+      <c r="H288" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I288" s="214"/>
-      <c r="J288" s="211">
+      <c r="I288" s="224"/>
+      <c r="J288" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K288" s="212"/>
+      <c r="K288" s="226"/>
     </row>
     <row r="289" spans="1:12">
       <c r="A289" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B289" s="213">
+      <c r="B289" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C289" s="214"/>
-      <c r="D289" s="213">
+      <c r="C289" s="224"/>
+      <c r="D289" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E289" s="214"/>
-      <c r="F289" s="213">
+      <c r="E289" s="224"/>
+      <c r="F289" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G289" s="214"/>
-      <c r="H289" s="213">
+      <c r="G289" s="224"/>
+      <c r="H289" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I289" s="214"/>
-      <c r="J289" s="211">
+      <c r="I289" s="224"/>
+      <c r="J289" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K289" s="212"/>
+      <c r="K289" s="226"/>
     </row>
     <row r="290" spans="1:12">
       <c r="A290" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B290" s="213">
+      <c r="B290" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C290" s="214"/>
-      <c r="D290" s="213">
+      <c r="C290" s="224"/>
+      <c r="D290" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E290" s="214"/>
-      <c r="F290" s="213">
+      <c r="E290" s="224"/>
+      <c r="F290" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G290" s="214"/>
-      <c r="H290" s="213">
+      <c r="G290" s="224"/>
+      <c r="H290" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I290" s="214"/>
-      <c r="J290" s="211">
+      <c r="I290" s="224"/>
+      <c r="J290" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K290" s="212"/>
+      <c r="K290" s="226"/>
     </row>
     <row r="291" spans="1:12">
       <c r="A291" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B291" s="213">
+      <c r="B291" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C291" s="214"/>
-      <c r="D291" s="213">
+      <c r="C291" s="224"/>
+      <c r="D291" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E291" s="214"/>
-      <c r="F291" s="213">
+      <c r="E291" s="224"/>
+      <c r="F291" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G291" s="214"/>
-      <c r="H291" s="213">
+      <c r="G291" s="224"/>
+      <c r="H291" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I291" s="214"/>
-      <c r="J291" s="211">
+      <c r="I291" s="224"/>
+      <c r="J291" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K291" s="212"/>
+      <c r="K291" s="226"/>
     </row>
     <row r="292" spans="1:12">
       <c r="A292" s="101">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="B292" s="213">
+      <c r="B292" s="223">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
-      <c r="C292" s="214"/>
-      <c r="D292" s="213">
+      <c r="C292" s="224"/>
+      <c r="D292" s="223">
         <f t="shared" si="76"/>
         <v>18</v>
       </c>
-      <c r="E292" s="214"/>
-      <c r="F292" s="213">
+      <c r="E292" s="224"/>
+      <c r="F292" s="223">
         <f t="shared" si="77"/>
         <v>18.5</v>
       </c>
-      <c r="G292" s="214"/>
-      <c r="H292" s="213">
+      <c r="G292" s="224"/>
+      <c r="H292" s="223">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="I292" s="214"/>
-      <c r="J292" s="211">
+      <c r="I292" s="224"/>
+      <c r="J292" s="225">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="K292" s="212"/>
+      <c r="K292" s="226"/>
     </row>
     <row r="294" spans="1:12">
       <c r="A294" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="B294" s="210"/>
-      <c r="C294" s="210"/>
-      <c r="D294" s="210"/>
-      <c r="E294" s="210"/>
-      <c r="F294" s="210"/>
-      <c r="G294" s="210"/>
-      <c r="H294" s="210"/>
-      <c r="I294" s="210"/>
-      <c r="J294" s="210"/>
-      <c r="K294" s="210"/>
+      <c r="B294" s="222"/>
+      <c r="C294" s="222"/>
+      <c r="D294" s="222"/>
+      <c r="E294" s="222"/>
+      <c r="F294" s="222"/>
+      <c r="G294" s="222"/>
+      <c r="H294" s="222"/>
+      <c r="I294" s="222"/>
+      <c r="J294" s="222"/>
+      <c r="K294" s="222"/>
     </row>
     <row r="295" spans="1:12">
       <c r="A295" s="101" t="str">
         <f>A269</f>
         <v>P.  Ullrich</v>
       </c>
-      <c r="B295" s="208">
+      <c r="B295" s="227">
         <f>ROUND(Request!N7/Worksheet!H171*Worksheet!B242*Worksheet!$B$241+Request!N7/Worksheet!H171*Worksheet!C242*Worksheet!C241,0)</f>
         <v>1286</v>
       </c>
-      <c r="C295" s="209"/>
-      <c r="D295" s="208">
+      <c r="C295" s="228"/>
+      <c r="D295" s="227">
         <f>ROUND(Request!O7/(D242+E242)*Worksheet!D242*Worksheet!D$241+Request!O7/(D242+E242)*Worksheet!E242*Worksheet!E$241,0)</f>
         <v>1402</v>
       </c>
-      <c r="E295" s="209"/>
-      <c r="F295" s="208">
+      <c r="E295" s="228"/>
+      <c r="F295" s="227">
         <f>ROUND(Request!P7/(F242+G242)*Worksheet!F242*Worksheet!F$241+Request!P7/(F242+G242)*Worksheet!G242*Worksheet!G$241,0)</f>
         <v>1484</v>
       </c>
-      <c r="G295" s="209"/>
-      <c r="H295" s="208" t="e">
+      <c r="G295" s="228"/>
+      <c r="H295" s="227" t="e">
         <f>ROUND(Request!Q7/(H242+I242)*Worksheet!H242*Worksheet!H$241+Request!Q7/(H242+I242)*Worksheet!I242*Worksheet!I$241,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I295" s="209"/>
-      <c r="J295" s="208" t="e">
+      <c r="I295" s="228"/>
+      <c r="J295" s="227" t="e">
         <f>ROUND(Request!R7/(J242+K242)*Worksheet!J242*Worksheet!J$241+Request!R7/(J242+K242)*Worksheet!K242*Worksheet!K$241,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K295" s="209"/>
+      <c r="K295" s="228"/>
     </row>
     <row r="296" spans="1:12">
       <c r="A296" s="101" t="str">
         <f t="shared" ref="A296:A318" si="80">A270</f>
         <v>TBN (GSR IV)</v>
       </c>
-      <c r="B296" s="208">
+      <c r="B296" s="227">
         <f>ROUND(Request!N8/Worksheet!H172*Worksheet!B243*Worksheet!$B$241+Request!N8/Worksheet!H172*Worksheet!C243*Worksheet!$C$241,0)</f>
         <v>4698</v>
       </c>
-      <c r="C296" s="209"/>
-      <c r="D296" s="208">
+      <c r="C296" s="228"/>
+      <c r="D296" s="227">
         <f>ROUND(Request!O8/(D243+E243)*Worksheet!D243*Worksheet!D$241+Request!O8/(D243+E243)*Worksheet!E243*Worksheet!E$241,0)</f>
         <v>5123</v>
       </c>
-      <c r="E296" s="209"/>
-      <c r="F296" s="208">
+      <c r="E296" s="228"/>
+      <c r="F296" s="227">
         <f>ROUND(Request!P8/(F243+G243)*Worksheet!F243*Worksheet!F$241+Request!P8/(F243+G243)*Worksheet!G243*Worksheet!G$241,0)</f>
         <v>5423</v>
       </c>
-      <c r="G296" s="209"/>
-      <c r="H296" s="208" t="e">
+      <c r="G296" s="228"/>
+      <c r="H296" s="227" t="e">
         <f>ROUND(Request!Q8/(H243+I243)*Worksheet!H243*Worksheet!H$241+Request!Q8/(H243+I243)*Worksheet!I243*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I296" s="209"/>
-      <c r="J296" s="208" t="e">
+      <c r="I296" s="228"/>
+      <c r="J296" s="227" t="e">
         <f>ROUND(Request!R8/(J243+K243)*Worksheet!J243*Worksheet!J$241+Request!R8/(J243+K243)*Worksheet!K243*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K296" s="209"/>
+      <c r="K296" s="228"/>
     </row>
     <row r="297" spans="1:12">
       <c r="A297" s="101" t="str">
         <f t="shared" si="80"/>
         <v>Postdoctoral Scholar</v>
       </c>
-      <c r="B297" s="208">
+      <c r="B297" s="227">
         <f>ROUND(Request!N9/Worksheet!H173*Worksheet!B244*Worksheet!$B$241+Request!N9/Worksheet!H173*Worksheet!C244*Worksheet!$C$241,0)</f>
         <v>9180</v>
       </c>
-      <c r="C297" s="209"/>
-      <c r="D297" s="208">
+      <c r="C297" s="228"/>
+      <c r="D297" s="227">
         <f>ROUND(Request!O9/(D244+E244)*Worksheet!D244*Worksheet!D$241+Request!O9/(D244+E244)*Worksheet!E244*Worksheet!E$241,0)</f>
         <v>10012</v>
       </c>
-      <c r="E297" s="209"/>
-      <c r="F297" s="208" t="e">
+      <c r="E297" s="228"/>
+      <c r="F297" s="227" t="e">
         <f>ROUND(Request!P9/(F244+G244)*Worksheet!F244*Worksheet!F$241+Request!P9/(F244+G244)*Worksheet!G244*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G297" s="209"/>
-      <c r="H297" s="208" t="e">
+      <c r="G297" s="228"/>
+      <c r="H297" s="227" t="e">
         <f>ROUND(Request!Q9/(H244+I244)*Worksheet!H244*Worksheet!H$241+Request!Q9/(H244+I244)*Worksheet!I244*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I297" s="209"/>
-      <c r="J297" s="208" t="e">
+      <c r="I297" s="228"/>
+      <c r="J297" s="227" t="e">
         <f>ROUND(Request!R9/(J244+K244)*Worksheet!J244*Worksheet!J$241+Request!R9/(J244+K244)*Worksheet!K244*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K297" s="209"/>
+      <c r="K297" s="228"/>
     </row>
     <row r="298" spans="1:12">
       <c r="A298" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B298" s="208" t="e">
+      <c r="B298" s="227" t="e">
         <f>ROUND(Request!N10/Worksheet!H174*Worksheet!B245*Worksheet!$B$241+Request!N10/Worksheet!H174*Worksheet!C245*Worksheet!$C$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C298" s="209"/>
-      <c r="D298" s="208" t="e">
+      <c r="C298" s="228"/>
+      <c r="D298" s="227" t="e">
         <f>ROUND(Request!O10/(D245+E245)*Worksheet!D245*Worksheet!D$241+Request!O10/(D245+E245)*Worksheet!E245*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E298" s="209"/>
-      <c r="F298" s="208" t="e">
+      <c r="E298" s="228"/>
+      <c r="F298" s="227" t="e">
         <f>ROUND(Request!P10/(F245+G245)*Worksheet!F245*Worksheet!F$241+Request!P10/(F245+G245)*Worksheet!G245*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G298" s="209"/>
-      <c r="H298" s="208" t="e">
+      <c r="G298" s="228"/>
+      <c r="H298" s="227" t="e">
         <f>ROUND(Request!Q10/(H245+I245)*Worksheet!H245*Worksheet!H$241+Request!Q10/(H245+I245)*Worksheet!I245*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I298" s="209"/>
-      <c r="J298" s="208" t="e">
+      <c r="I298" s="228"/>
+      <c r="J298" s="227" t="e">
         <f>ROUND(Request!R10/(J245+K245)*Worksheet!J245*Worksheet!J$241+Request!R10/(J245+K245)*Worksheet!K245*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K298" s="209"/>
+      <c r="K298" s="228"/>
     </row>
     <row r="299" spans="1:12">
       <c r="A299" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B299" s="208">
+      <c r="B299" s="227">
         <f>IF((B246+C246)&lt;&gt;0,ROUND(Request!N11/Worksheet!H175*Worksheet!B246*Worksheet!$B$241+Request!N11/Worksheet!H175*Worksheet!C246*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C299" s="209"/>
-      <c r="D299" s="208" t="e">
+      <c r="C299" s="228"/>
+      <c r="D299" s="227" t="e">
         <f>ROUND(Request!O11/(D246+E246)*Worksheet!D246*Worksheet!D$241+Request!O11/(D246+E246)*Worksheet!E246*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E299" s="209"/>
-      <c r="F299" s="208" t="e">
+      <c r="E299" s="228"/>
+      <c r="F299" s="227" t="e">
         <f>ROUND(Request!P11/(F246+G246)*Worksheet!F246*Worksheet!F$241+Request!P11/(F246+G246)*Worksheet!G246*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G299" s="209"/>
-      <c r="H299" s="208" t="e">
+      <c r="G299" s="228"/>
+      <c r="H299" s="227" t="e">
         <f>ROUND(Request!Q11/(H246+I246)*Worksheet!H246*Worksheet!H$241+Request!Q11/(H246+I246)*Worksheet!I246*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I299" s="209"/>
-      <c r="J299" s="208" t="e">
+      <c r="I299" s="228"/>
+      <c r="J299" s="227" t="e">
         <f>ROUND(Request!R11/(J246+K246)*Worksheet!J246*Worksheet!J$241+Request!R11/(J246+K246)*Worksheet!K246*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K299" s="209"/>
+      <c r="K299" s="228"/>
       <c r="L299" s="17"/>
     </row>
     <row r="300" spans="1:12">
@@ -12452,615 +12452,847 @@
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B300" s="208">
+      <c r="B300" s="227">
         <f>IF((B247+C247)&lt;&gt;0,ROUND(Request!N12/Worksheet!H176*Worksheet!B247*Worksheet!$B$241+Request!N12/Worksheet!H176*Worksheet!C247*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C300" s="209"/>
-      <c r="D300" s="208" t="e">
+      <c r="C300" s="228"/>
+      <c r="D300" s="227" t="e">
         <f>ROUND(Request!O12/(D247+E247)*Worksheet!D247*Worksheet!D$241+Request!O12/(D247+E247)*Worksheet!E247*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E300" s="209"/>
-      <c r="F300" s="208" t="e">
+      <c r="E300" s="228"/>
+      <c r="F300" s="227" t="e">
         <f>ROUND(Request!P12/(F247+G247)*Worksheet!F247*Worksheet!F$241+Request!P12/(F247+G247)*Worksheet!G247*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G300" s="209"/>
-      <c r="H300" s="208" t="e">
+      <c r="G300" s="228"/>
+      <c r="H300" s="227" t="e">
         <f>ROUND(Request!Q12/(H247+I247)*Worksheet!H247*Worksheet!H$241+Request!Q12/(H247+I247)*Worksheet!I247*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I300" s="209"/>
-      <c r="J300" s="208" t="e">
+      <c r="I300" s="228"/>
+      <c r="J300" s="227" t="e">
         <f>ROUND(Request!R12/(J247+K247)*Worksheet!J247*Worksheet!J$241+Request!R12/(J247+K247)*Worksheet!K247*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K300" s="209"/>
+      <c r="K300" s="228"/>
     </row>
     <row r="301" spans="1:12">
       <c r="A301" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B301" s="208">
+      <c r="B301" s="227">
         <f>IF((B248+C248)&lt;&gt;0,ROUND(Request!N13/Worksheet!H177*Worksheet!B248*Worksheet!$B$241+Request!N13/Worksheet!H177*Worksheet!C248*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C301" s="209"/>
-      <c r="D301" s="208" t="e">
+      <c r="C301" s="228"/>
+      <c r="D301" s="227" t="e">
         <f>ROUND(Request!O13/(D248+E248)*Worksheet!D248*Worksheet!D$241+Request!O13/(D248+E248)*Worksheet!E248*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E301" s="209"/>
-      <c r="F301" s="208" t="e">
+      <c r="E301" s="228"/>
+      <c r="F301" s="227" t="e">
         <f>ROUND(Request!P13/(F248+G248)*Worksheet!F248*Worksheet!F$241+Request!P13/(F248+G248)*Worksheet!G248*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G301" s="209"/>
-      <c r="H301" s="208" t="e">
+      <c r="G301" s="228"/>
+      <c r="H301" s="227" t="e">
         <f>ROUND(Request!Q13/(H248+I248)*Worksheet!H248*Worksheet!H$241+Request!Q13/(H248+I248)*Worksheet!I248*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I301" s="209"/>
-      <c r="J301" s="208" t="e">
+      <c r="I301" s="228"/>
+      <c r="J301" s="227" t="e">
         <f>ROUND(Request!R13/(J248+K248)*Worksheet!J248*Worksheet!J$241+Request!R13/(J248+K248)*Worksheet!K248*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K301" s="209"/>
+      <c r="K301" s="228"/>
     </row>
     <row r="302" spans="1:12">
       <c r="A302" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B302" s="208">
+      <c r="B302" s="227">
         <f>IF((B249+C249)&lt;&gt;0,ROUND(Request!N14/Worksheet!H178*Worksheet!B249*Worksheet!$B$241+Request!N14/Worksheet!H178*Worksheet!C249*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C302" s="209"/>
-      <c r="D302" s="208" t="e">
+      <c r="C302" s="228"/>
+      <c r="D302" s="227" t="e">
         <f>ROUND(Request!O14/(D249+E249)*Worksheet!D249*Worksheet!D$241+Request!O14/(D249+E249)*Worksheet!E249*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E302" s="209"/>
-      <c r="F302" s="208" t="e">
+      <c r="E302" s="228"/>
+      <c r="F302" s="227" t="e">
         <f>ROUND(Request!P14/(F249+G249)*Worksheet!F249*Worksheet!F$241+Request!P14/(F249+G249)*Worksheet!G249*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G302" s="209"/>
-      <c r="H302" s="208" t="e">
+      <c r="G302" s="228"/>
+      <c r="H302" s="227" t="e">
         <f>ROUND(Request!Q14/(H249+I249)*Worksheet!H249*Worksheet!H$241+Request!Q14/(H249+I249)*Worksheet!I249*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I302" s="209"/>
-      <c r="J302" s="208" t="e">
+      <c r="I302" s="228"/>
+      <c r="J302" s="227" t="e">
         <f>ROUND(Request!R14/(J249+K249)*Worksheet!J249*Worksheet!J$241+Request!R14/(J249+K249)*Worksheet!K249*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K302" s="209"/>
+      <c r="K302" s="228"/>
     </row>
     <row r="303" spans="1:12">
       <c r="A303" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B303" s="208">
+      <c r="B303" s="227">
         <f>IF((B250+C250)&lt;&gt;0,ROUND(Request!N15/Worksheet!H179*Worksheet!B250*Worksheet!$B$241+Request!N15/Worksheet!H179*Worksheet!C250*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C303" s="209"/>
-      <c r="D303" s="208" t="e">
+      <c r="C303" s="228"/>
+      <c r="D303" s="227" t="e">
         <f>ROUND(Request!O15/(D250+E250)*Worksheet!D250*Worksheet!D$241+Request!O15/(D250+E250)*Worksheet!E250*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E303" s="209"/>
-      <c r="F303" s="208" t="e">
+      <c r="E303" s="228"/>
+      <c r="F303" s="227" t="e">
         <f>ROUND(Request!P15/(F250+G250)*Worksheet!F250*Worksheet!F$241+Request!P15/(F250+G250)*Worksheet!G250*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G303" s="209"/>
-      <c r="H303" s="208" t="e">
+      <c r="G303" s="228"/>
+      <c r="H303" s="227" t="e">
         <f>ROUND(Request!Q15/(H250+I250)*Worksheet!H250*Worksheet!H$241+Request!Q15/(H250+I250)*Worksheet!I250*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I303" s="209"/>
-      <c r="J303" s="208" t="e">
+      <c r="I303" s="228"/>
+      <c r="J303" s="227" t="e">
         <f>ROUND(Request!R15/(J250+K250)*Worksheet!J250*Worksheet!J$241+Request!R15/(J250+K250)*Worksheet!K250*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K303" s="209"/>
+      <c r="K303" s="228"/>
     </row>
     <row r="304" spans="1:12">
       <c r="A304" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B304" s="208">
+      <c r="B304" s="227">
         <f>IF((B251+C251)&lt;&gt;0,ROUND(Request!N16/Worksheet!H180*Worksheet!B251*Worksheet!$B$241+Request!N16/Worksheet!H180*Worksheet!C251*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C304" s="209"/>
-      <c r="D304" s="208" t="e">
+      <c r="C304" s="228"/>
+      <c r="D304" s="227" t="e">
         <f>ROUND(Request!O16/(D251+E251)*Worksheet!D251*Worksheet!D$241+Request!O16/(D251+E251)*Worksheet!E251*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E304" s="209"/>
-      <c r="F304" s="208" t="e">
+      <c r="E304" s="228"/>
+      <c r="F304" s="227" t="e">
         <f>ROUND(Request!P16/(F251+G251)*Worksheet!F251*Worksheet!F$241+Request!P16/(F251+G251)*Worksheet!G251*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G304" s="209"/>
-      <c r="H304" s="208" t="e">
+      <c r="G304" s="228"/>
+      <c r="H304" s="227" t="e">
         <f>ROUND(Request!Q16/(H251+I251)*Worksheet!H251*Worksheet!H$241+Request!Q16/(H251+I251)*Worksheet!I251*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I304" s="209"/>
-      <c r="J304" s="208" t="e">
+      <c r="I304" s="228"/>
+      <c r="J304" s="227" t="e">
         <f>ROUND(Request!R16/(J251+K251)*Worksheet!J251*Worksheet!J$241+Request!R16/(J251+K251)*Worksheet!K251*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K304" s="209"/>
+      <c r="K304" s="228"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B305" s="208">
+      <c r="B305" s="227">
         <f>IF((B252+C252)&lt;&gt;0,ROUND(Request!N17/Worksheet!H181*Worksheet!B252*Worksheet!$B$241+Request!N17/Worksheet!H181*Worksheet!C252*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C305" s="209"/>
-      <c r="D305" s="208" t="e">
+      <c r="C305" s="228"/>
+      <c r="D305" s="227" t="e">
         <f>ROUND(Request!O17/(D252+E252)*Worksheet!D252*Worksheet!D$241+Request!O17/(D252+E252)*Worksheet!E252*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E305" s="209"/>
-      <c r="F305" s="208" t="e">
+      <c r="E305" s="228"/>
+      <c r="F305" s="227" t="e">
         <f>ROUND(Request!P17/(F252+G252)*Worksheet!F252*Worksheet!F$241+Request!P17/(F252+G252)*Worksheet!G252*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G305" s="209"/>
-      <c r="H305" s="208" t="e">
+      <c r="G305" s="228"/>
+      <c r="H305" s="227" t="e">
         <f>ROUND(Request!Q17/(H252+I252)*Worksheet!H252*Worksheet!H$241+Request!Q17/(H252+I252)*Worksheet!I252*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I305" s="209"/>
-      <c r="J305" s="208" t="e">
+      <c r="I305" s="228"/>
+      <c r="J305" s="227" t="e">
         <f>ROUND(Request!R17/(J252+K252)*Worksheet!J252*Worksheet!J$241+Request!R17/(J252+K252)*Worksheet!K252*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K305" s="209"/>
+      <c r="K305" s="228"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B306" s="208">
+      <c r="B306" s="227">
         <f>IF((B253+C253)&lt;&gt;0,ROUND(Request!N18/Worksheet!H182*Worksheet!B253*Worksheet!$B$241+Request!N18/Worksheet!H182*Worksheet!C253*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C306" s="209"/>
-      <c r="D306" s="208" t="e">
+      <c r="C306" s="228"/>
+      <c r="D306" s="227" t="e">
         <f>ROUND(Request!O18/(D253+E253)*Worksheet!D253*Worksheet!D$241+Request!O18/(D253+E253)*Worksheet!E253*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E306" s="209"/>
-      <c r="F306" s="208" t="e">
+      <c r="E306" s="228"/>
+      <c r="F306" s="227" t="e">
         <f>ROUND(Request!P18/(F253+G253)*Worksheet!F253*Worksheet!F$241+Request!P18/(F253+G253)*Worksheet!G253*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G306" s="209"/>
-      <c r="H306" s="208" t="e">
+      <c r="G306" s="228"/>
+      <c r="H306" s="227" t="e">
         <f>ROUND(Request!Q18/(H253+I253)*Worksheet!H253*Worksheet!H$241+Request!Q18/(H253+I253)*Worksheet!I253*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I306" s="209"/>
-      <c r="J306" s="208" t="e">
+      <c r="I306" s="228"/>
+      <c r="J306" s="227" t="e">
         <f>ROUND(Request!R18/(J253+K253)*Worksheet!J253*Worksheet!J$241+Request!R18/(J253+K253)*Worksheet!K253*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K306" s="209"/>
+      <c r="K306" s="228"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B307" s="208">
+      <c r="B307" s="227">
         <f>IF((B254+C254)&lt;&gt;0,ROUND(Request!N19/Worksheet!H183*Worksheet!B254*Worksheet!$B$241+Request!N19/Worksheet!H183*Worksheet!C254*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C307" s="209"/>
-      <c r="D307" s="208" t="e">
+      <c r="C307" s="228"/>
+      <c r="D307" s="227" t="e">
         <f>ROUND(Request!O19/(D254+E254)*Worksheet!D254*Worksheet!D$241+Request!O19/(D254+E254)*Worksheet!E254*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E307" s="209"/>
-      <c r="F307" s="208" t="e">
+      <c r="E307" s="228"/>
+      <c r="F307" s="227" t="e">
         <f>ROUND(Request!P19/(F254+G254)*Worksheet!F254*Worksheet!F$241+Request!P19/(F254+G254)*Worksheet!G254*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G307" s="209"/>
-      <c r="H307" s="208" t="e">
+      <c r="G307" s="228"/>
+      <c r="H307" s="227" t="e">
         <f>ROUND(Request!Q19/(H254+I254)*Worksheet!H254*Worksheet!H$241+Request!Q19/(H254+I254)*Worksheet!I254*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I307" s="209"/>
-      <c r="J307" s="208" t="e">
+      <c r="I307" s="228"/>
+      <c r="J307" s="227" t="e">
         <f>ROUND(Request!R19/(J254+K254)*Worksheet!J254*Worksheet!J$241+Request!R19/(J254+K254)*Worksheet!K254*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K307" s="209"/>
+      <c r="K307" s="228"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B308" s="208">
+      <c r="B308" s="227">
         <f>IF((B255+C255)&lt;&gt;0,ROUND(Request!N20/Worksheet!H184*Worksheet!B255*Worksheet!$B$241+Request!N20/Worksheet!H184*Worksheet!C255*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C308" s="209"/>
-      <c r="D308" s="208" t="e">
+      <c r="C308" s="228"/>
+      <c r="D308" s="227" t="e">
         <f>ROUND(Request!O20/(D255+E255)*Worksheet!D255*Worksheet!D$241+Request!O20/(D255+E255)*Worksheet!E255*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E308" s="209"/>
-      <c r="F308" s="208" t="e">
+      <c r="E308" s="228"/>
+      <c r="F308" s="227" t="e">
         <f>ROUND(Request!P20/(F255+G255)*Worksheet!F255*Worksheet!F$241+Request!P20/(F255+G255)*Worksheet!G255*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G308" s="209"/>
-      <c r="H308" s="208" t="e">
+      <c r="G308" s="228"/>
+      <c r="H308" s="227" t="e">
         <f>ROUND(Request!Q20/(H255+I255)*Worksheet!H255*Worksheet!H$241+Request!Q20/(H255+I255)*Worksheet!I255*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I308" s="209"/>
-      <c r="J308" s="208" t="e">
+      <c r="I308" s="228"/>
+      <c r="J308" s="227" t="e">
         <f>ROUND(Request!R20/(J255+K255)*Worksheet!J255*Worksheet!J$241+Request!R20/(J255+K255)*Worksheet!K255*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K308" s="209"/>
+      <c r="K308" s="228"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B309" s="208">
+      <c r="B309" s="227">
         <f>IF((B256+C256)&lt;&gt;0,ROUND(Request!N21/Worksheet!H185*Worksheet!B256*Worksheet!$B$241+Request!N21/Worksheet!H185*Worksheet!C256*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C309" s="209"/>
-      <c r="D309" s="208" t="e">
+      <c r="C309" s="228"/>
+      <c r="D309" s="227" t="e">
         <f>ROUND(Request!O21/(D256+E256)*Worksheet!D256*Worksheet!D$241+Request!O21/(D256+E256)*Worksheet!E256*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E309" s="209"/>
-      <c r="F309" s="208" t="e">
+      <c r="E309" s="228"/>
+      <c r="F309" s="227" t="e">
         <f>ROUND(Request!P21/(F256+G256)*Worksheet!F256*Worksheet!F$241+Request!P21/(F256+G256)*Worksheet!G256*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G309" s="209"/>
-      <c r="H309" s="208" t="e">
+      <c r="G309" s="228"/>
+      <c r="H309" s="227" t="e">
         <f>ROUND(Request!Q21/(H256+I256)*Worksheet!H256*Worksheet!H$241+Request!Q21/(H256+I256)*Worksheet!I256*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I309" s="209"/>
-      <c r="J309" s="208" t="e">
+      <c r="I309" s="228"/>
+      <c r="J309" s="227" t="e">
         <f>ROUND(Request!R21/(J256+K256)*Worksheet!J256*Worksheet!J$241+Request!R21/(J256+K256)*Worksheet!K256*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K309" s="209"/>
+      <c r="K309" s="228"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B310" s="208">
+      <c r="B310" s="227">
         <f>IF((B257+C257)&lt;&gt;0,ROUND(Request!N22/Worksheet!H186*Worksheet!B257*Worksheet!$B$241+Request!N22/Worksheet!H186*Worksheet!C257*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C310" s="209"/>
-      <c r="D310" s="208" t="e">
+      <c r="C310" s="228"/>
+      <c r="D310" s="227" t="e">
         <f>ROUND(Request!O22/(D257+E257)*Worksheet!D257*Worksheet!D$241+Request!O22/(D257+E257)*Worksheet!E257*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E310" s="209"/>
-      <c r="F310" s="208" t="e">
+      <c r="E310" s="228"/>
+      <c r="F310" s="227" t="e">
         <f>ROUND(Request!P22/(F257+G257)*Worksheet!F257*Worksheet!F$241+Request!P22/(F257+G257)*Worksheet!G257*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G310" s="209"/>
-      <c r="H310" s="208" t="e">
+      <c r="G310" s="228"/>
+      <c r="H310" s="227" t="e">
         <f>ROUND(Request!Q22/(H257+I257)*Worksheet!H257*Worksheet!H$241+Request!Q22/(H257+I257)*Worksheet!I257*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I310" s="209"/>
-      <c r="J310" s="208" t="e">
+      <c r="I310" s="228"/>
+      <c r="J310" s="227" t="e">
         <f>ROUND(Request!R22/(J257+K257)*Worksheet!J257*Worksheet!J$241+Request!R22/(J257+K257)*Worksheet!K257*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K310" s="209"/>
+      <c r="K310" s="228"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B311" s="208">
+      <c r="B311" s="227">
         <f>IF((B258+C258)&lt;&gt;0,ROUND(Request!N23/Worksheet!H187*Worksheet!B258*Worksheet!$B$241+Request!N23/Worksheet!H187*Worksheet!C258*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C311" s="209"/>
-      <c r="D311" s="208" t="e">
+      <c r="C311" s="228"/>
+      <c r="D311" s="227" t="e">
         <f>ROUND(Request!O23/(D258+E258)*Worksheet!D258*Worksheet!D$241+Request!O23/(D258+E258)*Worksheet!E258*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E311" s="209"/>
-      <c r="F311" s="208" t="e">
+      <c r="E311" s="228"/>
+      <c r="F311" s="227" t="e">
         <f>ROUND(Request!P23/(F258+G258)*Worksheet!F258*Worksheet!F$241+Request!P23/(F258+G258)*Worksheet!G258*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G311" s="209"/>
-      <c r="H311" s="208" t="e">
+      <c r="G311" s="228"/>
+      <c r="H311" s="227" t="e">
         <f>ROUND(Request!Q23/(H258+I258)*Worksheet!H258*Worksheet!H$241+Request!Q23/(H258+I258)*Worksheet!I258*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I311" s="209"/>
-      <c r="J311" s="208" t="e">
+      <c r="I311" s="228"/>
+      <c r="J311" s="227" t="e">
         <f>ROUND(Request!R23/(J258+K258)*Worksheet!J258*Worksheet!J$241+Request!R23/(J258+K258)*Worksheet!K258*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K311" s="209"/>
+      <c r="K311" s="228"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B312" s="208">
+      <c r="B312" s="227">
         <f>IF((B259+C259)&lt;&gt;0,ROUND(Request!N24/Worksheet!H188*Worksheet!B259*Worksheet!$B$241+Request!N24/Worksheet!H188*Worksheet!C259*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C312" s="209"/>
-      <c r="D312" s="208" t="e">
+      <c r="C312" s="228"/>
+      <c r="D312" s="227" t="e">
         <f>ROUND(Request!O24/(D259+E259)*Worksheet!D259*Worksheet!D$241+Request!O24/(D259+E259)*Worksheet!E259*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E312" s="209"/>
-      <c r="F312" s="208" t="e">
+      <c r="E312" s="228"/>
+      <c r="F312" s="227" t="e">
         <f>ROUND(Request!P24/(F259+G259)*Worksheet!F259*Worksheet!F$241+Request!P24/(F259+G259)*Worksheet!G259*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G312" s="209"/>
-      <c r="H312" s="208" t="e">
+      <c r="G312" s="228"/>
+      <c r="H312" s="227" t="e">
         <f>ROUND(Request!Q24/(H259+I259)*Worksheet!H259*Worksheet!H$241+Request!Q24/(H259+I259)*Worksheet!I259*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I312" s="209"/>
-      <c r="J312" s="208" t="e">
+      <c r="I312" s="228"/>
+      <c r="J312" s="227" t="e">
         <f>ROUND(Request!R24/(J259+K259)*Worksheet!J259*Worksheet!J$241+Request!R24/(J259+K259)*Worksheet!K259*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K312" s="209"/>
+      <c r="K312" s="228"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B313" s="208">
+      <c r="B313" s="227">
         <f>IF((B260+C260)&lt;&gt;0,ROUND(Request!N25/Worksheet!H189*Worksheet!B260*Worksheet!$B$241+Request!N25/Worksheet!H189*Worksheet!C260*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C313" s="209"/>
-      <c r="D313" s="208" t="e">
+      <c r="C313" s="228"/>
+      <c r="D313" s="227" t="e">
         <f>ROUND(Request!O25/(D260+E260)*Worksheet!D260*Worksheet!D$241+Request!O25/(D260+E260)*Worksheet!E260*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E313" s="209"/>
-      <c r="F313" s="208" t="e">
+      <c r="E313" s="228"/>
+      <c r="F313" s="227" t="e">
         <f>ROUND(Request!P25/(F260+G260)*Worksheet!F260*Worksheet!F$241+Request!P25/(F260+G260)*Worksheet!G260*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G313" s="209"/>
-      <c r="H313" s="208" t="e">
+      <c r="G313" s="228"/>
+      <c r="H313" s="227" t="e">
         <f>ROUND(Request!Q25/(H260+I260)*Worksheet!H260*Worksheet!H$241+Request!Q25/(H260+I260)*Worksheet!I260*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I313" s="209"/>
-      <c r="J313" s="208" t="e">
+      <c r="I313" s="228"/>
+      <c r="J313" s="227" t="e">
         <f>ROUND(Request!R25/(J260+K260)*Worksheet!J260*Worksheet!J$241+Request!R25/(J260+K260)*Worksheet!K260*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K313" s="209"/>
+      <c r="K313" s="228"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B314" s="208">
+      <c r="B314" s="227">
         <f>IF((B261+C261)&lt;&gt;0,ROUND(Request!N26/Worksheet!H190*Worksheet!B261*Worksheet!$B$241+Request!N26/Worksheet!H190*Worksheet!C261*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C314" s="209"/>
-      <c r="D314" s="208" t="e">
+      <c r="C314" s="228"/>
+      <c r="D314" s="227" t="e">
         <f>ROUND(Request!O26/(D261+E261)*Worksheet!D261*Worksheet!D$241+Request!O26/(D261+E261)*Worksheet!E261*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E314" s="209"/>
-      <c r="F314" s="208" t="e">
+      <c r="E314" s="228"/>
+      <c r="F314" s="227" t="e">
         <f>ROUND(Request!P26/(F261+G261)*Worksheet!F261*Worksheet!F$241+Request!P26/(F261+G261)*Worksheet!G261*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G314" s="209"/>
-      <c r="H314" s="208" t="e">
+      <c r="G314" s="228"/>
+      <c r="H314" s="227" t="e">
         <f>ROUND(Request!Q26/(H261+I261)*Worksheet!H261*Worksheet!H$241+Request!Q26/(H261+I261)*Worksheet!I261*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I314" s="209"/>
-      <c r="J314" s="208" t="e">
+      <c r="I314" s="228"/>
+      <c r="J314" s="227" t="e">
         <f>ROUND(Request!R26/(J261+K261)*Worksheet!J261*Worksheet!J$241+Request!R26/(J261+K261)*Worksheet!K261*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K314" s="209"/>
+      <c r="K314" s="228"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B315" s="208">
+      <c r="B315" s="227">
         <f>IF((B262+C262)&lt;&gt;0,ROUND(Request!N27/Worksheet!H191*Worksheet!B262*Worksheet!$B$241+Request!N27/Worksheet!H191*Worksheet!C262*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C315" s="209"/>
-      <c r="D315" s="208" t="e">
+      <c r="C315" s="228"/>
+      <c r="D315" s="227" t="e">
         <f>ROUND(Request!O27/(D262+E262)*Worksheet!D262*Worksheet!D$241+Request!O27/(D262+E262)*Worksheet!E262*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E315" s="209"/>
-      <c r="F315" s="208" t="e">
+      <c r="E315" s="228"/>
+      <c r="F315" s="227" t="e">
         <f>ROUND(Request!P27/(F262+G262)*Worksheet!F262*Worksheet!F$241+Request!P27/(F262+G262)*Worksheet!G262*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G315" s="209"/>
-      <c r="H315" s="208" t="e">
+      <c r="G315" s="228"/>
+      <c r="H315" s="227" t="e">
         <f>ROUND(Request!Q27/(H262+I262)*Worksheet!H262*Worksheet!H$241+Request!Q27/(H262+I262)*Worksheet!I262*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I315" s="209"/>
-      <c r="J315" s="208" t="e">
+      <c r="I315" s="228"/>
+      <c r="J315" s="227" t="e">
         <f>ROUND(Request!R27/(J262+K262)*Worksheet!J262*Worksheet!J$241+Request!R27/(J262+K262)*Worksheet!K262*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K315" s="209"/>
+      <c r="K315" s="228"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B316" s="208">
+      <c r="B316" s="227">
         <f>IF((B263+C263)&lt;&gt;0,ROUND(Request!N28/Worksheet!H192*Worksheet!B263*Worksheet!$B$241+Request!N28/Worksheet!H192*Worksheet!C263*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C316" s="209"/>
-      <c r="D316" s="208" t="e">
+      <c r="C316" s="228"/>
+      <c r="D316" s="227" t="e">
         <f>ROUND(Request!O28/(D263+E263)*Worksheet!D263*Worksheet!D$241+Request!O28/(D263+E263)*Worksheet!E263*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E316" s="209"/>
-      <c r="F316" s="208" t="e">
+      <c r="E316" s="228"/>
+      <c r="F316" s="227" t="e">
         <f>ROUND(Request!P28/(F263+G263)*Worksheet!F263*Worksheet!F$241+Request!P28/(F263+G263)*Worksheet!G263*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G316" s="209"/>
-      <c r="H316" s="208" t="e">
+      <c r="G316" s="228"/>
+      <c r="H316" s="227" t="e">
         <f>ROUND(Request!Q28/(H263+I263)*Worksheet!H263*Worksheet!H$241+Request!Q28/(H263+I263)*Worksheet!I263*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I316" s="209"/>
-      <c r="J316" s="208" t="e">
+      <c r="I316" s="228"/>
+      <c r="J316" s="227" t="e">
         <f>ROUND(Request!R28/(J263+K263)*Worksheet!J263*Worksheet!J$241+Request!R28/(J263+K263)*Worksheet!K263*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K316" s="209"/>
+      <c r="K316" s="228"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B317" s="208">
+      <c r="B317" s="227">
         <f>IF((B264+C264)&lt;&gt;0,ROUND(Request!N29/Worksheet!H193*Worksheet!B264*Worksheet!$B$241+Request!N29/Worksheet!H193*Worksheet!C264*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C317" s="209"/>
-      <c r="D317" s="208" t="e">
+      <c r="C317" s="228"/>
+      <c r="D317" s="227" t="e">
         <f>ROUND(Request!O29/(D264+E264)*Worksheet!D264*Worksheet!D$241+Request!O29/(D264+E264)*Worksheet!E264*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E317" s="209"/>
-      <c r="F317" s="208" t="e">
+      <c r="E317" s="228"/>
+      <c r="F317" s="227" t="e">
         <f>ROUND(Request!P29/(F264+G264)*Worksheet!F264*Worksheet!F$241+Request!P29/(F264+G264)*Worksheet!G264*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G317" s="209"/>
-      <c r="H317" s="208" t="e">
+      <c r="G317" s="228"/>
+      <c r="H317" s="227" t="e">
         <f>ROUND(Request!Q29/(H264+I264)*Worksheet!H264*Worksheet!H$241+Request!Q29/(H264+I264)*Worksheet!I264*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I317" s="209"/>
-      <c r="J317" s="208" t="e">
+      <c r="I317" s="228"/>
+      <c r="J317" s="227" t="e">
         <f>ROUND(Request!R29/(J264+K264)*Worksheet!J264*Worksheet!J$241+Request!R29/(J264+K264)*Worksheet!K264*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K317" s="209"/>
+      <c r="K317" s="228"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="101">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="B318" s="208">
+      <c r="B318" s="227">
         <f>IF((B265+C265)&lt;&gt;0,ROUND(Request!N30/Worksheet!H194*Worksheet!B265*Worksheet!$B$241+Request!N30/Worksheet!H194*Worksheet!C265*Worksheet!$C$241,0),0)</f>
         <v>0</v>
       </c>
-      <c r="C318" s="209"/>
-      <c r="D318" s="208" t="e">
+      <c r="C318" s="228"/>
+      <c r="D318" s="227" t="e">
         <f>ROUND(Request!O30/(D265+E265)*Worksheet!D265*Worksheet!D$241+Request!O30/(D265+E265)*Worksheet!E265*Worksheet!E$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E318" s="209"/>
-      <c r="F318" s="208" t="e">
+      <c r="E318" s="228"/>
+      <c r="F318" s="227" t="e">
         <f>ROUND(Request!P30/(F265+G265)*Worksheet!F265*Worksheet!F$241+Request!P30/(F265+G265)*Worksheet!G265*Worksheet!G$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G318" s="209"/>
-      <c r="H318" s="208" t="e">
+      <c r="G318" s="228"/>
+      <c r="H318" s="227" t="e">
         <f>ROUND(Request!Q30/(H265+I265)*Worksheet!H265*Worksheet!H$241+Request!Q30/(H265+I265)*Worksheet!I265*Worksheet!I$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I318" s="209"/>
-      <c r="J318" s="208" t="e">
+      <c r="I318" s="228"/>
+      <c r="J318" s="227" t="e">
         <f>ROUND(Request!R30/(J265+K265)*Worksheet!J265*Worksheet!J$241+Request!R30/(J265+K265)*Worksheet!K265*Worksheet!K$241,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K318" s="209"/>
+      <c r="K318" s="228"/>
     </row>
   </sheetData>
   <mergeCells count="302">
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="B206:D206"/>
-    <mergeCell ref="B207:D207"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="B316:C316"/>
+    <mergeCell ref="D316:E316"/>
+    <mergeCell ref="F316:G316"/>
+    <mergeCell ref="H316:I316"/>
+    <mergeCell ref="J316:K316"/>
+    <mergeCell ref="B315:C315"/>
+    <mergeCell ref="D315:E315"/>
+    <mergeCell ref="F315:G315"/>
+    <mergeCell ref="H315:I315"/>
+    <mergeCell ref="J315:K315"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="D318:E318"/>
+    <mergeCell ref="F318:G318"/>
+    <mergeCell ref="H318:I318"/>
+    <mergeCell ref="J318:K318"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="D317:E317"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="H317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="F314:G314"/>
+    <mergeCell ref="H314:I314"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="D313:E313"/>
+    <mergeCell ref="F313:G313"/>
+    <mergeCell ref="H313:I313"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="B312:C312"/>
+    <mergeCell ref="D312:E312"/>
+    <mergeCell ref="F312:G312"/>
+    <mergeCell ref="H312:I312"/>
+    <mergeCell ref="J312:K312"/>
+    <mergeCell ref="B314:C314"/>
+    <mergeCell ref="D314:E314"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D311:E311"/>
+    <mergeCell ref="F311:G311"/>
+    <mergeCell ref="H311:I311"/>
+    <mergeCell ref="J311:K311"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D310:E310"/>
+    <mergeCell ref="F310:G310"/>
+    <mergeCell ref="H310:I310"/>
+    <mergeCell ref="J310:K310"/>
+    <mergeCell ref="B309:C309"/>
+    <mergeCell ref="D309:E309"/>
+    <mergeCell ref="F309:G309"/>
+    <mergeCell ref="H309:I309"/>
+    <mergeCell ref="J309:K309"/>
+    <mergeCell ref="B308:C308"/>
+    <mergeCell ref="D308:E308"/>
+    <mergeCell ref="F308:G308"/>
+    <mergeCell ref="H308:I308"/>
+    <mergeCell ref="J308:K308"/>
+    <mergeCell ref="B307:C307"/>
+    <mergeCell ref="D307:E307"/>
+    <mergeCell ref="F307:G307"/>
+    <mergeCell ref="H307:I307"/>
+    <mergeCell ref="J307:K307"/>
+    <mergeCell ref="H294:I294"/>
+    <mergeCell ref="J294:K294"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="D295:E295"/>
+    <mergeCell ref="F295:G295"/>
+    <mergeCell ref="H295:I295"/>
+    <mergeCell ref="J295:K295"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="D306:E306"/>
+    <mergeCell ref="F306:G306"/>
+    <mergeCell ref="H306:I306"/>
+    <mergeCell ref="J306:K306"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="J305:K305"/>
+    <mergeCell ref="J303:K303"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="F303:G303"/>
+    <mergeCell ref="H303:I303"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="D303:E303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="J301:K301"/>
+    <mergeCell ref="J302:K302"/>
+    <mergeCell ref="F301:G301"/>
+    <mergeCell ref="H301:I301"/>
+    <mergeCell ref="F302:G302"/>
+    <mergeCell ref="H302:I302"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="J299:K299"/>
+    <mergeCell ref="J300:K300"/>
+    <mergeCell ref="F299:G299"/>
+    <mergeCell ref="H299:I299"/>
+    <mergeCell ref="F300:G300"/>
+    <mergeCell ref="H300:I300"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="D299:E299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="J297:K297"/>
+    <mergeCell ref="J298:K298"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="H297:I297"/>
+    <mergeCell ref="F298:G298"/>
+    <mergeCell ref="H298:I298"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="D297:E297"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="D298:E298"/>
+    <mergeCell ref="J296:K296"/>
+    <mergeCell ref="F296:G296"/>
+    <mergeCell ref="H296:I296"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="J289:K289"/>
+    <mergeCell ref="J290:K290"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="H289:I289"/>
+    <mergeCell ref="H290:I290"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="F289:G289"/>
+    <mergeCell ref="F290:G290"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="F294:G294"/>
+    <mergeCell ref="J284:K284"/>
+    <mergeCell ref="J285:K285"/>
+    <mergeCell ref="J286:K286"/>
+    <mergeCell ref="J287:K287"/>
+    <mergeCell ref="J288:K288"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="J274:K274"/>
+    <mergeCell ref="J275:K275"/>
+    <mergeCell ref="J276:K276"/>
+    <mergeCell ref="J277:K277"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="J269:K269"/>
+    <mergeCell ref="J270:K270"/>
+    <mergeCell ref="J271:K271"/>
+    <mergeCell ref="J272:K272"/>
+    <mergeCell ref="J273:K273"/>
+    <mergeCell ref="H284:I284"/>
+    <mergeCell ref="H285:I285"/>
+    <mergeCell ref="H286:I286"/>
+    <mergeCell ref="H287:I287"/>
+    <mergeCell ref="H288:I288"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="H280:I280"/>
+    <mergeCell ref="H281:I281"/>
+    <mergeCell ref="H282:I282"/>
+    <mergeCell ref="H283:I283"/>
+    <mergeCell ref="H274:I274"/>
+    <mergeCell ref="H275:I275"/>
+    <mergeCell ref="H276:I276"/>
+    <mergeCell ref="H277:I277"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="H269:I269"/>
+    <mergeCell ref="H270:I270"/>
+    <mergeCell ref="H271:I271"/>
+    <mergeCell ref="H272:I272"/>
+    <mergeCell ref="H273:I273"/>
+    <mergeCell ref="F284:G284"/>
+    <mergeCell ref="F285:G285"/>
+    <mergeCell ref="F286:G286"/>
+    <mergeCell ref="F287:G287"/>
+    <mergeCell ref="F288:G288"/>
+    <mergeCell ref="D294:E294"/>
+    <mergeCell ref="F269:G269"/>
+    <mergeCell ref="F270:G270"/>
+    <mergeCell ref="F271:G271"/>
+    <mergeCell ref="F272:G272"/>
+    <mergeCell ref="F273:G273"/>
+    <mergeCell ref="F274:G274"/>
+    <mergeCell ref="F275:G275"/>
+    <mergeCell ref="F276:G276"/>
+    <mergeCell ref="F277:G277"/>
+    <mergeCell ref="F278:G278"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="F280:G280"/>
+    <mergeCell ref="F281:G281"/>
+    <mergeCell ref="F282:G282"/>
+    <mergeCell ref="F283:G283"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="D284:E284"/>
+    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="D286:E286"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="D272:E272"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="F268:G268"/>
+    <mergeCell ref="H268:I268"/>
+    <mergeCell ref="J268:K268"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="J240:K240"/>
     <mergeCell ref="H99:I99"/>
     <mergeCell ref="J99:K99"/>
     <mergeCell ref="B98:C98"/>
@@ -13085,261 +13317,29 @@
     <mergeCell ref="B202:D202"/>
     <mergeCell ref="B203:D203"/>
     <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="F268:G268"/>
-    <mergeCell ref="H268:I268"/>
-    <mergeCell ref="J268:K268"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="B287:C287"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="D275:E275"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="D271:E271"/>
-    <mergeCell ref="D272:E272"/>
-    <mergeCell ref="D273:E273"/>
-    <mergeCell ref="D284:E284"/>
-    <mergeCell ref="D285:E285"/>
-    <mergeCell ref="D286:E286"/>
-    <mergeCell ref="D287:E287"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="D280:E280"/>
-    <mergeCell ref="D281:E281"/>
-    <mergeCell ref="D282:E282"/>
-    <mergeCell ref="D283:E283"/>
-    <mergeCell ref="F284:G284"/>
-    <mergeCell ref="F285:G285"/>
-    <mergeCell ref="F286:G286"/>
-    <mergeCell ref="F287:G287"/>
-    <mergeCell ref="F288:G288"/>
-    <mergeCell ref="D294:E294"/>
-    <mergeCell ref="F269:G269"/>
-    <mergeCell ref="F270:G270"/>
-    <mergeCell ref="F271:G271"/>
-    <mergeCell ref="F272:G272"/>
-    <mergeCell ref="F273:G273"/>
-    <mergeCell ref="F274:G274"/>
-    <mergeCell ref="F275:G275"/>
-    <mergeCell ref="F276:G276"/>
-    <mergeCell ref="F277:G277"/>
-    <mergeCell ref="F278:G278"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="F280:G280"/>
-    <mergeCell ref="F281:G281"/>
-    <mergeCell ref="F282:G282"/>
-    <mergeCell ref="F283:G283"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="H274:I274"/>
-    <mergeCell ref="H275:I275"/>
-    <mergeCell ref="H276:I276"/>
-    <mergeCell ref="H277:I277"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="H269:I269"/>
-    <mergeCell ref="H270:I270"/>
-    <mergeCell ref="H271:I271"/>
-    <mergeCell ref="H272:I272"/>
-    <mergeCell ref="H273:I273"/>
-    <mergeCell ref="H284:I284"/>
-    <mergeCell ref="H285:I285"/>
-    <mergeCell ref="H286:I286"/>
-    <mergeCell ref="H287:I287"/>
-    <mergeCell ref="H288:I288"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="H280:I280"/>
-    <mergeCell ref="H281:I281"/>
-    <mergeCell ref="H282:I282"/>
-    <mergeCell ref="H283:I283"/>
-    <mergeCell ref="J274:K274"/>
-    <mergeCell ref="J275:K275"/>
-    <mergeCell ref="J276:K276"/>
-    <mergeCell ref="J277:K277"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="J269:K269"/>
-    <mergeCell ref="J270:K270"/>
-    <mergeCell ref="J271:K271"/>
-    <mergeCell ref="J272:K272"/>
-    <mergeCell ref="J273:K273"/>
-    <mergeCell ref="J284:K284"/>
-    <mergeCell ref="J285:K285"/>
-    <mergeCell ref="J286:K286"/>
-    <mergeCell ref="J287:K287"/>
-    <mergeCell ref="J288:K288"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="J296:K296"/>
-    <mergeCell ref="F296:G296"/>
-    <mergeCell ref="H296:I296"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="D296:E296"/>
-    <mergeCell ref="J289:K289"/>
-    <mergeCell ref="J290:K290"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="H289:I289"/>
-    <mergeCell ref="H290:I290"/>
-    <mergeCell ref="H291:I291"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="F289:G289"/>
-    <mergeCell ref="F290:G290"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="F294:G294"/>
-    <mergeCell ref="J297:K297"/>
-    <mergeCell ref="J298:K298"/>
-    <mergeCell ref="F297:G297"/>
-    <mergeCell ref="H297:I297"/>
-    <mergeCell ref="F298:G298"/>
-    <mergeCell ref="H298:I298"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="D297:E297"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="D298:E298"/>
-    <mergeCell ref="J299:K299"/>
-    <mergeCell ref="J300:K300"/>
-    <mergeCell ref="F299:G299"/>
-    <mergeCell ref="H299:I299"/>
-    <mergeCell ref="F300:G300"/>
-    <mergeCell ref="H300:I300"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="D299:E299"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="D300:E300"/>
-    <mergeCell ref="F303:G303"/>
-    <mergeCell ref="H303:I303"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="B303:C303"/>
-    <mergeCell ref="D303:E303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="J301:K301"/>
-    <mergeCell ref="J302:K302"/>
-    <mergeCell ref="F301:G301"/>
-    <mergeCell ref="H301:I301"/>
-    <mergeCell ref="F302:G302"/>
-    <mergeCell ref="H302:I302"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="D301:E301"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="D302:E302"/>
-    <mergeCell ref="B307:C307"/>
-    <mergeCell ref="D307:E307"/>
-    <mergeCell ref="F307:G307"/>
-    <mergeCell ref="H307:I307"/>
-    <mergeCell ref="J307:K307"/>
-    <mergeCell ref="H294:I294"/>
-    <mergeCell ref="J294:K294"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="D295:E295"/>
-    <mergeCell ref="F295:G295"/>
-    <mergeCell ref="H295:I295"/>
-    <mergeCell ref="J295:K295"/>
-    <mergeCell ref="B306:C306"/>
-    <mergeCell ref="D306:E306"/>
-    <mergeCell ref="F306:G306"/>
-    <mergeCell ref="H306:I306"/>
-    <mergeCell ref="J306:K306"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="J305:K305"/>
-    <mergeCell ref="J303:K303"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="B309:C309"/>
-    <mergeCell ref="D309:E309"/>
-    <mergeCell ref="F309:G309"/>
-    <mergeCell ref="H309:I309"/>
-    <mergeCell ref="J309:K309"/>
-    <mergeCell ref="B308:C308"/>
-    <mergeCell ref="D308:E308"/>
-    <mergeCell ref="F308:G308"/>
-    <mergeCell ref="H308:I308"/>
-    <mergeCell ref="J308:K308"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D311:E311"/>
-    <mergeCell ref="F311:G311"/>
-    <mergeCell ref="H311:I311"/>
-    <mergeCell ref="J311:K311"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D310:E310"/>
-    <mergeCell ref="F310:G310"/>
-    <mergeCell ref="H310:I310"/>
-    <mergeCell ref="J310:K310"/>
-    <mergeCell ref="F314:G314"/>
-    <mergeCell ref="H314:I314"/>
-    <mergeCell ref="J314:K314"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="D313:E313"/>
-    <mergeCell ref="F313:G313"/>
-    <mergeCell ref="H313:I313"/>
-    <mergeCell ref="J313:K313"/>
-    <mergeCell ref="B312:C312"/>
-    <mergeCell ref="D312:E312"/>
-    <mergeCell ref="F312:G312"/>
-    <mergeCell ref="H312:I312"/>
-    <mergeCell ref="J312:K312"/>
-    <mergeCell ref="B314:C314"/>
-    <mergeCell ref="D314:E314"/>
-    <mergeCell ref="B318:C318"/>
-    <mergeCell ref="D318:E318"/>
-    <mergeCell ref="F318:G318"/>
-    <mergeCell ref="H318:I318"/>
-    <mergeCell ref="J318:K318"/>
-    <mergeCell ref="B317:C317"/>
-    <mergeCell ref="D317:E317"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="H317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="B316:C316"/>
-    <mergeCell ref="D316:E316"/>
-    <mergeCell ref="F316:G316"/>
-    <mergeCell ref="H316:I316"/>
-    <mergeCell ref="J316:K316"/>
-    <mergeCell ref="B315:C315"/>
-    <mergeCell ref="D315:E315"/>
-    <mergeCell ref="F315:G315"/>
-    <mergeCell ref="H315:I315"/>
-    <mergeCell ref="J315:K315"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="B207:D207"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="A202:A203"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
@@ -13369,8 +13369,8 @@
   </sheetPr>
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="V154" sqref="V154"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -13407,26 +13407,26 @@
       <c r="C1" s="51">
         <v>42186</v>
       </c>
-      <c r="D1" s="239" t="s">
+      <c r="D1" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="240"/>
-      <c r="F1" s="278" t="s">
+      <c r="E1" s="233"/>
+      <c r="F1" s="229" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
-      <c r="N1" s="260"/>
-      <c r="O1" s="260"/>
-      <c r="P1" s="260"/>
-      <c r="Q1" s="260"/>
-      <c r="R1" s="260"/>
-      <c r="S1" s="261"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="230"/>
+      <c r="L1" s="230"/>
+      <c r="M1" s="230"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="230"/>
+      <c r="P1" s="230"/>
+      <c r="Q1" s="230"/>
+      <c r="R1" s="230"/>
+      <c r="S1" s="231"/>
     </row>
     <row r="2" spans="1:24" ht="13.25" customHeight="1">
       <c r="A2" s="74"/>
@@ -13436,19 +13436,19 @@
       <c r="C2" s="51">
         <v>43281</v>
       </c>
-      <c r="D2" s="239" t="s">
+      <c r="D2" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="240"/>
-      <c r="F2" s="256" t="s">
+      <c r="E2" s="233"/>
+      <c r="F2" s="234" t="s">
         <v>193</v>
       </c>
-      <c r="G2" s="257"/>
-      <c r="H2" s="257"/>
-      <c r="I2" s="257"/>
-      <c r="J2" s="257"/>
-      <c r="K2" s="257"/>
-      <c r="L2" s="257"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
       <c r="M2" s="236"/>
       <c r="N2" s="52" t="str">
         <f>IF(Worksheet!C5=1,Worksheet!C5&amp;" Month",Worksheet!C5&amp;" Months")</f>
@@ -13479,23 +13479,23 @@
       <c r="C3" s="53"/>
     </row>
     <row r="4" spans="1:24" ht="14.5" customHeight="1" thickBot="1">
-      <c r="A4" s="279" t="s">
+      <c r="A4" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="280"/>
-      <c r="C4" s="280"/>
-      <c r="D4" s="280"/>
-      <c r="E4" s="280"/>
-      <c r="F4" s="280"/>
-      <c r="G4" s="280"/>
-      <c r="H4" s="280"/>
-      <c r="I4" s="280"/>
-      <c r="J4" s="281"/>
-      <c r="K4" s="285" t="s">
+      <c r="B4" s="238"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="243" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="286"/>
-      <c r="M4" s="287"/>
+      <c r="L4" s="244"/>
+      <c r="M4" s="245"/>
       <c r="N4" s="55"/>
       <c r="O4" s="54"/>
       <c r="P4" s="264" t="s">
@@ -13510,19 +13510,19 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="282"/>
-      <c r="B5" s="283"/>
-      <c r="C5" s="283"/>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
-      <c r="F5" s="283"/>
-      <c r="G5" s="283"/>
-      <c r="H5" s="283"/>
-      <c r="I5" s="283"/>
-      <c r="J5" s="284"/>
-      <c r="K5" s="288"/>
-      <c r="L5" s="289"/>
-      <c r="M5" s="290"/>
+      <c r="A5" s="240"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="246"/>
+      <c r="L5" s="247"/>
+      <c r="M5" s="248"/>
       <c r="N5" s="57" t="s">
         <v>168</v>
       </c>
@@ -13552,13 +13552,13 @@
       <c r="E6" s="188" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="266" t="s">
+      <c r="F6" s="269" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="267"/>
-      <c r="H6" s="267"/>
-      <c r="I6" s="267"/>
-      <c r="J6" s="267"/>
+      <c r="G6" s="270"/>
+      <c r="H6" s="270"/>
+      <c r="I6" s="270"/>
+      <c r="J6" s="270"/>
       <c r="K6" s="27" t="s">
         <v>15</v>
       </c>
@@ -13597,11 +13597,11 @@
       <c r="A7" s="162">
         <v>1</v>
       </c>
-      <c r="B7" s="268" t="s">
+      <c r="B7" s="258" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="268"/>
-      <c r="D7" s="272"/>
+      <c r="C7" s="258"/>
+      <c r="D7" s="259"/>
       <c r="E7" s="183">
         <v>90766</v>
       </c>
@@ -13655,10 +13655,10 @@
       <c r="A8" s="162">
         <v>2</v>
       </c>
-      <c r="B8" s="268" t="s">
+      <c r="B8" s="258" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="268"/>
+      <c r="C8" s="258"/>
       <c r="D8" s="175"/>
       <c r="E8" s="183">
         <v>45300</v>
@@ -13713,11 +13713,11 @@
       <c r="A9" s="162">
         <v>3</v>
       </c>
-      <c r="B9" s="268" t="s">
+      <c r="B9" s="258" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="268"/>
-      <c r="D9" s="272"/>
+      <c r="C9" s="258"/>
+      <c r="D9" s="259"/>
       <c r="E9" s="183">
         <v>54000</v>
       </c>
@@ -13769,9 +13769,9 @@
       <c r="A10" s="162">
         <v>4</v>
       </c>
-      <c r="B10" s="268"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="272"/>
+      <c r="B10" s="258"/>
+      <c r="C10" s="258"/>
+      <c r="D10" s="259"/>
       <c r="E10" s="183"/>
       <c r="F10" s="105"/>
       <c r="G10" s="105"/>
@@ -13817,9 +13817,9 @@
       <c r="A11" s="162">
         <v>5</v>
       </c>
-      <c r="B11" s="268"/>
-      <c r="C11" s="268"/>
-      <c r="D11" s="272"/>
+      <c r="B11" s="258"/>
+      <c r="C11" s="258"/>
+      <c r="D11" s="259"/>
       <c r="E11" s="183"/>
       <c r="F11" s="105"/>
       <c r="G11" s="105"/>
@@ -13865,9 +13865,9 @@
       <c r="A12" s="162">
         <v>6</v>
       </c>
-      <c r="B12" s="268"/>
-      <c r="C12" s="268"/>
-      <c r="D12" s="272"/>
+      <c r="B12" s="258"/>
+      <c r="C12" s="258"/>
+      <c r="D12" s="259"/>
       <c r="E12" s="183"/>
       <c r="F12" s="105"/>
       <c r="G12" s="105"/>
@@ -13913,9 +13913,9 @@
       <c r="A13" s="162">
         <v>7</v>
       </c>
-      <c r="B13" s="268"/>
-      <c r="C13" s="268"/>
-      <c r="D13" s="272"/>
+      <c r="B13" s="258"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="259"/>
       <c r="E13" s="183"/>
       <c r="F13" s="105"/>
       <c r="G13" s="105"/>
@@ -13961,9 +13961,9 @@
       <c r="A14" s="162">
         <v>8</v>
       </c>
-      <c r="B14" s="268"/>
-      <c r="C14" s="268"/>
-      <c r="D14" s="272"/>
+      <c r="B14" s="258"/>
+      <c r="C14" s="258"/>
+      <c r="D14" s="259"/>
       <c r="E14" s="183"/>
       <c r="F14" s="105"/>
       <c r="G14" s="105"/>
@@ -14009,9 +14009,9 @@
       <c r="A15" s="162">
         <v>9</v>
       </c>
-      <c r="B15" s="268"/>
-      <c r="C15" s="268"/>
-      <c r="D15" s="272"/>
+      <c r="B15" s="258"/>
+      <c r="C15" s="258"/>
+      <c r="D15" s="259"/>
       <c r="E15" s="183"/>
       <c r="F15" s="105"/>
       <c r="G15" s="105"/>
@@ -14057,9 +14057,9 @@
       <c r="A16" s="162">
         <v>10</v>
       </c>
-      <c r="B16" s="268"/>
-      <c r="C16" s="268"/>
-      <c r="D16" s="272"/>
+      <c r="B16" s="258"/>
+      <c r="C16" s="258"/>
+      <c r="D16" s="259"/>
       <c r="E16" s="183"/>
       <c r="F16" s="105"/>
       <c r="G16" s="105"/>
@@ -14105,9 +14105,9 @@
       <c r="A17" s="162">
         <v>11</v>
       </c>
-      <c r="B17" s="268"/>
-      <c r="C17" s="268"/>
-      <c r="D17" s="272"/>
+      <c r="B17" s="258"/>
+      <c r="C17" s="258"/>
+      <c r="D17" s="259"/>
       <c r="E17" s="183"/>
       <c r="F17" s="105"/>
       <c r="G17" s="105"/>
@@ -14153,9 +14153,9 @@
       <c r="A18" s="162">
         <v>12</v>
       </c>
-      <c r="B18" s="268"/>
-      <c r="C18" s="268"/>
-      <c r="D18" s="272"/>
+      <c r="B18" s="258"/>
+      <c r="C18" s="258"/>
+      <c r="D18" s="259"/>
       <c r="E18" s="183"/>
       <c r="F18" s="105"/>
       <c r="G18" s="105"/>
@@ -14201,9 +14201,9 @@
       <c r="A19" s="162">
         <v>13</v>
       </c>
-      <c r="B19" s="268"/>
-      <c r="C19" s="268"/>
-      <c r="D19" s="272"/>
+      <c r="B19" s="258"/>
+      <c r="C19" s="258"/>
+      <c r="D19" s="259"/>
       <c r="E19" s="183"/>
       <c r="F19" s="105"/>
       <c r="G19" s="105"/>
@@ -14249,9 +14249,9 @@
       <c r="A20" s="162">
         <v>14</v>
       </c>
-      <c r="B20" s="268"/>
-      <c r="C20" s="268"/>
-      <c r="D20" s="272"/>
+      <c r="B20" s="258"/>
+      <c r="C20" s="258"/>
+      <c r="D20" s="259"/>
       <c r="E20" s="183"/>
       <c r="F20" s="105"/>
       <c r="G20" s="105"/>
@@ -14297,9 +14297,9 @@
       <c r="A21" s="162">
         <v>15</v>
       </c>
-      <c r="B21" s="268"/>
-      <c r="C21" s="268"/>
-      <c r="D21" s="272"/>
+      <c r="B21" s="258"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="259"/>
       <c r="E21" s="183"/>
       <c r="F21" s="105"/>
       <c r="G21" s="105"/>
@@ -14345,9 +14345,9 @@
       <c r="A22" s="162">
         <v>16</v>
       </c>
-      <c r="B22" s="268"/>
-      <c r="C22" s="268"/>
-      <c r="D22" s="272"/>
+      <c r="B22" s="258"/>
+      <c r="C22" s="258"/>
+      <c r="D22" s="259"/>
       <c r="E22" s="183"/>
       <c r="F22" s="105"/>
       <c r="G22" s="105"/>
@@ -14393,9 +14393,9 @@
       <c r="A23" s="162">
         <v>17</v>
       </c>
-      <c r="B23" s="268"/>
-      <c r="C23" s="268"/>
-      <c r="D23" s="272"/>
+      <c r="B23" s="258"/>
+      <c r="C23" s="258"/>
+      <c r="D23" s="259"/>
       <c r="E23" s="183"/>
       <c r="F23" s="105"/>
       <c r="G23" s="105"/>
@@ -14441,9 +14441,9 @@
       <c r="A24" s="162">
         <v>18</v>
       </c>
-      <c r="B24" s="268"/>
-      <c r="C24" s="268"/>
-      <c r="D24" s="272"/>
+      <c r="B24" s="258"/>
+      <c r="C24" s="258"/>
+      <c r="D24" s="259"/>
       <c r="E24" s="183"/>
       <c r="F24" s="105"/>
       <c r="G24" s="105"/>
@@ -14489,9 +14489,9 @@
       <c r="A25" s="162">
         <v>19</v>
       </c>
-      <c r="B25" s="268"/>
-      <c r="C25" s="268"/>
-      <c r="D25" s="272"/>
+      <c r="B25" s="258"/>
+      <c r="C25" s="258"/>
+      <c r="D25" s="259"/>
       <c r="E25" s="183"/>
       <c r="F25" s="105"/>
       <c r="G25" s="105"/>
@@ -14537,9 +14537,9 @@
       <c r="A26" s="162">
         <v>20</v>
       </c>
-      <c r="B26" s="268"/>
-      <c r="C26" s="268"/>
-      <c r="D26" s="272"/>
+      <c r="B26" s="258"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="259"/>
       <c r="E26" s="183"/>
       <c r="F26" s="105"/>
       <c r="G26" s="105"/>
@@ -14585,9 +14585,9 @@
       <c r="A27" s="162">
         <v>21</v>
       </c>
-      <c r="B27" s="268"/>
-      <c r="C27" s="268"/>
-      <c r="D27" s="272"/>
+      <c r="B27" s="258"/>
+      <c r="C27" s="258"/>
+      <c r="D27" s="259"/>
       <c r="E27" s="183"/>
       <c r="F27" s="105"/>
       <c r="G27" s="105"/>
@@ -14633,9 +14633,9 @@
       <c r="A28" s="162">
         <v>22</v>
       </c>
-      <c r="B28" s="268"/>
-      <c r="C28" s="268"/>
-      <c r="D28" s="272"/>
+      <c r="B28" s="258"/>
+      <c r="C28" s="258"/>
+      <c r="D28" s="259"/>
       <c r="E28" s="183"/>
       <c r="F28" s="105"/>
       <c r="G28" s="105"/>
@@ -14681,9 +14681,9 @@
       <c r="A29" s="162">
         <v>23</v>
       </c>
-      <c r="B29" s="268"/>
-      <c r="C29" s="268"/>
-      <c r="D29" s="272"/>
+      <c r="B29" s="258"/>
+      <c r="C29" s="258"/>
+      <c r="D29" s="259"/>
       <c r="E29" s="183"/>
       <c r="F29" s="105"/>
       <c r="G29" s="105"/>
@@ -14729,9 +14729,9 @@
       <c r="A30" s="162">
         <v>24</v>
       </c>
-      <c r="B30" s="268"/>
-      <c r="C30" s="268"/>
-      <c r="D30" s="272"/>
+      <c r="B30" s="258"/>
+      <c r="C30" s="258"/>
+      <c r="D30" s="259"/>
       <c r="E30" s="183"/>
       <c r="F30" s="105"/>
       <c r="G30" s="105"/>
@@ -14774,21 +14774,21 @@
       <c r="X30" s="61"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="229" t="s">
+      <c r="A31" s="265" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="230"/>
-      <c r="C31" s="230"/>
-      <c r="D31" s="230"/>
-      <c r="E31" s="230"/>
-      <c r="F31" s="230"/>
-      <c r="G31" s="230"/>
-      <c r="H31" s="230"/>
-      <c r="I31" s="230"/>
-      <c r="J31" s="230"/>
-      <c r="K31" s="230"/>
-      <c r="L31" s="230"/>
-      <c r="M31" s="231"/>
+      <c r="B31" s="266"/>
+      <c r="C31" s="266"/>
+      <c r="D31" s="266"/>
+      <c r="E31" s="266"/>
+      <c r="F31" s="266"/>
+      <c r="G31" s="266"/>
+      <c r="H31" s="266"/>
+      <c r="I31" s="266"/>
+      <c r="J31" s="266"/>
+      <c r="K31" s="266"/>
+      <c r="L31" s="266"/>
+      <c r="M31" s="267"/>
       <c r="N31" s="158">
         <f>SUM(N7:N30)</f>
         <v>89197</v>
@@ -14843,55 +14843,55 @@
         <f>Worksheet!C9&amp;"/"&amp;Worksheet!C10</f>
         <v>12/0</v>
       </c>
-      <c r="F33" s="265" t="str">
+      <c r="F33" s="268" t="str">
         <f>Worksheet!D9&amp;"/"&amp;Worksheet!D10</f>
         <v>12/0</v>
       </c>
-      <c r="G33" s="265"/>
-      <c r="H33" s="265" t="str">
+      <c r="G33" s="268"/>
+      <c r="H33" s="268" t="str">
         <f>Worksheet!E9&amp;"/"&amp;Worksheet!E10</f>
         <v>12/0</v>
       </c>
-      <c r="I33" s="265"/>
-      <c r="J33" s="265" t="str">
+      <c r="I33" s="268"/>
+      <c r="J33" s="268" t="str">
         <f>Worksheet!F9&amp;"/"&amp;Worksheet!F10</f>
         <v>0/0</v>
       </c>
-      <c r="K33" s="265"/>
-      <c r="L33" s="265" t="str">
+      <c r="K33" s="268"/>
+      <c r="L33" s="268" t="str">
         <f>Worksheet!G9&amp;"/"&amp;Worksheet!G10</f>
         <v>0/0</v>
       </c>
-      <c r="M33" s="265"/>
+      <c r="M33" s="268"/>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="269" t="s">
+      <c r="A34" s="271" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="270"/>
-      <c r="C34" s="271"/>
+      <c r="B34" s="272"/>
+      <c r="C34" s="273"/>
       <c r="D34" s="177" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="262" t="s">
+      <c r="F34" s="274" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="263"/>
-      <c r="H34" s="262" t="s">
+      <c r="G34" s="275"/>
+      <c r="H34" s="274" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="263"/>
-      <c r="J34" s="262" t="s">
+      <c r="I34" s="275"/>
+      <c r="J34" s="274" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="263"/>
-      <c r="L34" s="262" t="s">
+      <c r="K34" s="275"/>
+      <c r="L34" s="274" t="s">
         <v>19</v>
       </c>
-      <c r="M34" s="263"/>
+      <c r="M34" s="275"/>
       <c r="N34" s="57" t="str">
         <f>N5</f>
         <v>Period 1</v>
@@ -14920,11 +14920,11 @@
       <c r="A35" s="162">
         <v>1</v>
       </c>
-      <c r="B35" s="260" t="str">
+      <c r="B35" s="230" t="str">
         <f t="shared" ref="B35:B58" si="2">B7</f>
         <v>P.  Ullrich</v>
       </c>
-      <c r="C35" s="261"/>
+      <c r="C35" s="231"/>
       <c r="D35" s="179" t="s">
         <v>180</v>
       </c>
@@ -14932,26 +14932,26 @@
         <f>IF($D35=Worksheet!$A$59,Worksheet!B$59,IF($D35=Worksheet!$A$60,Worksheet!B$60,IF($D35=Worksheet!$A$61,Worksheet!B$61,IF($D35=Worksheet!$A$62,Worksheet!B$62,IF($D35=Worksheet!$A$63,Worksheet!B$63,IF($D35=Worksheet!$A$64,Worksheet!B$64,IF($D35=Worksheet!$A$65,Worksheet!B$65,IF($D35=Worksheet!$A$66,Worksheet!B$66,IF($D35=Worksheet!$A$67,Worksheet!B$67,IF($D35=Worksheet!$A$68,Worksheet!B269,IF($D35=Worksheet!$A$69,Worksheet!B269,IF($D35=Worksheet!$A$70,Worksheet!B269,IF($D35=Worksheet!$A$71,"")))))))))))))</f>
         <v>17</v>
       </c>
-      <c r="F35" s="256">
+      <c r="F35" s="234">
         <f>IF($D35=Worksheet!$A$59,Worksheet!C$59,IF($D35=Worksheet!$A$60,Worksheet!C$60,IF($D35=Worksheet!$A$61,Worksheet!C$61,IF($D35=Worksheet!$A$62,Worksheet!C$62,IF($D35=Worksheet!$A$63,Worksheet!C$63,IF($D35=Worksheet!$A$64,Worksheet!C$64,IF($D35=Worksheet!$A$65,Worksheet!C$65,IF($D35=Worksheet!$A$66,Worksheet!C$66,IF($D35=Worksheet!$A$67,Worksheet!C$67,IF($D35=Worksheet!$A$68,Worksheet!D269,IF($D35=Worksheet!$A$69,Worksheet!D269,IF($D35=Worksheet!$A$70,Worksheet!D269,IF($D35=Worksheet!$A$71,"")))))))))))))</f>
         <v>18</v>
       </c>
       <c r="G35" s="236"/>
-      <c r="H35" s="258">
+      <c r="H35" s="276">
         <f>IF($D35=Worksheet!$A$59,Worksheet!D$59,IF($D35=Worksheet!$A$60,Worksheet!D$60,IF($D35=Worksheet!$A$61,Worksheet!D$61,IF($D35=Worksheet!$A$62,Worksheet!D$62,IF($D35=Worksheet!$A$63,Worksheet!D$63,IF($D35=Worksheet!$A$64,Worksheet!D$64,IF($D35=Worksheet!$A$65,Worksheet!D$65,IF($D35=Worksheet!$A$66,Worksheet!D$66,IF($D35=Worksheet!$A$67,Worksheet!D$67,IF($D35=Worksheet!$A$68,Worksheet!F269,IF($D35=Worksheet!$A$69,Worksheet!F269,IF($D35=Worksheet!$A$70,Worksheet!F269,IF($D35=Worksheet!$A$71,"")))))))))))))</f>
         <v>18.5</v>
       </c>
-      <c r="I35" s="259"/>
-      <c r="J35" s="258">
+      <c r="I35" s="277"/>
+      <c r="J35" s="276">
         <f>IF($D35=Worksheet!$A$59,Worksheet!E$59,IF($D35=Worksheet!$A$60,Worksheet!E$60,IF($D35=Worksheet!$A$61,Worksheet!E$61,IF($D35=Worksheet!$A$62,Worksheet!E$62,IF($D35=Worksheet!$A$63,Worksheet!E$63,IF($D35=Worksheet!$A$64,Worksheet!E$64,IF($D35=Worksheet!$A$65,Worksheet!E$65,IF($D35=Worksheet!$A$66,Worksheet!E$66,IF($D35=Worksheet!$A$67,Worksheet!E$67,IF($D35=Worksheet!$A$68,Worksheet!H269,IF($D35=Worksheet!$A$69,Worksheet!H269,IF($D35=Worksheet!$A$70,Worksheet!H269,IF($D35=Worksheet!$A$71,"")))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="K35" s="259"/>
-      <c r="L35" s="258">
+      <c r="K35" s="277"/>
+      <c r="L35" s="276">
         <f>IF($D35=Worksheet!$A$59,Worksheet!F$59,IF($D35=Worksheet!$A$60,Worksheet!F$60,IF($D35=Worksheet!$A$61,Worksheet!F$61,IF($D35=Worksheet!$A$62,Worksheet!F$62,IF($D35=Worksheet!$A$63,Worksheet!F$63,IF($D35=Worksheet!$A$64,Worksheet!F$64,IF($D35=Worksheet!$A$65,Worksheet!F$65,IF($D35=Worksheet!$A$66,Worksheet!F$66,IF($D35=Worksheet!$A$67,Worksheet!F$67,IF($D35=Worksheet!$A$68,Worksheet!J269,IF($D35=Worksheet!$A$69,Worksheet!J269,IF($D35=Worksheet!$A$70,Worksheet!J269,IF($D35=Worksheet!$A$71,"")))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="M35" s="259"/>
+      <c r="M35" s="277"/>
       <c r="N35" s="80">
         <f>IF(AND($D35="F-SMRA",N7=0),0,IF(AND($D35="F-SMRB",N7=0),0,IF(AND($D35="F-SMRC",N7=0),0,IF($D35=Worksheet!$A$68,Worksheet!B295,IF($D35=Worksheet!$A$69,Worksheet!B295,IF($D35=Worksheet!$A$70,Worksheet!B295,ROUND((Request!N7/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D35=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D35=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D35=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D35=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D35=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D35=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D35=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D35=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D35=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N7/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D35=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D35=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D35=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D35=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D35=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D35=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D35=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D35=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D35=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>1286</v>
@@ -14986,11 +14986,11 @@
       <c r="A36" s="162">
         <v>2</v>
       </c>
-      <c r="B36" s="260" t="str">
+      <c r="B36" s="230" t="str">
         <f t="shared" si="2"/>
         <v>TBN (GSR IV)</v>
       </c>
-      <c r="C36" s="261"/>
+      <c r="C36" s="231"/>
       <c r="D36" s="179" t="s">
         <v>33</v>
       </c>
@@ -14998,26 +14998,26 @@
         <f>IF($D36=Worksheet!$A$59,Worksheet!B$59,IF($D36=Worksheet!$A$60,Worksheet!B$60,IF($D36=Worksheet!$A$61,Worksheet!B$61,IF($D36=Worksheet!$A$62,Worksheet!B$62,IF($D36=Worksheet!$A$63,Worksheet!B$63,IF($D36=Worksheet!$A$64,Worksheet!B$64,IF($D36=Worksheet!$A$65,Worksheet!B$65,IF($D36=Worksheet!$A$66,Worksheet!B$66,IF($D36=Worksheet!$A$67,Worksheet!B$67,IF($D36=Worksheet!$A$68,Worksheet!B270,IF($D36=Worksheet!$A$69,Worksheet!B270,IF($D36=Worksheet!$A$70,Worksheet!B270,IF($D36=Worksheet!$A$71,"")))))))))))))</f>
         <v>1.3</v>
       </c>
-      <c r="F36" s="256">
+      <c r="F36" s="234">
         <f>IF($D36=Worksheet!$A$59,Worksheet!C$59,IF($D36=Worksheet!$A$60,Worksheet!C$60,IF($D36=Worksheet!$A$61,Worksheet!C$61,IF($D36=Worksheet!$A$62,Worksheet!C$62,IF($D36=Worksheet!$A$63,Worksheet!C$63,IF($D36=Worksheet!$A$64,Worksheet!C$64,IF($D36=Worksheet!$A$65,Worksheet!C$65,IF($D36=Worksheet!$A$66,Worksheet!C$66,IF($D36=Worksheet!$A$67,Worksheet!C$67,IF($D36=Worksheet!$A$68,Worksheet!D270,IF($D36=Worksheet!$A$69,Worksheet!D270,IF($D36=Worksheet!$A$70,Worksheet!D270,IF($D36=Worksheet!$A$71,"")))))))))))))</f>
         <v>1.3</v>
       </c>
       <c r="G36" s="236"/>
-      <c r="H36" s="258">
+      <c r="H36" s="276">
         <f>IF($D36=Worksheet!$A$59,Worksheet!D$59,IF($D36=Worksheet!$A$60,Worksheet!D$60,IF($D36=Worksheet!$A$61,Worksheet!D$61,IF($D36=Worksheet!$A$62,Worksheet!D$62,IF($D36=Worksheet!$A$63,Worksheet!D$63,IF($D36=Worksheet!$A$64,Worksheet!D$64,IF($D36=Worksheet!$A$65,Worksheet!D$65,IF($D36=Worksheet!$A$66,Worksheet!D$66,IF($D36=Worksheet!$A$67,Worksheet!D$67,IF($D36=Worksheet!$A$68,Worksheet!F270,IF($D36=Worksheet!$A$69,Worksheet!F270,IF($D36=Worksheet!$A$70,Worksheet!F270,IF($D36=Worksheet!$A$71,"")))))))))))))</f>
         <v>1.3</v>
       </c>
-      <c r="I36" s="259"/>
-      <c r="J36" s="258" t="str">
+      <c r="I36" s="277"/>
+      <c r="J36" s="276" t="str">
         <f>IF($D36=Worksheet!$A$59,Worksheet!E$59,IF($D36=Worksheet!$A$60,Worksheet!E$60,IF($D36=Worksheet!$A$61,Worksheet!E$61,IF($D36=Worksheet!$A$62,Worksheet!E$62,IF($D36=Worksheet!$A$63,Worksheet!E$63,IF($D36=Worksheet!$A$64,Worksheet!E$64,IF($D36=Worksheet!$A$65,Worksheet!E$65,IF($D36=Worksheet!$A$66,Worksheet!E$66,IF($D36=Worksheet!$A$67,Worksheet!E$67,IF($D36=Worksheet!$A$68,Worksheet!H270,IF($D36=Worksheet!$A$69,Worksheet!H270,IF($D36=Worksheet!$A$70,Worksheet!H270,IF($D36=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K36" s="259"/>
-      <c r="L36" s="258" t="str">
+      <c r="K36" s="277"/>
+      <c r="L36" s="276" t="str">
         <f>IF($D36=Worksheet!$A$59,Worksheet!F$59,IF($D36=Worksheet!$A$60,Worksheet!F$60,IF($D36=Worksheet!$A$61,Worksheet!F$61,IF($D36=Worksheet!$A$62,Worksheet!F$62,IF($D36=Worksheet!$A$63,Worksheet!F$63,IF($D36=Worksheet!$A$64,Worksheet!F$64,IF($D36=Worksheet!$A$65,Worksheet!F$65,IF($D36=Worksheet!$A$66,Worksheet!F$66,IF($D36=Worksheet!$A$67,Worksheet!F$67,IF($D36=Worksheet!$A$68,Worksheet!J270,IF($D36=Worksheet!$A$69,Worksheet!J270,IF($D36=Worksheet!$A$70,Worksheet!J270,IF($D36=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M36" s="259"/>
+      <c r="M36" s="277"/>
       <c r="N36" s="80">
         <f>IF(AND(D36="F-SMRA",N8=0),0,IF(AND(D36="F-SMRB",N8=0),0,IF(AND(D36="F-SMRC",N8=0),0,IF($D36=Worksheet!$A$68,Worksheet!B296,IF($D36=Worksheet!$A$69,Worksheet!B296,IF($D36=Worksheet!$A$70,Worksheet!B296,ROUND((Request!N8/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D36=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D36=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D36=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D36=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D36=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D36=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D36=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D36=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D36=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N8/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D36=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D36=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D36=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D36=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D36=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D36=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D36=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D36=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D36=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>359</v>
@@ -15052,11 +15052,11 @@
       <c r="A37" s="162">
         <v>3</v>
       </c>
-      <c r="B37" s="260" t="str">
+      <c r="B37" s="230" t="str">
         <f t="shared" si="2"/>
         <v>Postdoctoral Scholar</v>
       </c>
-      <c r="C37" s="261"/>
+      <c r="C37" s="231"/>
       <c r="D37" s="179" t="s">
         <v>20</v>
       </c>
@@ -15064,26 +15064,26 @@
         <f>IF($D37=Worksheet!$A$59,Worksheet!B$59,IF($D37=Worksheet!$A$60,Worksheet!B$60,IF($D37=Worksheet!$A$61,Worksheet!B$61,IF($D37=Worksheet!$A$62,Worksheet!B$62,IF($D37=Worksheet!$A$63,Worksheet!B$63,IF($D37=Worksheet!$A$64,Worksheet!B$64,IF($D37=Worksheet!$A$65,Worksheet!B$65,IF($D37=Worksheet!$A$66,Worksheet!B$66,IF($D37=Worksheet!$A$67,Worksheet!B$67,IF($D37=Worksheet!$A$68,Worksheet!B271,IF($D37=Worksheet!$A$69,Worksheet!B271,IF($D37=Worksheet!$A$70,Worksheet!B271,IF($D37=Worksheet!$A$71,"")))))))))))))</f>
         <v>17</v>
       </c>
-      <c r="F37" s="256">
+      <c r="F37" s="234">
         <f>IF($D37=Worksheet!$A$59,Worksheet!C$59,IF($D37=Worksheet!$A$60,Worksheet!C$60,IF($D37=Worksheet!$A$61,Worksheet!C$61,IF($D37=Worksheet!$A$62,Worksheet!C$62,IF($D37=Worksheet!$A$63,Worksheet!C$63,IF($D37=Worksheet!$A$64,Worksheet!C$64,IF($D37=Worksheet!$A$65,Worksheet!C$65,IF($D37=Worksheet!$A$66,Worksheet!C$66,IF($D37=Worksheet!$A$67,Worksheet!C$67,IF($D37=Worksheet!$A$68,Worksheet!D271,IF($D37=Worksheet!$A$69,Worksheet!D271,IF($D37=Worksheet!$A$70,Worksheet!D271,IF($D37=Worksheet!$A$71,"")))))))))))))</f>
         <v>18</v>
       </c>
       <c r="G37" s="236"/>
-      <c r="H37" s="258">
+      <c r="H37" s="276">
         <f>IF($D37=Worksheet!$A$59,Worksheet!D$59,IF($D37=Worksheet!$A$60,Worksheet!D$60,IF($D37=Worksheet!$A$61,Worksheet!D$61,IF($D37=Worksheet!$A$62,Worksheet!D$62,IF($D37=Worksheet!$A$63,Worksheet!D$63,IF($D37=Worksheet!$A$64,Worksheet!D$64,IF($D37=Worksheet!$A$65,Worksheet!D$65,IF($D37=Worksheet!$A$66,Worksheet!D$66,IF($D37=Worksheet!$A$67,Worksheet!D$67,IF($D37=Worksheet!$A$68,Worksheet!F271,IF($D37=Worksheet!$A$69,Worksheet!F271,IF($D37=Worksheet!$A$70,Worksheet!F271,IF($D37=Worksheet!$A$71,"")))))))))))))</f>
         <v>18.5</v>
       </c>
-      <c r="I37" s="259"/>
-      <c r="J37" s="258" t="str">
+      <c r="I37" s="277"/>
+      <c r="J37" s="276" t="str">
         <f>IF($D37=Worksheet!$A$59,Worksheet!E$59,IF($D37=Worksheet!$A$60,Worksheet!E$60,IF($D37=Worksheet!$A$61,Worksheet!E$61,IF($D37=Worksheet!$A$62,Worksheet!E$62,IF($D37=Worksheet!$A$63,Worksheet!E$63,IF($D37=Worksheet!$A$64,Worksheet!E$64,IF($D37=Worksheet!$A$65,Worksheet!E$65,IF($D37=Worksheet!$A$66,Worksheet!E$66,IF($D37=Worksheet!$A$67,Worksheet!E$67,IF($D37=Worksheet!$A$68,Worksheet!H271,IF($D37=Worksheet!$A$69,Worksheet!H271,IF($D37=Worksheet!$A$70,Worksheet!H271,IF($D37=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K37" s="259"/>
-      <c r="L37" s="258" t="str">
+      <c r="K37" s="277"/>
+      <c r="L37" s="276" t="str">
         <f>IF($D37=Worksheet!$A$59,Worksheet!F$59,IF($D37=Worksheet!$A$60,Worksheet!F$60,IF($D37=Worksheet!$A$61,Worksheet!F$61,IF($D37=Worksheet!$A$62,Worksheet!F$62,IF($D37=Worksheet!$A$63,Worksheet!F$63,IF($D37=Worksheet!$A$64,Worksheet!F$64,IF($D37=Worksheet!$A$65,Worksheet!F$65,IF($D37=Worksheet!$A$66,Worksheet!F$66,IF($D37=Worksheet!$A$67,Worksheet!F$67,IF($D37=Worksheet!$A$68,Worksheet!J271,IF($D37=Worksheet!$A$69,Worksheet!J271,IF($D37=Worksheet!$A$70,Worksheet!J271,IF($D37=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M37" s="259"/>
+      <c r="M37" s="277"/>
       <c r="N37" s="80">
         <f>IF(AND(D37="F-SMRA",N9=0),0,IF(AND(D37="F-SMRB",N9=0),0,IF(AND(D37="F-SMRC",N9=0),0,IF($D37=Worksheet!$A$68,Worksheet!B297,IF($D37=Worksheet!$A$69,Worksheet!B297,IF($D37=Worksheet!$A$70,Worksheet!B297,ROUND((Request!N9/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D37=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D37=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D37=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D37=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D37=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D37=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D37=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D37=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D37=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N9/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D37=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D37=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D37=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D37=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D37=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D37=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D37=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D37=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D37=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>9180</v>
@@ -15118,11 +15118,11 @@
       <c r="A38" s="162">
         <v>4</v>
       </c>
-      <c r="B38" s="260">
+      <c r="B38" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C38" s="261"/>
+      <c r="C38" s="231"/>
       <c r="D38" s="179" t="s">
         <v>54</v>
       </c>
@@ -15130,26 +15130,26 @@
         <f>IF($D38=Worksheet!$A$59,Worksheet!B$59,IF($D38=Worksheet!$A$60,Worksheet!B$60,IF($D38=Worksheet!$A$61,Worksheet!B$61,IF($D38=Worksheet!$A$62,Worksheet!B$62,IF($D38=Worksheet!$A$63,Worksheet!B$63,IF($D38=Worksheet!$A$64,Worksheet!B$64,IF($D38=Worksheet!$A$65,Worksheet!B$65,IF($D38=Worksheet!$A$66,Worksheet!B$66,IF($D38=Worksheet!$A$67,Worksheet!B$67,IF($D38=Worksheet!$A$68,Worksheet!B272,IF($D38=Worksheet!$A$69,Worksheet!B272,IF($D38=Worksheet!$A$70,Worksheet!B272,IF($D38=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F38" s="256" t="str">
+      <c r="F38" s="234" t="str">
         <f>IF($D38=Worksheet!$A$59,Worksheet!C$59,IF($D38=Worksheet!$A$60,Worksheet!C$60,IF($D38=Worksheet!$A$61,Worksheet!C$61,IF($D38=Worksheet!$A$62,Worksheet!C$62,IF($D38=Worksheet!$A$63,Worksheet!C$63,IF($D38=Worksheet!$A$64,Worksheet!C$64,IF($D38=Worksheet!$A$65,Worksheet!C$65,IF($D38=Worksheet!$A$66,Worksheet!C$66,IF($D38=Worksheet!$A$67,Worksheet!C$67,IF($D38=Worksheet!$A$68,Worksheet!D272,IF($D38=Worksheet!$A$69,Worksheet!D272,IF($D38=Worksheet!$A$70,Worksheet!D272,IF($D38=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G38" s="236"/>
-      <c r="H38" s="258" t="str">
+      <c r="H38" s="276" t="str">
         <f>IF($D38=Worksheet!$A$59,Worksheet!D$59,IF($D38=Worksheet!$A$60,Worksheet!D$60,IF($D38=Worksheet!$A$61,Worksheet!D$61,IF($D38=Worksheet!$A$62,Worksheet!D$62,IF($D38=Worksheet!$A$63,Worksheet!D$63,IF($D38=Worksheet!$A$64,Worksheet!D$64,IF($D38=Worksheet!$A$65,Worksheet!D$65,IF($D38=Worksheet!$A$66,Worksheet!D$66,IF($D38=Worksheet!$A$67,Worksheet!D$67,IF($D38=Worksheet!$A$68,Worksheet!F272,IF($D38=Worksheet!$A$69,Worksheet!F272,IF($D38=Worksheet!$A$70,Worksheet!F272,IF($D38=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I38" s="259"/>
-      <c r="J38" s="258" t="str">
+      <c r="I38" s="277"/>
+      <c r="J38" s="276" t="str">
         <f>IF($D38=Worksheet!$A$59,Worksheet!E$59,IF($D38=Worksheet!$A$60,Worksheet!E$60,IF($D38=Worksheet!$A$61,Worksheet!E$61,IF($D38=Worksheet!$A$62,Worksheet!E$62,IF($D38=Worksheet!$A$63,Worksheet!E$63,IF($D38=Worksheet!$A$64,Worksheet!E$64,IF($D38=Worksheet!$A$65,Worksheet!E$65,IF($D38=Worksheet!$A$66,Worksheet!E$66,IF($D38=Worksheet!$A$67,Worksheet!E$67,IF($D38=Worksheet!$A$68,Worksheet!H272,IF($D38=Worksheet!$A$69,Worksheet!H272,IF($D38=Worksheet!$A$70,Worksheet!H272,IF($D38=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K38" s="259"/>
-      <c r="L38" s="258" t="str">
+      <c r="K38" s="277"/>
+      <c r="L38" s="276" t="str">
         <f>IF($D38=Worksheet!$A$59,Worksheet!F$59,IF($D38=Worksheet!$A$60,Worksheet!F$60,IF($D38=Worksheet!$A$61,Worksheet!F$61,IF($D38=Worksheet!$A$62,Worksheet!F$62,IF($D38=Worksheet!$A$63,Worksheet!F$63,IF($D38=Worksheet!$A$64,Worksheet!F$64,IF($D38=Worksheet!$A$65,Worksheet!F$65,IF($D38=Worksheet!$A$66,Worksheet!F$66,IF($D38=Worksheet!$A$67,Worksheet!F$67,IF($D38=Worksheet!$A$68,Worksheet!J272,IF($D38=Worksheet!$A$69,Worksheet!J272,IF($D38=Worksheet!$A$70,Worksheet!J272,IF($D38=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M38" s="259"/>
+      <c r="M38" s="277"/>
       <c r="N38" s="80">
         <f>IF(AND(D38="F-SMRA",N10=0),0,IF(AND(D38="F-SMRB",N10=0),0,IF(AND(D38="F-SMRC",N10=0),0,IF($D38=Worksheet!$A$68,Worksheet!B298,IF($D38=Worksheet!$A$69,Worksheet!B298,IF($D38=Worksheet!$A$70,Worksheet!B298,ROUND((Request!N10/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D38=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D38=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D38=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D38=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D38=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D38=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D38=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D38=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D38=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N10/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D38=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D38=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D38=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D38=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D38=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D38=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D38=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D38=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D38=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -15184,11 +15184,11 @@
       <c r="A39" s="162">
         <v>5</v>
       </c>
-      <c r="B39" s="260">
+      <c r="B39" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C39" s="261"/>
+      <c r="C39" s="231"/>
       <c r="D39" s="179" t="s">
         <v>54</v>
       </c>
@@ -15196,26 +15196,26 @@
         <f>IF($D39=Worksheet!$A$59,Worksheet!B$59,IF($D39=Worksheet!$A$60,Worksheet!B$60,IF($D39=Worksheet!$A$61,Worksheet!B$61,IF($D39=Worksheet!$A$62,Worksheet!B$62,IF($D39=Worksheet!$A$63,Worksheet!B$63,IF($D39=Worksheet!$A$64,Worksheet!B$64,IF($D39=Worksheet!$A$65,Worksheet!B$65,IF($D39=Worksheet!$A$66,Worksheet!B$66,IF($D39=Worksheet!$A$67,Worksheet!B$67,IF($D39=Worksheet!$A$68,Worksheet!B273,IF($D39=Worksheet!$A$69,Worksheet!B273,IF($D39=Worksheet!$A$70,Worksheet!B273,IF($D39=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F39" s="256" t="str">
+      <c r="F39" s="234" t="str">
         <f>IF($D39=Worksheet!$A$59,Worksheet!C$59,IF($D39=Worksheet!$A$60,Worksheet!C$60,IF($D39=Worksheet!$A$61,Worksheet!C$61,IF($D39=Worksheet!$A$62,Worksheet!C$62,IF($D39=Worksheet!$A$63,Worksheet!C$63,IF($D39=Worksheet!$A$64,Worksheet!C$64,IF($D39=Worksheet!$A$65,Worksheet!C$65,IF($D39=Worksheet!$A$66,Worksheet!C$66,IF($D39=Worksheet!$A$67,Worksheet!C$67,IF($D39=Worksheet!$A$68,Worksheet!D273,IF($D39=Worksheet!$A$69,Worksheet!D273,IF($D39=Worksheet!$A$70,Worksheet!D273,IF($D39=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G39" s="236"/>
-      <c r="H39" s="258" t="str">
+      <c r="H39" s="276" t="str">
         <f>IF($D39=Worksheet!$A$59,Worksheet!D$59,IF($D39=Worksheet!$A$60,Worksheet!D$60,IF($D39=Worksheet!$A$61,Worksheet!D$61,IF($D39=Worksheet!$A$62,Worksheet!D$62,IF($D39=Worksheet!$A$63,Worksheet!D$63,IF($D39=Worksheet!$A$64,Worksheet!D$64,IF($D39=Worksheet!$A$65,Worksheet!D$65,IF($D39=Worksheet!$A$66,Worksheet!D$66,IF($D39=Worksheet!$A$67,Worksheet!D$67,IF($D39=Worksheet!$A$68,Worksheet!F273,IF($D39=Worksheet!$A$69,Worksheet!F273,IF($D39=Worksheet!$A$70,Worksheet!F273,IF($D39=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I39" s="259"/>
-      <c r="J39" s="258" t="str">
+      <c r="I39" s="277"/>
+      <c r="J39" s="276" t="str">
         <f>IF($D39=Worksheet!$A$59,Worksheet!E$59,IF($D39=Worksheet!$A$60,Worksheet!E$60,IF($D39=Worksheet!$A$61,Worksheet!E$61,IF($D39=Worksheet!$A$62,Worksheet!E$62,IF($D39=Worksheet!$A$63,Worksheet!E$63,IF($D39=Worksheet!$A$64,Worksheet!E$64,IF($D39=Worksheet!$A$65,Worksheet!E$65,IF($D39=Worksheet!$A$66,Worksheet!E$66,IF($D39=Worksheet!$A$67,Worksheet!E$67,IF($D39=Worksheet!$A$68,Worksheet!H273,IF($D39=Worksheet!$A$69,Worksheet!H273,IF($D39=Worksheet!$A$70,Worksheet!H273,IF($D39=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K39" s="259"/>
-      <c r="L39" s="258" t="str">
+      <c r="K39" s="277"/>
+      <c r="L39" s="276" t="str">
         <f>IF($D39=Worksheet!$A$59,Worksheet!F$59,IF($D39=Worksheet!$A$60,Worksheet!F$60,IF($D39=Worksheet!$A$61,Worksheet!F$61,IF($D39=Worksheet!$A$62,Worksheet!F$62,IF($D39=Worksheet!$A$63,Worksheet!F$63,IF($D39=Worksheet!$A$64,Worksheet!F$64,IF($D39=Worksheet!$A$65,Worksheet!F$65,IF($D39=Worksheet!$A$66,Worksheet!F$66,IF($D39=Worksheet!$A$67,Worksheet!F$67,IF($D39=Worksheet!$A$68,Worksheet!J273,IF($D39=Worksheet!$A$69,Worksheet!J273,IF($D39=Worksheet!$A$70,Worksheet!J273,IF($D39=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M39" s="259"/>
+      <c r="M39" s="277"/>
       <c r="N39" s="80">
         <f>IF(AND(D39="F-SMRA",N11=0),0,IF(AND(D39="F-SMRB",N11=0),0,IF(AND(D39="F-SMRC",N11=0),0,IF($D39=Worksheet!$A$68,Worksheet!B299,IF($D39=Worksheet!$A$69,Worksheet!B299,IF($D39=Worksheet!$A$70,Worksheet!B299,ROUND((Request!N11/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D39=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D39=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D39=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D39=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D39=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D39=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D39=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D39=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D39=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N11/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D39=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D39=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D39=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D39=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D39=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D39=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D39=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D39=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D39=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -15250,11 +15250,11 @@
       <c r="A40" s="162">
         <v>6</v>
       </c>
-      <c r="B40" s="260">
+      <c r="B40" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C40" s="261"/>
+      <c r="C40" s="231"/>
       <c r="D40" s="179" t="s">
         <v>54</v>
       </c>
@@ -15262,26 +15262,26 @@
         <f>IF($D40=Worksheet!$A$59,Worksheet!B$59,IF($D40=Worksheet!$A$60,Worksheet!B$60,IF($D40=Worksheet!$A$61,Worksheet!B$61,IF($D40=Worksheet!$A$62,Worksheet!B$62,IF($D40=Worksheet!$A$63,Worksheet!B$63,IF($D40=Worksheet!$A$64,Worksheet!B$64,IF($D40=Worksheet!$A$65,Worksheet!B$65,IF($D40=Worksheet!$A$66,Worksheet!B$66,IF($D40=Worksheet!$A$67,Worksheet!B$67,IF($D40=Worksheet!$A$68,Worksheet!B274,IF($D40=Worksheet!$A$69,Worksheet!B274,IF($D40=Worksheet!$A$70,Worksheet!B274,IF($D40=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F40" s="256" t="str">
+      <c r="F40" s="234" t="str">
         <f>IF($D40=Worksheet!$A$59,Worksheet!C$59,IF($D40=Worksheet!$A$60,Worksheet!C$60,IF($D40=Worksheet!$A$61,Worksheet!C$61,IF($D40=Worksheet!$A$62,Worksheet!C$62,IF($D40=Worksheet!$A$63,Worksheet!C$63,IF($D40=Worksheet!$A$64,Worksheet!C$64,IF($D40=Worksheet!$A$65,Worksheet!C$65,IF($D40=Worksheet!$A$66,Worksheet!C$66,IF($D40=Worksheet!$A$67,Worksheet!C$67,IF($D40=Worksheet!$A$68,Worksheet!D274,IF($D40=Worksheet!$A$69,Worksheet!D274,IF($D40=Worksheet!$A$70,Worksheet!D274,IF($D40=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G40" s="236"/>
-      <c r="H40" s="258" t="str">
+      <c r="H40" s="276" t="str">
         <f>IF($D40=Worksheet!$A$59,Worksheet!D$59,IF($D40=Worksheet!$A$60,Worksheet!D$60,IF($D40=Worksheet!$A$61,Worksheet!D$61,IF($D40=Worksheet!$A$62,Worksheet!D$62,IF($D40=Worksheet!$A$63,Worksheet!D$63,IF($D40=Worksheet!$A$64,Worksheet!D$64,IF($D40=Worksheet!$A$65,Worksheet!D$65,IF($D40=Worksheet!$A$66,Worksheet!D$66,IF($D40=Worksheet!$A$67,Worksheet!D$67,IF($D40=Worksheet!$A$68,Worksheet!F274,IF($D40=Worksheet!$A$69,Worksheet!F274,IF($D40=Worksheet!$A$70,Worksheet!F274,IF($D40=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I40" s="259"/>
-      <c r="J40" s="258" t="str">
+      <c r="I40" s="277"/>
+      <c r="J40" s="276" t="str">
         <f>IF($D40=Worksheet!$A$59,Worksheet!E$59,IF($D40=Worksheet!$A$60,Worksheet!E$60,IF($D40=Worksheet!$A$61,Worksheet!E$61,IF($D40=Worksheet!$A$62,Worksheet!E$62,IF($D40=Worksheet!$A$63,Worksheet!E$63,IF($D40=Worksheet!$A$64,Worksheet!E$64,IF($D40=Worksheet!$A$65,Worksheet!E$65,IF($D40=Worksheet!$A$66,Worksheet!E$66,IF($D40=Worksheet!$A$67,Worksheet!E$67,IF($D40=Worksheet!$A$68,Worksheet!H274,IF($D40=Worksheet!$A$69,Worksheet!H274,IF($D40=Worksheet!$A$70,Worksheet!H274,IF($D40=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K40" s="259"/>
-      <c r="L40" s="258" t="str">
+      <c r="K40" s="277"/>
+      <c r="L40" s="276" t="str">
         <f>IF($D40=Worksheet!$A$59,Worksheet!F$59,IF($D40=Worksheet!$A$60,Worksheet!F$60,IF($D40=Worksheet!$A$61,Worksheet!F$61,IF($D40=Worksheet!$A$62,Worksheet!F$62,IF($D40=Worksheet!$A$63,Worksheet!F$63,IF($D40=Worksheet!$A$64,Worksheet!F$64,IF($D40=Worksheet!$A$65,Worksheet!F$65,IF($D40=Worksheet!$A$66,Worksheet!F$66,IF($D40=Worksheet!$A$67,Worksheet!F$67,IF($D40=Worksheet!$A$68,Worksheet!J274,IF($D40=Worksheet!$A$69,Worksheet!J274,IF($D40=Worksheet!$A$70,Worksheet!J274,IF($D40=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M40" s="259"/>
+      <c r="M40" s="277"/>
       <c r="N40" s="80">
         <f>IF(AND(D40="F-SMRA",N12=0),0,IF(AND(D40="F-SMRB",N12=0),0,IF(AND(D40="F-SMRC",N12=0),0,IF($D40=Worksheet!$A$68,Worksheet!B300,IF($D40=Worksheet!$A$69,Worksheet!B300,IF($D40=Worksheet!$A$70,Worksheet!B300,ROUND((Request!N12/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D40=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D40=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D40=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D40=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D40=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D40=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D40=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D40=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D40=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N12/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D40=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D40=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D40=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D40=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D40=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D40=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D40=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D40=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D40=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -15316,11 +15316,11 @@
       <c r="A41" s="162">
         <v>7</v>
       </c>
-      <c r="B41" s="260">
+      <c r="B41" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C41" s="261"/>
+      <c r="C41" s="231"/>
       <c r="D41" s="179" t="s">
         <v>54</v>
       </c>
@@ -15328,26 +15328,26 @@
         <f>IF($D41=Worksheet!$A$59,Worksheet!B$59,IF($D41=Worksheet!$A$60,Worksheet!B$60,IF($D41=Worksheet!$A$61,Worksheet!B$61,IF($D41=Worksheet!$A$62,Worksheet!B$62,IF($D41=Worksheet!$A$63,Worksheet!B$63,IF($D41=Worksheet!$A$64,Worksheet!B$64,IF($D41=Worksheet!$A$65,Worksheet!B$65,IF($D41=Worksheet!$A$66,Worksheet!B$66,IF($D41=Worksheet!$A$67,Worksheet!B$67,IF($D41=Worksheet!$A$68,Worksheet!B275,IF($D41=Worksheet!$A$69,Worksheet!B275,IF($D41=Worksheet!$A$70,Worksheet!B275,IF($D41=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F41" s="256" t="str">
+      <c r="F41" s="234" t="str">
         <f>IF($D41=Worksheet!$A$59,Worksheet!C$59,IF($D41=Worksheet!$A$60,Worksheet!C$60,IF($D41=Worksheet!$A$61,Worksheet!C$61,IF($D41=Worksheet!$A$62,Worksheet!C$62,IF($D41=Worksheet!$A$63,Worksheet!C$63,IF($D41=Worksheet!$A$64,Worksheet!C$64,IF($D41=Worksheet!$A$65,Worksheet!C$65,IF($D41=Worksheet!$A$66,Worksheet!C$66,IF($D41=Worksheet!$A$67,Worksheet!C$67,IF($D41=Worksheet!$A$68,Worksheet!D275,IF($D41=Worksheet!$A$69,Worksheet!D275,IF($D41=Worksheet!$A$70,Worksheet!D275,IF($D41=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G41" s="236"/>
-      <c r="H41" s="258" t="str">
+      <c r="H41" s="276" t="str">
         <f>IF($D41=Worksheet!$A$59,Worksheet!D$59,IF($D41=Worksheet!$A$60,Worksheet!D$60,IF($D41=Worksheet!$A$61,Worksheet!D$61,IF($D41=Worksheet!$A$62,Worksheet!D$62,IF($D41=Worksheet!$A$63,Worksheet!D$63,IF($D41=Worksheet!$A$64,Worksheet!D$64,IF($D41=Worksheet!$A$65,Worksheet!D$65,IF($D41=Worksheet!$A$66,Worksheet!D$66,IF($D41=Worksheet!$A$67,Worksheet!D$67,IF($D41=Worksheet!$A$68,Worksheet!F275,IF($D41=Worksheet!$A$69,Worksheet!F275,IF($D41=Worksheet!$A$70,Worksheet!F275,IF($D41=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I41" s="259"/>
-      <c r="J41" s="258" t="str">
+      <c r="I41" s="277"/>
+      <c r="J41" s="276" t="str">
         <f>IF($D41=Worksheet!$A$59,Worksheet!E$59,IF($D41=Worksheet!$A$60,Worksheet!E$60,IF($D41=Worksheet!$A$61,Worksheet!E$61,IF($D41=Worksheet!$A$62,Worksheet!E$62,IF($D41=Worksheet!$A$63,Worksheet!E$63,IF($D41=Worksheet!$A$64,Worksheet!E$64,IF($D41=Worksheet!$A$65,Worksheet!E$65,IF($D41=Worksheet!$A$66,Worksheet!E$66,IF($D41=Worksheet!$A$67,Worksheet!E$67,IF($D41=Worksheet!$A$68,Worksheet!H275,IF($D41=Worksheet!$A$69,Worksheet!H275,IF($D41=Worksheet!$A$70,Worksheet!H275,IF($D41=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K41" s="259"/>
-      <c r="L41" s="258" t="str">
+      <c r="K41" s="277"/>
+      <c r="L41" s="276" t="str">
         <f>IF($D41=Worksheet!$A$59,Worksheet!F$59,IF($D41=Worksheet!$A$60,Worksheet!F$60,IF($D41=Worksheet!$A$61,Worksheet!F$61,IF($D41=Worksheet!$A$62,Worksheet!F$62,IF($D41=Worksheet!$A$63,Worksheet!F$63,IF($D41=Worksheet!$A$64,Worksheet!F$64,IF($D41=Worksheet!$A$65,Worksheet!F$65,IF($D41=Worksheet!$A$66,Worksheet!F$66,IF($D41=Worksheet!$A$67,Worksheet!F$67,IF($D41=Worksheet!$A$68,Worksheet!J275,IF($D41=Worksheet!$A$69,Worksheet!J275,IF($D41=Worksheet!$A$70,Worksheet!J275,IF($D41=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M41" s="259"/>
+      <c r="M41" s="277"/>
       <c r="N41" s="80">
         <f>IF(AND(D41="F-SMRA",N13=0),0,IF(AND(D41="F-SMRB",N13=0),0,IF(AND(D41="F-SMRC",N13=0),0,IF($D41=Worksheet!$A$68,Worksheet!B301,IF($D41=Worksheet!$A$69,Worksheet!B301,IF($D41=Worksheet!$A$70,Worksheet!B301,ROUND((Request!N13/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D41=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D41=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D41=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D41=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D41=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D41=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D41=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D41=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D41=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N13/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D41=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D41=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D41=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D41=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D41=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D41=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D41=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D41=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D41=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -15382,11 +15382,11 @@
       <c r="A42" s="162">
         <v>8</v>
       </c>
-      <c r="B42" s="260">
+      <c r="B42" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C42" s="261"/>
+      <c r="C42" s="231"/>
       <c r="D42" s="179" t="s">
         <v>54</v>
       </c>
@@ -15394,26 +15394,26 @@
         <f>IF($D42=Worksheet!$A$59,Worksheet!B$59,IF($D42=Worksheet!$A$60,Worksheet!B$60,IF($D42=Worksheet!$A$61,Worksheet!B$61,IF($D42=Worksheet!$A$62,Worksheet!B$62,IF($D42=Worksheet!$A$63,Worksheet!B$63,IF($D42=Worksheet!$A$64,Worksheet!B$64,IF($D42=Worksheet!$A$65,Worksheet!B$65,IF($D42=Worksheet!$A$66,Worksheet!B$66,IF($D42=Worksheet!$A$67,Worksheet!B$67,IF($D42=Worksheet!$A$68,Worksheet!B276,IF($D42=Worksheet!$A$69,Worksheet!B276,IF($D42=Worksheet!$A$70,Worksheet!B276,IF($D42=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F42" s="256" t="str">
+      <c r="F42" s="234" t="str">
         <f>IF($D42=Worksheet!$A$59,Worksheet!C$59,IF($D42=Worksheet!$A$60,Worksheet!C$60,IF($D42=Worksheet!$A$61,Worksheet!C$61,IF($D42=Worksheet!$A$62,Worksheet!C$62,IF($D42=Worksheet!$A$63,Worksheet!C$63,IF($D42=Worksheet!$A$64,Worksheet!C$64,IF($D42=Worksheet!$A$65,Worksheet!C$65,IF($D42=Worksheet!$A$66,Worksheet!C$66,IF($D42=Worksheet!$A$67,Worksheet!C$67,IF($D42=Worksheet!$A$68,Worksheet!D276,IF($D42=Worksheet!$A$69,Worksheet!D276,IF($D42=Worksheet!$A$70,Worksheet!D276,IF($D42=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G42" s="236"/>
-      <c r="H42" s="258" t="str">
+      <c r="H42" s="276" t="str">
         <f>IF($D42=Worksheet!$A$59,Worksheet!D$59,IF($D42=Worksheet!$A$60,Worksheet!D$60,IF($D42=Worksheet!$A$61,Worksheet!D$61,IF($D42=Worksheet!$A$62,Worksheet!D$62,IF($D42=Worksheet!$A$63,Worksheet!D$63,IF($D42=Worksheet!$A$64,Worksheet!D$64,IF($D42=Worksheet!$A$65,Worksheet!D$65,IF($D42=Worksheet!$A$66,Worksheet!D$66,IF($D42=Worksheet!$A$67,Worksheet!D$67,IF($D42=Worksheet!$A$68,Worksheet!F276,IF($D42=Worksheet!$A$69,Worksheet!F276,IF($D42=Worksheet!$A$70,Worksheet!F276,IF($D42=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I42" s="259"/>
-      <c r="J42" s="258" t="str">
+      <c r="I42" s="277"/>
+      <c r="J42" s="276" t="str">
         <f>IF($D42=Worksheet!$A$59,Worksheet!E$59,IF($D42=Worksheet!$A$60,Worksheet!E$60,IF($D42=Worksheet!$A$61,Worksheet!E$61,IF($D42=Worksheet!$A$62,Worksheet!E$62,IF($D42=Worksheet!$A$63,Worksheet!E$63,IF($D42=Worksheet!$A$64,Worksheet!E$64,IF($D42=Worksheet!$A$65,Worksheet!E$65,IF($D42=Worksheet!$A$66,Worksheet!E$66,IF($D42=Worksheet!$A$67,Worksheet!E$67,IF($D42=Worksheet!$A$68,Worksheet!H276,IF($D42=Worksheet!$A$69,Worksheet!H276,IF($D42=Worksheet!$A$70,Worksheet!H276,IF($D42=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K42" s="259"/>
-      <c r="L42" s="258" t="str">
+      <c r="K42" s="277"/>
+      <c r="L42" s="276" t="str">
         <f>IF($D42=Worksheet!$A$59,Worksheet!F$59,IF($D42=Worksheet!$A$60,Worksheet!F$60,IF($D42=Worksheet!$A$61,Worksheet!F$61,IF($D42=Worksheet!$A$62,Worksheet!F$62,IF($D42=Worksheet!$A$63,Worksheet!F$63,IF($D42=Worksheet!$A$64,Worksheet!F$64,IF($D42=Worksheet!$A$65,Worksheet!F$65,IF($D42=Worksheet!$A$66,Worksheet!F$66,IF($D42=Worksheet!$A$67,Worksheet!F$67,IF($D42=Worksheet!$A$68,Worksheet!J276,IF($D42=Worksheet!$A$69,Worksheet!J276,IF($D42=Worksheet!$A$70,Worksheet!J276,IF($D42=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M42" s="259"/>
+      <c r="M42" s="277"/>
       <c r="N42" s="80">
         <f>IF(AND(D42="F-SMRA",N14=0),0,IF(AND(D42="F-SMRB",N14=0),0,IF(AND(D42="F-SMRC",N14=0),0,IF($D42=Worksheet!$A$68,Worksheet!B302,IF($D42=Worksheet!$A$69,Worksheet!B302,IF($D42=Worksheet!$A$70,Worksheet!B302,ROUND((Request!N14/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D42=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D42=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D42=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D42=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D42=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D42=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D42=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D42=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D42=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N14/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D42=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D42=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D42=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D42=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D42=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D42=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D42=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D42=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D42=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -15448,11 +15448,11 @@
       <c r="A43" s="162">
         <v>9</v>
       </c>
-      <c r="B43" s="260">
+      <c r="B43" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C43" s="261"/>
+      <c r="C43" s="231"/>
       <c r="D43" s="179" t="s">
         <v>54</v>
       </c>
@@ -15460,26 +15460,26 @@
         <f>IF($D43=Worksheet!$A$59,Worksheet!B$59,IF($D43=Worksheet!$A$60,Worksheet!B$60,IF($D43=Worksheet!$A$61,Worksheet!B$61,IF($D43=Worksheet!$A$62,Worksheet!B$62,IF($D43=Worksheet!$A$63,Worksheet!B$63,IF($D43=Worksheet!$A$64,Worksheet!B$64,IF($D43=Worksheet!$A$65,Worksheet!B$65,IF($D43=Worksheet!$A$66,Worksheet!B$66,IF($D43=Worksheet!$A$67,Worksheet!B$67,IF($D43=Worksheet!$A$68,Worksheet!B277,IF($D43=Worksheet!$A$69,Worksheet!B277,IF($D43=Worksheet!$A$70,Worksheet!B277,IF($D43=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F43" s="256" t="str">
+      <c r="F43" s="234" t="str">
         <f>IF($D43=Worksheet!$A$59,Worksheet!C$59,IF($D43=Worksheet!$A$60,Worksheet!C$60,IF($D43=Worksheet!$A$61,Worksheet!C$61,IF($D43=Worksheet!$A$62,Worksheet!C$62,IF($D43=Worksheet!$A$63,Worksheet!C$63,IF($D43=Worksheet!$A$64,Worksheet!C$64,IF($D43=Worksheet!$A$65,Worksheet!C$65,IF($D43=Worksheet!$A$66,Worksheet!C$66,IF($D43=Worksheet!$A$67,Worksheet!C$67,IF($D43=Worksheet!$A$68,Worksheet!D277,IF($D43=Worksheet!$A$69,Worksheet!D277,IF($D43=Worksheet!$A$70,Worksheet!D277,IF($D43=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G43" s="236"/>
-      <c r="H43" s="258" t="str">
+      <c r="H43" s="276" t="str">
         <f>IF($D43=Worksheet!$A$59,Worksheet!D$59,IF($D43=Worksheet!$A$60,Worksheet!D$60,IF($D43=Worksheet!$A$61,Worksheet!D$61,IF($D43=Worksheet!$A$62,Worksheet!D$62,IF($D43=Worksheet!$A$63,Worksheet!D$63,IF($D43=Worksheet!$A$64,Worksheet!D$64,IF($D43=Worksheet!$A$65,Worksheet!D$65,IF($D43=Worksheet!$A$66,Worksheet!D$66,IF($D43=Worksheet!$A$67,Worksheet!D$67,IF($D43=Worksheet!$A$68,Worksheet!F277,IF($D43=Worksheet!$A$69,Worksheet!F277,IF($D43=Worksheet!$A$70,Worksheet!F277,IF($D43=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I43" s="259"/>
-      <c r="J43" s="258" t="str">
+      <c r="I43" s="277"/>
+      <c r="J43" s="276" t="str">
         <f>IF($D43=Worksheet!$A$59,Worksheet!E$59,IF($D43=Worksheet!$A$60,Worksheet!E$60,IF($D43=Worksheet!$A$61,Worksheet!E$61,IF($D43=Worksheet!$A$62,Worksheet!E$62,IF($D43=Worksheet!$A$63,Worksheet!E$63,IF($D43=Worksheet!$A$64,Worksheet!E$64,IF($D43=Worksheet!$A$65,Worksheet!E$65,IF($D43=Worksheet!$A$66,Worksheet!E$66,IF($D43=Worksheet!$A$67,Worksheet!E$67,IF($D43=Worksheet!$A$68,Worksheet!H277,IF($D43=Worksheet!$A$69,Worksheet!H277,IF($D43=Worksheet!$A$70,Worksheet!H277,IF($D43=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K43" s="259"/>
-      <c r="L43" s="258" t="str">
+      <c r="K43" s="277"/>
+      <c r="L43" s="276" t="str">
         <f>IF($D43=Worksheet!$A$59,Worksheet!F$59,IF($D43=Worksheet!$A$60,Worksheet!F$60,IF($D43=Worksheet!$A$61,Worksheet!F$61,IF($D43=Worksheet!$A$62,Worksheet!F$62,IF($D43=Worksheet!$A$63,Worksheet!F$63,IF($D43=Worksheet!$A$64,Worksheet!F$64,IF($D43=Worksheet!$A$65,Worksheet!F$65,IF($D43=Worksheet!$A$66,Worksheet!F$66,IF($D43=Worksheet!$A$67,Worksheet!F$67,IF($D43=Worksheet!$A$68,Worksheet!J277,IF($D43=Worksheet!$A$69,Worksheet!J277,IF($D43=Worksheet!$A$70,Worksheet!J277,IF($D43=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M43" s="259"/>
+      <c r="M43" s="277"/>
       <c r="N43" s="80">
         <f>IF(AND(D43="F-SMRA",N15=0),0,IF(AND(D43="F-SMRB",N15=0),0,IF(AND(D43="F-SMRC",N15=0),0,IF($D43=Worksheet!$A$68,Worksheet!B303,IF($D43=Worksheet!$A$69,Worksheet!B303,IF($D43=Worksheet!$A$70,Worksheet!B303,ROUND((Request!N15/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D43=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D43=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D43=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D43=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D43=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D43=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D43=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D43=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D43=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N15/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D43=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D43=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D43=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D43=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D43=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D43=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D43=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D43=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D43=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -15514,11 +15514,11 @@
       <c r="A44" s="162">
         <v>10</v>
       </c>
-      <c r="B44" s="260">
+      <c r="B44" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C44" s="261"/>
+      <c r="C44" s="231"/>
       <c r="D44" s="179" t="s">
         <v>54</v>
       </c>
@@ -15526,26 +15526,26 @@
         <f>IF($D44=Worksheet!$A$59,Worksheet!B$59,IF($D44=Worksheet!$A$60,Worksheet!B$60,IF($D44=Worksheet!$A$61,Worksheet!B$61,IF($D44=Worksheet!$A$62,Worksheet!B$62,IF($D44=Worksheet!$A$63,Worksheet!B$63,IF($D44=Worksheet!$A$64,Worksheet!B$64,IF($D44=Worksheet!$A$65,Worksheet!B$65,IF($D44=Worksheet!$A$66,Worksheet!B$66,IF($D44=Worksheet!$A$67,Worksheet!B$67,IF($D44=Worksheet!$A$68,Worksheet!B278,IF($D44=Worksheet!$A$69,Worksheet!B278,IF($D44=Worksheet!$A$70,Worksheet!B278,IF($D44=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F44" s="256" t="str">
+      <c r="F44" s="234" t="str">
         <f>IF($D44=Worksheet!$A$59,Worksheet!C$59,IF($D44=Worksheet!$A$60,Worksheet!C$60,IF($D44=Worksheet!$A$61,Worksheet!C$61,IF($D44=Worksheet!$A$62,Worksheet!C$62,IF($D44=Worksheet!$A$63,Worksheet!C$63,IF($D44=Worksheet!$A$64,Worksheet!C$64,IF($D44=Worksheet!$A$65,Worksheet!C$65,IF($D44=Worksheet!$A$66,Worksheet!C$66,IF($D44=Worksheet!$A$67,Worksheet!C$67,IF($D44=Worksheet!$A$68,Worksheet!D278,IF($D44=Worksheet!$A$69,Worksheet!D278,IF($D44=Worksheet!$A$70,Worksheet!D278,IF($D44=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G44" s="236"/>
-      <c r="H44" s="258" t="str">
+      <c r="H44" s="276" t="str">
         <f>IF($D44=Worksheet!$A$59,Worksheet!D$59,IF($D44=Worksheet!$A$60,Worksheet!D$60,IF($D44=Worksheet!$A$61,Worksheet!D$61,IF($D44=Worksheet!$A$62,Worksheet!D$62,IF($D44=Worksheet!$A$63,Worksheet!D$63,IF($D44=Worksheet!$A$64,Worksheet!D$64,IF($D44=Worksheet!$A$65,Worksheet!D$65,IF($D44=Worksheet!$A$66,Worksheet!D$66,IF($D44=Worksheet!$A$67,Worksheet!D$67,IF($D44=Worksheet!$A$68,Worksheet!F278,IF($D44=Worksheet!$A$69,Worksheet!F278,IF($D44=Worksheet!$A$70,Worksheet!F278,IF($D44=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I44" s="259"/>
-      <c r="J44" s="258" t="str">
+      <c r="I44" s="277"/>
+      <c r="J44" s="276" t="str">
         <f>IF($D44=Worksheet!$A$59,Worksheet!E$59,IF($D44=Worksheet!$A$60,Worksheet!E$60,IF($D44=Worksheet!$A$61,Worksheet!E$61,IF($D44=Worksheet!$A$62,Worksheet!E$62,IF($D44=Worksheet!$A$63,Worksheet!E$63,IF($D44=Worksheet!$A$64,Worksheet!E$64,IF($D44=Worksheet!$A$65,Worksheet!E$65,IF($D44=Worksheet!$A$66,Worksheet!E$66,IF($D44=Worksheet!$A$67,Worksheet!E$67,IF($D44=Worksheet!$A$68,Worksheet!H278,IF($D44=Worksheet!$A$69,Worksheet!H278,IF($D44=Worksheet!$A$70,Worksheet!H278,IF($D44=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K44" s="259"/>
-      <c r="L44" s="258" t="str">
+      <c r="K44" s="277"/>
+      <c r="L44" s="276" t="str">
         <f>IF($D44=Worksheet!$A$59,Worksheet!F$59,IF($D44=Worksheet!$A$60,Worksheet!F$60,IF($D44=Worksheet!$A$61,Worksheet!F$61,IF($D44=Worksheet!$A$62,Worksheet!F$62,IF($D44=Worksheet!$A$63,Worksheet!F$63,IF($D44=Worksheet!$A$64,Worksheet!F$64,IF($D44=Worksheet!$A$65,Worksheet!F$65,IF($D44=Worksheet!$A$66,Worksheet!F$66,IF($D44=Worksheet!$A$67,Worksheet!F$67,IF($D44=Worksheet!$A$68,Worksheet!J278,IF($D44=Worksheet!$A$69,Worksheet!J278,IF($D44=Worksheet!$A$70,Worksheet!J278,IF($D44=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M44" s="259"/>
+      <c r="M44" s="277"/>
       <c r="N44" s="80">
         <f>IF(AND(D44="F-SMRA",N16=0),0,IF(AND(D44="F-SMRB",N16=0),0,IF(AND(D44="F-SMRC",N16=0),0,IF($D44=Worksheet!$A$68,Worksheet!B304,IF($D44=Worksheet!$A$69,Worksheet!B304,IF($D44=Worksheet!$A$70,Worksheet!B304,ROUND((Request!N16/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D44=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D44=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D44=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D44=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D44=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D44=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D44=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D44=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D44=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N16/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D44=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D44=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D44=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D44=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D44=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D44=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D44=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D44=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D44=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -15580,11 +15580,11 @@
       <c r="A45" s="162">
         <v>11</v>
       </c>
-      <c r="B45" s="260">
+      <c r="B45" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C45" s="261"/>
+      <c r="C45" s="231"/>
       <c r="D45" s="179" t="s">
         <v>54</v>
       </c>
@@ -15592,26 +15592,26 @@
         <f>IF($D45=Worksheet!$A$59,Worksheet!B$59,IF($D45=Worksheet!$A$60,Worksheet!B$60,IF($D45=Worksheet!$A$61,Worksheet!B$61,IF($D45=Worksheet!$A$62,Worksheet!B$62,IF($D45=Worksheet!$A$63,Worksheet!B$63,IF($D45=Worksheet!$A$64,Worksheet!B$64,IF($D45=Worksheet!$A$65,Worksheet!B$65,IF($D45=Worksheet!$A$66,Worksheet!B$66,IF($D45=Worksheet!$A$67,Worksheet!B$67,IF($D45=Worksheet!$A$68,Worksheet!B279,IF($D45=Worksheet!$A$69,Worksheet!B279,IF($D45=Worksheet!$A$70,Worksheet!B279,IF($D45=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F45" s="256" t="str">
+      <c r="F45" s="234" t="str">
         <f>IF($D45=Worksheet!$A$59,Worksheet!C$59,IF($D45=Worksheet!$A$60,Worksheet!C$60,IF($D45=Worksheet!$A$61,Worksheet!C$61,IF($D45=Worksheet!$A$62,Worksheet!C$62,IF($D45=Worksheet!$A$63,Worksheet!C$63,IF($D45=Worksheet!$A$64,Worksheet!C$64,IF($D45=Worksheet!$A$65,Worksheet!C$65,IF($D45=Worksheet!$A$66,Worksheet!C$66,IF($D45=Worksheet!$A$67,Worksheet!C$67,IF($D45=Worksheet!$A$68,Worksheet!D279,IF($D45=Worksheet!$A$69,Worksheet!D279,IF($D45=Worksheet!$A$70,Worksheet!D279,IF($D45=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G45" s="236"/>
-      <c r="H45" s="258" t="str">
+      <c r="H45" s="276" t="str">
         <f>IF($D45=Worksheet!$A$59,Worksheet!D$59,IF($D45=Worksheet!$A$60,Worksheet!D$60,IF($D45=Worksheet!$A$61,Worksheet!D$61,IF($D45=Worksheet!$A$62,Worksheet!D$62,IF($D45=Worksheet!$A$63,Worksheet!D$63,IF($D45=Worksheet!$A$64,Worksheet!D$64,IF($D45=Worksheet!$A$65,Worksheet!D$65,IF($D45=Worksheet!$A$66,Worksheet!D$66,IF($D45=Worksheet!$A$67,Worksheet!D$67,IF($D45=Worksheet!$A$68,Worksheet!F279,IF($D45=Worksheet!$A$69,Worksheet!F279,IF($D45=Worksheet!$A$70,Worksheet!F279,IF($D45=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I45" s="259"/>
-      <c r="J45" s="258" t="str">
+      <c r="I45" s="277"/>
+      <c r="J45" s="276" t="str">
         <f>IF($D45=Worksheet!$A$59,Worksheet!E$59,IF($D45=Worksheet!$A$60,Worksheet!E$60,IF($D45=Worksheet!$A$61,Worksheet!E$61,IF($D45=Worksheet!$A$62,Worksheet!E$62,IF($D45=Worksheet!$A$63,Worksheet!E$63,IF($D45=Worksheet!$A$64,Worksheet!E$64,IF($D45=Worksheet!$A$65,Worksheet!E$65,IF($D45=Worksheet!$A$66,Worksheet!E$66,IF($D45=Worksheet!$A$67,Worksheet!E$67,IF($D45=Worksheet!$A$68,Worksheet!H279,IF($D45=Worksheet!$A$69,Worksheet!H279,IF($D45=Worksheet!$A$70,Worksheet!H279,IF($D45=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K45" s="259"/>
-      <c r="L45" s="258" t="str">
+      <c r="K45" s="277"/>
+      <c r="L45" s="276" t="str">
         <f>IF($D45=Worksheet!$A$59,Worksheet!F$59,IF($D45=Worksheet!$A$60,Worksheet!F$60,IF($D45=Worksheet!$A$61,Worksheet!F$61,IF($D45=Worksheet!$A$62,Worksheet!F$62,IF($D45=Worksheet!$A$63,Worksheet!F$63,IF($D45=Worksheet!$A$64,Worksheet!F$64,IF($D45=Worksheet!$A$65,Worksheet!F$65,IF($D45=Worksheet!$A$66,Worksheet!F$66,IF($D45=Worksheet!$A$67,Worksheet!F$67,IF($D45=Worksheet!$A$68,Worksheet!J279,IF($D45=Worksheet!$A$69,Worksheet!J279,IF($D45=Worksheet!$A$70,Worksheet!J279,IF($D45=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M45" s="259"/>
+      <c r="M45" s="277"/>
       <c r="N45" s="80">
         <f>IF(AND(D45="F-SMRA",N17=0),0,IF(AND(D45="F-SMRB",N17=0),0,IF(AND(D45="F-SMRC",N17=0),0,IF($D45=Worksheet!$A$68,Worksheet!B305,IF($D45=Worksheet!$A$69,Worksheet!B305,IF($D45=Worksheet!$A$70,Worksheet!B305,ROUND((Request!N17/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D45=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D45=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D45=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D45=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D45=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D45=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D45=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D45=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D45=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N17/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D45=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D45=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D45=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D45=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D45=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D45=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D45=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D45=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D45=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -15646,11 +15646,11 @@
       <c r="A46" s="162">
         <v>12</v>
       </c>
-      <c r="B46" s="260">
+      <c r="B46" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C46" s="261"/>
+      <c r="C46" s="231"/>
       <c r="D46" s="179" t="s">
         <v>54</v>
       </c>
@@ -15658,26 +15658,26 @@
         <f>IF($D46=Worksheet!$A$59,Worksheet!B$59,IF($D46=Worksheet!$A$60,Worksheet!B$60,IF($D46=Worksheet!$A$61,Worksheet!B$61,IF($D46=Worksheet!$A$62,Worksheet!B$62,IF($D46=Worksheet!$A$63,Worksheet!B$63,IF($D46=Worksheet!$A$64,Worksheet!B$64,IF($D46=Worksheet!$A$65,Worksheet!B$65,IF($D46=Worksheet!$A$66,Worksheet!B$66,IF($D46=Worksheet!$A$67,Worksheet!B$67,IF($D46=Worksheet!$A$68,Worksheet!B280,IF($D46=Worksheet!$A$69,Worksheet!B280,IF($D46=Worksheet!$A$70,Worksheet!B280,IF($D46=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F46" s="256" t="str">
+      <c r="F46" s="234" t="str">
         <f>IF($D46=Worksheet!$A$59,Worksheet!C$59,IF($D46=Worksheet!$A$60,Worksheet!C$60,IF($D46=Worksheet!$A$61,Worksheet!C$61,IF($D46=Worksheet!$A$62,Worksheet!C$62,IF($D46=Worksheet!$A$63,Worksheet!C$63,IF($D46=Worksheet!$A$64,Worksheet!C$64,IF($D46=Worksheet!$A$65,Worksheet!C$65,IF($D46=Worksheet!$A$66,Worksheet!C$66,IF($D46=Worksheet!$A$67,Worksheet!C$67,IF($D46=Worksheet!$A$68,Worksheet!D280,IF($D46=Worksheet!$A$69,Worksheet!D280,IF($D46=Worksheet!$A$70,Worksheet!D280,IF($D46=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G46" s="236"/>
-      <c r="H46" s="258" t="str">
+      <c r="H46" s="276" t="str">
         <f>IF($D46=Worksheet!$A$59,Worksheet!D$59,IF($D46=Worksheet!$A$60,Worksheet!D$60,IF($D46=Worksheet!$A$61,Worksheet!D$61,IF($D46=Worksheet!$A$62,Worksheet!D$62,IF($D46=Worksheet!$A$63,Worksheet!D$63,IF($D46=Worksheet!$A$64,Worksheet!D$64,IF($D46=Worksheet!$A$65,Worksheet!D$65,IF($D46=Worksheet!$A$66,Worksheet!D$66,IF($D46=Worksheet!$A$67,Worksheet!D$67,IF($D46=Worksheet!$A$68,Worksheet!F280,IF($D46=Worksheet!$A$69,Worksheet!F280,IF($D46=Worksheet!$A$70,Worksheet!F280,IF($D46=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I46" s="259"/>
-      <c r="J46" s="258" t="str">
+      <c r="I46" s="277"/>
+      <c r="J46" s="276" t="str">
         <f>IF($D46=Worksheet!$A$59,Worksheet!E$59,IF($D46=Worksheet!$A$60,Worksheet!E$60,IF($D46=Worksheet!$A$61,Worksheet!E$61,IF($D46=Worksheet!$A$62,Worksheet!E$62,IF($D46=Worksheet!$A$63,Worksheet!E$63,IF($D46=Worksheet!$A$64,Worksheet!E$64,IF($D46=Worksheet!$A$65,Worksheet!E$65,IF($D46=Worksheet!$A$66,Worksheet!E$66,IF($D46=Worksheet!$A$67,Worksheet!E$67,IF($D46=Worksheet!$A$68,Worksheet!H280,IF($D46=Worksheet!$A$69,Worksheet!H280,IF($D46=Worksheet!$A$70,Worksheet!H280,IF($D46=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K46" s="259"/>
-      <c r="L46" s="258" t="str">
+      <c r="K46" s="277"/>
+      <c r="L46" s="276" t="str">
         <f>IF($D46=Worksheet!$A$59,Worksheet!F$59,IF($D46=Worksheet!$A$60,Worksheet!F$60,IF($D46=Worksheet!$A$61,Worksheet!F$61,IF($D46=Worksheet!$A$62,Worksheet!F$62,IF($D46=Worksheet!$A$63,Worksheet!F$63,IF($D46=Worksheet!$A$64,Worksheet!F$64,IF($D46=Worksheet!$A$65,Worksheet!F$65,IF($D46=Worksheet!$A$66,Worksheet!F$66,IF($D46=Worksheet!$A$67,Worksheet!F$67,IF($D46=Worksheet!$A$68,Worksheet!J280,IF($D46=Worksheet!$A$69,Worksheet!J280,IF($D46=Worksheet!$A$70,Worksheet!J280,IF($D46=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M46" s="259"/>
+      <c r="M46" s="277"/>
       <c r="N46" s="80">
         <f>IF(AND(D46="F-SMRA",N18=0),0,IF(AND(D46="F-SMRB",N18=0),0,IF(AND(D46="F-SMRC",N18=0),0,IF($D46=Worksheet!$A$68,Worksheet!B306,IF($D46=Worksheet!$A$69,Worksheet!B306,IF($D46=Worksheet!$A$70,Worksheet!B306,ROUND((Request!N18/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D46=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D46=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D46=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D46=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D46=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D46=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D46=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D46=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D46=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N18/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D46=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D46=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D46=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D46=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D46=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D46=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D46=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D46=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D46=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -15712,11 +15712,11 @@
       <c r="A47" s="162">
         <v>13</v>
       </c>
-      <c r="B47" s="260">
+      <c r="B47" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C47" s="261"/>
+      <c r="C47" s="231"/>
       <c r="D47" s="179" t="s">
         <v>54</v>
       </c>
@@ -15724,26 +15724,26 @@
         <f>IF($D47=Worksheet!$A$59,Worksheet!B$59,IF($D47=Worksheet!$A$60,Worksheet!B$60,IF($D47=Worksheet!$A$61,Worksheet!B$61,IF($D47=Worksheet!$A$62,Worksheet!B$62,IF($D47=Worksheet!$A$63,Worksheet!B$63,IF($D47=Worksheet!$A$64,Worksheet!B$64,IF($D47=Worksheet!$A$65,Worksheet!B$65,IF($D47=Worksheet!$A$66,Worksheet!B$66,IF($D47=Worksheet!$A$67,Worksheet!B$67,IF($D47=Worksheet!$A$68,Worksheet!B281,IF($D47=Worksheet!$A$69,Worksheet!B281,IF($D47=Worksheet!$A$70,Worksheet!B281,IF($D47=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F47" s="256" t="str">
+      <c r="F47" s="234" t="str">
         <f>IF($D47=Worksheet!$A$59,Worksheet!C$59,IF($D47=Worksheet!$A$60,Worksheet!C$60,IF($D47=Worksheet!$A$61,Worksheet!C$61,IF($D47=Worksheet!$A$62,Worksheet!C$62,IF($D47=Worksheet!$A$63,Worksheet!C$63,IF($D47=Worksheet!$A$64,Worksheet!C$64,IF($D47=Worksheet!$A$65,Worksheet!C$65,IF($D47=Worksheet!$A$66,Worksheet!C$66,IF($D47=Worksheet!$A$67,Worksheet!C$67,IF($D47=Worksheet!$A$68,Worksheet!D281,IF($D47=Worksheet!$A$69,Worksheet!D281,IF($D47=Worksheet!$A$70,Worksheet!D281,IF($D47=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G47" s="236"/>
-      <c r="H47" s="258" t="str">
+      <c r="H47" s="276" t="str">
         <f>IF($D47=Worksheet!$A$59,Worksheet!D$59,IF($D47=Worksheet!$A$60,Worksheet!D$60,IF($D47=Worksheet!$A$61,Worksheet!D$61,IF($D47=Worksheet!$A$62,Worksheet!D$62,IF($D47=Worksheet!$A$63,Worksheet!D$63,IF($D47=Worksheet!$A$64,Worksheet!D$64,IF($D47=Worksheet!$A$65,Worksheet!D$65,IF($D47=Worksheet!$A$66,Worksheet!D$66,IF($D47=Worksheet!$A$67,Worksheet!D$67,IF($D47=Worksheet!$A$68,Worksheet!F281,IF($D47=Worksheet!$A$69,Worksheet!F281,IF($D47=Worksheet!$A$70,Worksheet!F281,IF($D47=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I47" s="259"/>
-      <c r="J47" s="258" t="str">
+      <c r="I47" s="277"/>
+      <c r="J47" s="276" t="str">
         <f>IF($D47=Worksheet!$A$59,Worksheet!E$59,IF($D47=Worksheet!$A$60,Worksheet!E$60,IF($D47=Worksheet!$A$61,Worksheet!E$61,IF($D47=Worksheet!$A$62,Worksheet!E$62,IF($D47=Worksheet!$A$63,Worksheet!E$63,IF($D47=Worksheet!$A$64,Worksheet!E$64,IF($D47=Worksheet!$A$65,Worksheet!E$65,IF($D47=Worksheet!$A$66,Worksheet!E$66,IF($D47=Worksheet!$A$67,Worksheet!E$67,IF($D47=Worksheet!$A$68,Worksheet!H281,IF($D47=Worksheet!$A$69,Worksheet!H281,IF($D47=Worksheet!$A$70,Worksheet!H281,IF($D47=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K47" s="259"/>
-      <c r="L47" s="258" t="str">
+      <c r="K47" s="277"/>
+      <c r="L47" s="276" t="str">
         <f>IF($D47=Worksheet!$A$59,Worksheet!F$59,IF($D47=Worksheet!$A$60,Worksheet!F$60,IF($D47=Worksheet!$A$61,Worksheet!F$61,IF($D47=Worksheet!$A$62,Worksheet!F$62,IF($D47=Worksheet!$A$63,Worksheet!F$63,IF($D47=Worksheet!$A$64,Worksheet!F$64,IF($D47=Worksheet!$A$65,Worksheet!F$65,IF($D47=Worksheet!$A$66,Worksheet!F$66,IF($D47=Worksheet!$A$67,Worksheet!F$67,IF($D47=Worksheet!$A$68,Worksheet!J281,IF($D47=Worksheet!$A$69,Worksheet!J281,IF($D47=Worksheet!$A$70,Worksheet!J281,IF($D47=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M47" s="259"/>
+      <c r="M47" s="277"/>
       <c r="N47" s="80">
         <f>IF(AND(D47="F-SMRA",N19=0),0,IF(AND(D47="F-SMRB",N19=0),0,IF(AND(D47="F-SMRC",N19=0),0,IF($D47=Worksheet!$A$68,Worksheet!B307,IF($D47=Worksheet!$A$69,Worksheet!B307,IF($D47=Worksheet!$A$70,Worksheet!B307,ROUND((Request!N19/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D47=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D47=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D47=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D47=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D47=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D47=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D47=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D47=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D47=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N19/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D47=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D47=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D47=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D47=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D47=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D47=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D47=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D47=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D47=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -15778,11 +15778,11 @@
       <c r="A48" s="162">
         <v>14</v>
       </c>
-      <c r="B48" s="260">
+      <c r="B48" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C48" s="261"/>
+      <c r="C48" s="231"/>
       <c r="D48" s="179" t="s">
         <v>54</v>
       </c>
@@ -15790,26 +15790,26 @@
         <f>IF($D48=Worksheet!$A$59,Worksheet!B$59,IF($D48=Worksheet!$A$60,Worksheet!B$60,IF($D48=Worksheet!$A$61,Worksheet!B$61,IF($D48=Worksheet!$A$62,Worksheet!B$62,IF($D48=Worksheet!$A$63,Worksheet!B$63,IF($D48=Worksheet!$A$64,Worksheet!B$64,IF($D48=Worksheet!$A$65,Worksheet!B$65,IF($D48=Worksheet!$A$66,Worksheet!B$66,IF($D48=Worksheet!$A$67,Worksheet!B$67,IF($D48=Worksheet!$A$68,Worksheet!B282,IF($D48=Worksheet!$A$69,Worksheet!B282,IF($D48=Worksheet!$A$70,Worksheet!B282,IF($D48=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F48" s="256" t="str">
+      <c r="F48" s="234" t="str">
         <f>IF($D48=Worksheet!$A$59,Worksheet!C$59,IF($D48=Worksheet!$A$60,Worksheet!C$60,IF($D48=Worksheet!$A$61,Worksheet!C$61,IF($D48=Worksheet!$A$62,Worksheet!C$62,IF($D48=Worksheet!$A$63,Worksheet!C$63,IF($D48=Worksheet!$A$64,Worksheet!C$64,IF($D48=Worksheet!$A$65,Worksheet!C$65,IF($D48=Worksheet!$A$66,Worksheet!C$66,IF($D48=Worksheet!$A$67,Worksheet!C$67,IF($D48=Worksheet!$A$68,Worksheet!D282,IF($D48=Worksheet!$A$69,Worksheet!D282,IF($D48=Worksheet!$A$70,Worksheet!D282,IF($D48=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G48" s="236"/>
-      <c r="H48" s="258" t="str">
+      <c r="H48" s="276" t="str">
         <f>IF($D48=Worksheet!$A$59,Worksheet!D$59,IF($D48=Worksheet!$A$60,Worksheet!D$60,IF($D48=Worksheet!$A$61,Worksheet!D$61,IF($D48=Worksheet!$A$62,Worksheet!D$62,IF($D48=Worksheet!$A$63,Worksheet!D$63,IF($D48=Worksheet!$A$64,Worksheet!D$64,IF($D48=Worksheet!$A$65,Worksheet!D$65,IF($D48=Worksheet!$A$66,Worksheet!D$66,IF($D48=Worksheet!$A$67,Worksheet!D$67,IF($D48=Worksheet!$A$68,Worksheet!F282,IF($D48=Worksheet!$A$69,Worksheet!F282,IF($D48=Worksheet!$A$70,Worksheet!F282,IF($D48=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I48" s="259"/>
-      <c r="J48" s="258" t="str">
+      <c r="I48" s="277"/>
+      <c r="J48" s="276" t="str">
         <f>IF($D48=Worksheet!$A$59,Worksheet!E$59,IF($D48=Worksheet!$A$60,Worksheet!E$60,IF($D48=Worksheet!$A$61,Worksheet!E$61,IF($D48=Worksheet!$A$62,Worksheet!E$62,IF($D48=Worksheet!$A$63,Worksheet!E$63,IF($D48=Worksheet!$A$64,Worksheet!E$64,IF($D48=Worksheet!$A$65,Worksheet!E$65,IF($D48=Worksheet!$A$66,Worksheet!E$66,IF($D48=Worksheet!$A$67,Worksheet!E$67,IF($D48=Worksheet!$A$68,Worksheet!H282,IF($D48=Worksheet!$A$69,Worksheet!H282,IF($D48=Worksheet!$A$70,Worksheet!H282,IF($D48=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K48" s="259"/>
-      <c r="L48" s="258" t="str">
+      <c r="K48" s="277"/>
+      <c r="L48" s="276" t="str">
         <f>IF($D48=Worksheet!$A$59,Worksheet!F$59,IF($D48=Worksheet!$A$60,Worksheet!F$60,IF($D48=Worksheet!$A$61,Worksheet!F$61,IF($D48=Worksheet!$A$62,Worksheet!F$62,IF($D48=Worksheet!$A$63,Worksheet!F$63,IF($D48=Worksheet!$A$64,Worksheet!F$64,IF($D48=Worksheet!$A$65,Worksheet!F$65,IF($D48=Worksheet!$A$66,Worksheet!F$66,IF($D48=Worksheet!$A$67,Worksheet!F$67,IF($D48=Worksheet!$A$68,Worksheet!J282,IF($D48=Worksheet!$A$69,Worksheet!J282,IF($D48=Worksheet!$A$70,Worksheet!J282,IF($D48=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M48" s="259"/>
+      <c r="M48" s="277"/>
       <c r="N48" s="80">
         <f>IF(AND(D48="F-SMRA",N20=0),0,IF(AND(D48="F-SMRB",N20=0),0,IF(AND(D48="F-SMRC",N20=0),0,IF($D48=Worksheet!$A$68,Worksheet!B308,IF($D48=Worksheet!$A$69,Worksheet!B308,IF($D48=Worksheet!$A$70,Worksheet!B308,ROUND((Request!N20/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D48=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D48=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D48=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D48=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D48=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D48=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D48=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D48=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D48=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N20/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D48=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D48=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D48=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D48=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D48=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D48=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D48=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D48=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D48=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -15844,11 +15844,11 @@
       <c r="A49" s="162">
         <v>15</v>
       </c>
-      <c r="B49" s="260">
+      <c r="B49" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C49" s="261"/>
+      <c r="C49" s="231"/>
       <c r="D49" s="179" t="s">
         <v>54</v>
       </c>
@@ -15856,26 +15856,26 @@
         <f>IF($D49=Worksheet!$A$59,Worksheet!B$59,IF($D49=Worksheet!$A$60,Worksheet!B$60,IF($D49=Worksheet!$A$61,Worksheet!B$61,IF($D49=Worksheet!$A$62,Worksheet!B$62,IF($D49=Worksheet!$A$63,Worksheet!B$63,IF($D49=Worksheet!$A$64,Worksheet!B$64,IF($D49=Worksheet!$A$65,Worksheet!B$65,IF($D49=Worksheet!$A$66,Worksheet!B$66,IF($D49=Worksheet!$A$67,Worksheet!B$67,IF($D49=Worksheet!$A$68,Worksheet!B283,IF($D49=Worksheet!$A$69,Worksheet!B283,IF($D49=Worksheet!$A$70,Worksheet!B283,IF($D49=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F49" s="256" t="str">
+      <c r="F49" s="234" t="str">
         <f>IF($D49=Worksheet!$A$59,Worksheet!C$59,IF($D49=Worksheet!$A$60,Worksheet!C$60,IF($D49=Worksheet!$A$61,Worksheet!C$61,IF($D49=Worksheet!$A$62,Worksheet!C$62,IF($D49=Worksheet!$A$63,Worksheet!C$63,IF($D49=Worksheet!$A$64,Worksheet!C$64,IF($D49=Worksheet!$A$65,Worksheet!C$65,IF($D49=Worksheet!$A$66,Worksheet!C$66,IF($D49=Worksheet!$A$67,Worksheet!C$67,IF($D49=Worksheet!$A$68,Worksheet!D283,IF($D49=Worksheet!$A$69,Worksheet!D283,IF($D49=Worksheet!$A$70,Worksheet!D283,IF($D49=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G49" s="236"/>
-      <c r="H49" s="258" t="str">
+      <c r="H49" s="276" t="str">
         <f>IF($D49=Worksheet!$A$59,Worksheet!D$59,IF($D49=Worksheet!$A$60,Worksheet!D$60,IF($D49=Worksheet!$A$61,Worksheet!D$61,IF($D49=Worksheet!$A$62,Worksheet!D$62,IF($D49=Worksheet!$A$63,Worksheet!D$63,IF($D49=Worksheet!$A$64,Worksheet!D$64,IF($D49=Worksheet!$A$65,Worksheet!D$65,IF($D49=Worksheet!$A$66,Worksheet!D$66,IF($D49=Worksheet!$A$67,Worksheet!D$67,IF($D49=Worksheet!$A$68,Worksheet!F283,IF($D49=Worksheet!$A$69,Worksheet!F283,IF($D49=Worksheet!$A$70,Worksheet!F283,IF($D49=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I49" s="259"/>
-      <c r="J49" s="258" t="str">
+      <c r="I49" s="277"/>
+      <c r="J49" s="276" t="str">
         <f>IF($D49=Worksheet!$A$59,Worksheet!E$59,IF($D49=Worksheet!$A$60,Worksheet!E$60,IF($D49=Worksheet!$A$61,Worksheet!E$61,IF($D49=Worksheet!$A$62,Worksheet!E$62,IF($D49=Worksheet!$A$63,Worksheet!E$63,IF($D49=Worksheet!$A$64,Worksheet!E$64,IF($D49=Worksheet!$A$65,Worksheet!E$65,IF($D49=Worksheet!$A$66,Worksheet!E$66,IF($D49=Worksheet!$A$67,Worksheet!E$67,IF($D49=Worksheet!$A$68,Worksheet!H283,IF($D49=Worksheet!$A$69,Worksheet!H283,IF($D49=Worksheet!$A$70,Worksheet!H283,IF($D49=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K49" s="259"/>
-      <c r="L49" s="258" t="str">
+      <c r="K49" s="277"/>
+      <c r="L49" s="276" t="str">
         <f>IF($D49=Worksheet!$A$59,Worksheet!F$59,IF($D49=Worksheet!$A$60,Worksheet!F$60,IF($D49=Worksheet!$A$61,Worksheet!F$61,IF($D49=Worksheet!$A$62,Worksheet!F$62,IF($D49=Worksheet!$A$63,Worksheet!F$63,IF($D49=Worksheet!$A$64,Worksheet!F$64,IF($D49=Worksheet!$A$65,Worksheet!F$65,IF($D49=Worksheet!$A$66,Worksheet!F$66,IF($D49=Worksheet!$A$67,Worksheet!F$67,IF($D49=Worksheet!$A$68,Worksheet!J283,IF($D49=Worksheet!$A$69,Worksheet!J283,IF($D49=Worksheet!$A$70,Worksheet!J283,IF($D49=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M49" s="259"/>
+      <c r="M49" s="277"/>
       <c r="N49" s="80">
         <f>IF(AND(D49="F-SMRA",N21=0),0,IF(AND(D49="F-SMRB",N21=0),0,IF(AND(D49="F-SMRC",N21=0),0,IF($D49=Worksheet!$A$68,Worksheet!B309,IF($D49=Worksheet!$A$69,Worksheet!B309,IF($D49=Worksheet!$A$70,Worksheet!B309,ROUND((Request!N21/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D49=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D49=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D49=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D49=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D49=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D49=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D49=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D49=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D49=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N21/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D49=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D49=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D49=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D49=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D49=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D49=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D49=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D49=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D49=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -15910,11 +15910,11 @@
       <c r="A50" s="162">
         <v>16</v>
       </c>
-      <c r="B50" s="260">
+      <c r="B50" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C50" s="261"/>
+      <c r="C50" s="231"/>
       <c r="D50" s="179" t="s">
         <v>54</v>
       </c>
@@ -15922,26 +15922,26 @@
         <f>IF($D50=Worksheet!$A$59,Worksheet!B$59,IF($D50=Worksheet!$A$60,Worksheet!B$60,IF($D50=Worksheet!$A$61,Worksheet!B$61,IF($D50=Worksheet!$A$62,Worksheet!B$62,IF($D50=Worksheet!$A$63,Worksheet!B$63,IF($D50=Worksheet!$A$64,Worksheet!B$64,IF($D50=Worksheet!$A$65,Worksheet!B$65,IF($D50=Worksheet!$A$66,Worksheet!B$66,IF($D50=Worksheet!$A$67,Worksheet!B$67,IF($D50=Worksheet!$A$68,Worksheet!B284,IF($D50=Worksheet!$A$69,Worksheet!B284,IF($D50=Worksheet!$A$70,Worksheet!B284,IF($D50=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F50" s="256" t="str">
+      <c r="F50" s="234" t="str">
         <f>IF($D50=Worksheet!$A$59,Worksheet!C$59,IF($D50=Worksheet!$A$60,Worksheet!C$60,IF($D50=Worksheet!$A$61,Worksheet!C$61,IF($D50=Worksheet!$A$62,Worksheet!C$62,IF($D50=Worksheet!$A$63,Worksheet!C$63,IF($D50=Worksheet!$A$64,Worksheet!C$64,IF($D50=Worksheet!$A$65,Worksheet!C$65,IF($D50=Worksheet!$A$66,Worksheet!C$66,IF($D50=Worksheet!$A$67,Worksheet!C$67,IF($D50=Worksheet!$A$68,Worksheet!D284,IF($D50=Worksheet!$A$69,Worksheet!D284,IF($D50=Worksheet!$A$70,Worksheet!D284,IF($D50=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G50" s="236"/>
-      <c r="H50" s="258" t="str">
+      <c r="H50" s="276" t="str">
         <f>IF($D50=Worksheet!$A$59,Worksheet!D$59,IF($D50=Worksheet!$A$60,Worksheet!D$60,IF($D50=Worksheet!$A$61,Worksheet!D$61,IF($D50=Worksheet!$A$62,Worksheet!D$62,IF($D50=Worksheet!$A$63,Worksheet!D$63,IF($D50=Worksheet!$A$64,Worksheet!D$64,IF($D50=Worksheet!$A$65,Worksheet!D$65,IF($D50=Worksheet!$A$66,Worksheet!D$66,IF($D50=Worksheet!$A$67,Worksheet!D$67,IF($D50=Worksheet!$A$68,Worksheet!F284,IF($D50=Worksheet!$A$69,Worksheet!F284,IF($D50=Worksheet!$A$70,Worksheet!F284,IF($D50=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I50" s="259"/>
-      <c r="J50" s="258" t="str">
+      <c r="I50" s="277"/>
+      <c r="J50" s="276" t="str">
         <f>IF($D50=Worksheet!$A$59,Worksheet!E$59,IF($D50=Worksheet!$A$60,Worksheet!E$60,IF($D50=Worksheet!$A$61,Worksheet!E$61,IF($D50=Worksheet!$A$62,Worksheet!E$62,IF($D50=Worksheet!$A$63,Worksheet!E$63,IF($D50=Worksheet!$A$64,Worksheet!E$64,IF($D50=Worksheet!$A$65,Worksheet!E$65,IF($D50=Worksheet!$A$66,Worksheet!E$66,IF($D50=Worksheet!$A$67,Worksheet!E$67,IF($D50=Worksheet!$A$68,Worksheet!H284,IF($D50=Worksheet!$A$69,Worksheet!H284,IF($D50=Worksheet!$A$70,Worksheet!H284,IF($D50=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K50" s="259"/>
-      <c r="L50" s="258" t="str">
+      <c r="K50" s="277"/>
+      <c r="L50" s="276" t="str">
         <f>IF($D50=Worksheet!$A$59,Worksheet!F$59,IF($D50=Worksheet!$A$60,Worksheet!F$60,IF($D50=Worksheet!$A$61,Worksheet!F$61,IF($D50=Worksheet!$A$62,Worksheet!F$62,IF($D50=Worksheet!$A$63,Worksheet!F$63,IF($D50=Worksheet!$A$64,Worksheet!F$64,IF($D50=Worksheet!$A$65,Worksheet!F$65,IF($D50=Worksheet!$A$66,Worksheet!F$66,IF($D50=Worksheet!$A$67,Worksheet!F$67,IF($D50=Worksheet!$A$68,Worksheet!J284,IF($D50=Worksheet!$A$69,Worksheet!J284,IF($D50=Worksheet!$A$70,Worksheet!J284,IF($D50=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M50" s="259"/>
+      <c r="M50" s="277"/>
       <c r="N50" s="80">
         <f>IF(AND(D50="F-SMRA",N22=0),0,IF(AND(D50="F-SMRB",N22=0),0,IF(AND(D50="F-SMRC",N22=0),0,IF($D50=Worksheet!$A$68,Worksheet!B310,IF($D50=Worksheet!$A$69,Worksheet!B310,IF($D50=Worksheet!$A$70,Worksheet!B310,ROUND((Request!N22/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D50=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D50=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D50=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D50=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D50=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D50=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D50=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D50=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D50=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N22/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D50=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D50=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D50=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D50=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D50=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D50=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D50=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D50=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D50=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -15976,11 +15976,11 @@
       <c r="A51" s="162">
         <v>17</v>
       </c>
-      <c r="B51" s="260">
+      <c r="B51" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C51" s="261"/>
+      <c r="C51" s="231"/>
       <c r="D51" s="179" t="s">
         <v>54</v>
       </c>
@@ -15988,26 +15988,26 @@
         <f>IF($D51=Worksheet!$A$59,Worksheet!B$59,IF($D51=Worksheet!$A$60,Worksheet!B$60,IF($D51=Worksheet!$A$61,Worksheet!B$61,IF($D51=Worksheet!$A$62,Worksheet!B$62,IF($D51=Worksheet!$A$63,Worksheet!B$63,IF($D51=Worksheet!$A$64,Worksheet!B$64,IF($D51=Worksheet!$A$65,Worksheet!B$65,IF($D51=Worksheet!$A$66,Worksheet!B$66,IF($D51=Worksheet!$A$67,Worksheet!B$67,IF($D51=Worksheet!$A$68,Worksheet!B285,IF($D51=Worksheet!$A$69,Worksheet!B285,IF($D51=Worksheet!$A$70,Worksheet!B285,IF($D51=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F51" s="256" t="str">
+      <c r="F51" s="234" t="str">
         <f>IF($D51=Worksheet!$A$59,Worksheet!C$59,IF($D51=Worksheet!$A$60,Worksheet!C$60,IF($D51=Worksheet!$A$61,Worksheet!C$61,IF($D51=Worksheet!$A$62,Worksheet!C$62,IF($D51=Worksheet!$A$63,Worksheet!C$63,IF($D51=Worksheet!$A$64,Worksheet!C$64,IF($D51=Worksheet!$A$65,Worksheet!C$65,IF($D51=Worksheet!$A$66,Worksheet!C$66,IF($D51=Worksheet!$A$67,Worksheet!C$67,IF($D51=Worksheet!$A$68,Worksheet!D285,IF($D51=Worksheet!$A$69,Worksheet!D285,IF($D51=Worksheet!$A$70,Worksheet!D285,IF($D51=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G51" s="236"/>
-      <c r="H51" s="258" t="str">
+      <c r="H51" s="276" t="str">
         <f>IF($D51=Worksheet!$A$59,Worksheet!D$59,IF($D51=Worksheet!$A$60,Worksheet!D$60,IF($D51=Worksheet!$A$61,Worksheet!D$61,IF($D51=Worksheet!$A$62,Worksheet!D$62,IF($D51=Worksheet!$A$63,Worksheet!D$63,IF($D51=Worksheet!$A$64,Worksheet!D$64,IF($D51=Worksheet!$A$65,Worksheet!D$65,IF($D51=Worksheet!$A$66,Worksheet!D$66,IF($D51=Worksheet!$A$67,Worksheet!D$67,IF($D51=Worksheet!$A$68,Worksheet!F285,IF($D51=Worksheet!$A$69,Worksheet!F285,IF($D51=Worksheet!$A$70,Worksheet!F285,IF($D51=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I51" s="259"/>
-      <c r="J51" s="258" t="str">
+      <c r="I51" s="277"/>
+      <c r="J51" s="276" t="str">
         <f>IF($D51=Worksheet!$A$59,Worksheet!E$59,IF($D51=Worksheet!$A$60,Worksheet!E$60,IF($D51=Worksheet!$A$61,Worksheet!E$61,IF($D51=Worksheet!$A$62,Worksheet!E$62,IF($D51=Worksheet!$A$63,Worksheet!E$63,IF($D51=Worksheet!$A$64,Worksheet!E$64,IF($D51=Worksheet!$A$65,Worksheet!E$65,IF($D51=Worksheet!$A$66,Worksheet!E$66,IF($D51=Worksheet!$A$67,Worksheet!E$67,IF($D51=Worksheet!$A$68,Worksheet!H285,IF($D51=Worksheet!$A$69,Worksheet!H285,IF($D51=Worksheet!$A$70,Worksheet!H285,IF($D51=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K51" s="259"/>
-      <c r="L51" s="258" t="str">
+      <c r="K51" s="277"/>
+      <c r="L51" s="276" t="str">
         <f>IF($D51=Worksheet!$A$59,Worksheet!F$59,IF($D51=Worksheet!$A$60,Worksheet!F$60,IF($D51=Worksheet!$A$61,Worksheet!F$61,IF($D51=Worksheet!$A$62,Worksheet!F$62,IF($D51=Worksheet!$A$63,Worksheet!F$63,IF($D51=Worksheet!$A$64,Worksheet!F$64,IF($D51=Worksheet!$A$65,Worksheet!F$65,IF($D51=Worksheet!$A$66,Worksheet!F$66,IF($D51=Worksheet!$A$67,Worksheet!F$67,IF($D51=Worksheet!$A$68,Worksheet!J285,IF($D51=Worksheet!$A$69,Worksheet!J285,IF($D51=Worksheet!$A$70,Worksheet!J285,IF($D51=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M51" s="259"/>
+      <c r="M51" s="277"/>
       <c r="N51" s="80">
         <f>IF(AND(D51="F-SMRA",N23=0),0,IF(AND(D51="F-SMRB",N23=0),0,IF(AND(D51="F-SMRC",N23=0),0,IF($D51=Worksheet!$A$68,Worksheet!B311,IF($D51=Worksheet!$A$69,Worksheet!B311,IF($D51=Worksheet!$A$70,Worksheet!B311,ROUND((Request!N23/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D51=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D51=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D51=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D51=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D51=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D51=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D51=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D51=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D51=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N23/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D51=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D51=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D51=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D51=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D51=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D51=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D51=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D51=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D51=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -16042,11 +16042,11 @@
       <c r="A52" s="162">
         <v>18</v>
       </c>
-      <c r="B52" s="260">
+      <c r="B52" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C52" s="261"/>
+      <c r="C52" s="231"/>
       <c r="D52" s="179" t="s">
         <v>54</v>
       </c>
@@ -16054,26 +16054,26 @@
         <f>IF($D52=Worksheet!$A$59,Worksheet!B$59,IF($D52=Worksheet!$A$60,Worksheet!B$60,IF($D52=Worksheet!$A$61,Worksheet!B$61,IF($D52=Worksheet!$A$62,Worksheet!B$62,IF($D52=Worksheet!$A$63,Worksheet!B$63,IF($D52=Worksheet!$A$64,Worksheet!B$64,IF($D52=Worksheet!$A$65,Worksheet!B$65,IF($D52=Worksheet!$A$66,Worksheet!B$66,IF($D52=Worksheet!$A$67,Worksheet!B$67,IF($D52=Worksheet!$A$68,Worksheet!B286,IF($D52=Worksheet!$A$69,Worksheet!B286,IF($D52=Worksheet!$A$70,Worksheet!B286,IF($D52=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F52" s="256" t="str">
+      <c r="F52" s="234" t="str">
         <f>IF($D52=Worksheet!$A$59,Worksheet!C$59,IF($D52=Worksheet!$A$60,Worksheet!C$60,IF($D52=Worksheet!$A$61,Worksheet!C$61,IF($D52=Worksheet!$A$62,Worksheet!C$62,IF($D52=Worksheet!$A$63,Worksheet!C$63,IF($D52=Worksheet!$A$64,Worksheet!C$64,IF($D52=Worksheet!$A$65,Worksheet!C$65,IF($D52=Worksheet!$A$66,Worksheet!C$66,IF($D52=Worksheet!$A$67,Worksheet!C$67,IF($D52=Worksheet!$A$68,Worksheet!D286,IF($D52=Worksheet!$A$69,Worksheet!D286,IF($D52=Worksheet!$A$70,Worksheet!D286,IF($D52=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G52" s="236"/>
-      <c r="H52" s="258" t="str">
+      <c r="H52" s="276" t="str">
         <f>IF($D52=Worksheet!$A$59,Worksheet!D$59,IF($D52=Worksheet!$A$60,Worksheet!D$60,IF($D52=Worksheet!$A$61,Worksheet!D$61,IF($D52=Worksheet!$A$62,Worksheet!D$62,IF($D52=Worksheet!$A$63,Worksheet!D$63,IF($D52=Worksheet!$A$64,Worksheet!D$64,IF($D52=Worksheet!$A$65,Worksheet!D$65,IF($D52=Worksheet!$A$66,Worksheet!D$66,IF($D52=Worksheet!$A$67,Worksheet!D$67,IF($D52=Worksheet!$A$68,Worksheet!F286,IF($D52=Worksheet!$A$69,Worksheet!F286,IF($D52=Worksheet!$A$70,Worksheet!F286,IF($D52=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I52" s="259"/>
-      <c r="J52" s="258" t="str">
+      <c r="I52" s="277"/>
+      <c r="J52" s="276" t="str">
         <f>IF($D52=Worksheet!$A$59,Worksheet!E$59,IF($D52=Worksheet!$A$60,Worksheet!E$60,IF($D52=Worksheet!$A$61,Worksheet!E$61,IF($D52=Worksheet!$A$62,Worksheet!E$62,IF($D52=Worksheet!$A$63,Worksheet!E$63,IF($D52=Worksheet!$A$64,Worksheet!E$64,IF($D52=Worksheet!$A$65,Worksheet!E$65,IF($D52=Worksheet!$A$66,Worksheet!E$66,IF($D52=Worksheet!$A$67,Worksheet!E$67,IF($D52=Worksheet!$A$68,Worksheet!H286,IF($D52=Worksheet!$A$69,Worksheet!H286,IF($D52=Worksheet!$A$70,Worksheet!H286,IF($D52=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K52" s="259"/>
-      <c r="L52" s="258" t="str">
+      <c r="K52" s="277"/>
+      <c r="L52" s="276" t="str">
         <f>IF($D52=Worksheet!$A$59,Worksheet!F$59,IF($D52=Worksheet!$A$60,Worksheet!F$60,IF($D52=Worksheet!$A$61,Worksheet!F$61,IF($D52=Worksheet!$A$62,Worksheet!F$62,IF($D52=Worksheet!$A$63,Worksheet!F$63,IF($D52=Worksheet!$A$64,Worksheet!F$64,IF($D52=Worksheet!$A$65,Worksheet!F$65,IF($D52=Worksheet!$A$66,Worksheet!F$66,IF($D52=Worksheet!$A$67,Worksheet!F$67,IF($D52=Worksheet!$A$68,Worksheet!J286,IF($D52=Worksheet!$A$69,Worksheet!J286,IF($D52=Worksheet!$A$70,Worksheet!J286,IF($D52=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M52" s="259"/>
+      <c r="M52" s="277"/>
       <c r="N52" s="80">
         <f>IF(AND(D52="F-SMRA",N24=0),0,IF(AND(D52="F-SMRB",N24=0),0,IF(AND(D52="F-SMRC",N24=0),0,IF($D52=Worksheet!$A$68,Worksheet!B312,IF($D52=Worksheet!$A$69,Worksheet!B312,IF($D52=Worksheet!$A$70,Worksheet!B312,ROUND((Request!N24/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D52=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D52=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D52=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D52=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D52=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D52=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D52=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D52=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D52=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N24/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D52=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D52=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D52=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D52=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D52=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D52=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D52=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D52=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D52=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -16108,11 +16108,11 @@
       <c r="A53" s="162">
         <v>19</v>
       </c>
-      <c r="B53" s="260">
+      <c r="B53" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C53" s="261"/>
+      <c r="C53" s="231"/>
       <c r="D53" s="179" t="s">
         <v>54</v>
       </c>
@@ -16120,26 +16120,26 @@
         <f>IF($D53=Worksheet!$A$59,Worksheet!B$59,IF($D53=Worksheet!$A$60,Worksheet!B$60,IF($D53=Worksheet!$A$61,Worksheet!B$61,IF($D53=Worksheet!$A$62,Worksheet!B$62,IF($D53=Worksheet!$A$63,Worksheet!B$63,IF($D53=Worksheet!$A$64,Worksheet!B$64,IF($D53=Worksheet!$A$65,Worksheet!B$65,IF($D53=Worksheet!$A$66,Worksheet!B$66,IF($D53=Worksheet!$A$67,Worksheet!B$67,IF($D53=Worksheet!$A$68,Worksheet!B287,IF($D53=Worksheet!$A$69,Worksheet!B287,IF($D53=Worksheet!$A$70,Worksheet!B287,IF($D53=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F53" s="256" t="str">
+      <c r="F53" s="234" t="str">
         <f>IF($D53=Worksheet!$A$59,Worksheet!C$59,IF($D53=Worksheet!$A$60,Worksheet!C$60,IF($D53=Worksheet!$A$61,Worksheet!C$61,IF($D53=Worksheet!$A$62,Worksheet!C$62,IF($D53=Worksheet!$A$63,Worksheet!C$63,IF($D53=Worksheet!$A$64,Worksheet!C$64,IF($D53=Worksheet!$A$65,Worksheet!C$65,IF($D53=Worksheet!$A$66,Worksheet!C$66,IF($D53=Worksheet!$A$67,Worksheet!C$67,IF($D53=Worksheet!$A$68,Worksheet!D287,IF($D53=Worksheet!$A$69,Worksheet!D287,IF($D53=Worksheet!$A$70,Worksheet!D287,IF($D53=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G53" s="236"/>
-      <c r="H53" s="258" t="str">
+      <c r="H53" s="276" t="str">
         <f>IF($D53=Worksheet!$A$59,Worksheet!D$59,IF($D53=Worksheet!$A$60,Worksheet!D$60,IF($D53=Worksheet!$A$61,Worksheet!D$61,IF($D53=Worksheet!$A$62,Worksheet!D$62,IF($D53=Worksheet!$A$63,Worksheet!D$63,IF($D53=Worksheet!$A$64,Worksheet!D$64,IF($D53=Worksheet!$A$65,Worksheet!D$65,IF($D53=Worksheet!$A$66,Worksheet!D$66,IF($D53=Worksheet!$A$67,Worksheet!D$67,IF($D53=Worksheet!$A$68,Worksheet!F287,IF($D53=Worksheet!$A$69,Worksheet!F287,IF($D53=Worksheet!$A$70,Worksheet!F287,IF($D53=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I53" s="259"/>
-      <c r="J53" s="258" t="str">
+      <c r="I53" s="277"/>
+      <c r="J53" s="276" t="str">
         <f>IF($D53=Worksheet!$A$59,Worksheet!E$59,IF($D53=Worksheet!$A$60,Worksheet!E$60,IF($D53=Worksheet!$A$61,Worksheet!E$61,IF($D53=Worksheet!$A$62,Worksheet!E$62,IF($D53=Worksheet!$A$63,Worksheet!E$63,IF($D53=Worksheet!$A$64,Worksheet!E$64,IF($D53=Worksheet!$A$65,Worksheet!E$65,IF($D53=Worksheet!$A$66,Worksheet!E$66,IF($D53=Worksheet!$A$67,Worksheet!E$67,IF($D53=Worksheet!$A$68,Worksheet!H287,IF($D53=Worksheet!$A$69,Worksheet!H287,IF($D53=Worksheet!$A$70,Worksheet!H287,IF($D53=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K53" s="259"/>
-      <c r="L53" s="258" t="str">
+      <c r="K53" s="277"/>
+      <c r="L53" s="276" t="str">
         <f>IF($D53=Worksheet!$A$59,Worksheet!F$59,IF($D53=Worksheet!$A$60,Worksheet!F$60,IF($D53=Worksheet!$A$61,Worksheet!F$61,IF($D53=Worksheet!$A$62,Worksheet!F$62,IF($D53=Worksheet!$A$63,Worksheet!F$63,IF($D53=Worksheet!$A$64,Worksheet!F$64,IF($D53=Worksheet!$A$65,Worksheet!F$65,IF($D53=Worksheet!$A$66,Worksheet!F$66,IF($D53=Worksheet!$A$67,Worksheet!F$67,IF($D53=Worksheet!$A$68,Worksheet!J287,IF($D53=Worksheet!$A$69,Worksheet!J287,IF($D53=Worksheet!$A$70,Worksheet!J287,IF($D53=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M53" s="259"/>
+      <c r="M53" s="277"/>
       <c r="N53" s="80">
         <f>IF(AND(D53="F-SMRA",N25=0),0,IF(AND(D53="F-SMRB",N25=0),0,IF(AND(D53="F-SMRC",N25=0),0,IF($D53=Worksheet!$A$68,Worksheet!B313,IF($D53=Worksheet!$A$69,Worksheet!B313,IF($D53=Worksheet!$A$70,Worksheet!B313,ROUND((Request!N25/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D53=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D53=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D53=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D53=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D53=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D53=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D53=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D53=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D53=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N25/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D53=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D53=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D53=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D53=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D53=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D53=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D53=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D53=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D53=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -16174,11 +16174,11 @@
       <c r="A54" s="162">
         <v>20</v>
       </c>
-      <c r="B54" s="260">
+      <c r="B54" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C54" s="261"/>
+      <c r="C54" s="231"/>
       <c r="D54" s="179" t="s">
         <v>54</v>
       </c>
@@ -16186,26 +16186,26 @@
         <f>IF($D54=Worksheet!$A$59,Worksheet!B$59,IF($D54=Worksheet!$A$60,Worksheet!B$60,IF($D54=Worksheet!$A$61,Worksheet!B$61,IF($D54=Worksheet!$A$62,Worksheet!B$62,IF($D54=Worksheet!$A$63,Worksheet!B$63,IF($D54=Worksheet!$A$64,Worksheet!B$64,IF($D54=Worksheet!$A$65,Worksheet!B$65,IF($D54=Worksheet!$A$66,Worksheet!B$66,IF($D54=Worksheet!$A$67,Worksheet!B$67,IF($D54=Worksheet!$A$68,Worksheet!B288,IF($D54=Worksheet!$A$69,Worksheet!B288,IF($D54=Worksheet!$A$70,Worksheet!B288,IF($D54=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F54" s="256" t="str">
+      <c r="F54" s="234" t="str">
         <f>IF($D54=Worksheet!$A$59,Worksheet!C$59,IF($D54=Worksheet!$A$60,Worksheet!C$60,IF($D54=Worksheet!$A$61,Worksheet!C$61,IF($D54=Worksheet!$A$62,Worksheet!C$62,IF($D54=Worksheet!$A$63,Worksheet!C$63,IF($D54=Worksheet!$A$64,Worksheet!C$64,IF($D54=Worksheet!$A$65,Worksheet!C$65,IF($D54=Worksheet!$A$66,Worksheet!C$66,IF($D54=Worksheet!$A$67,Worksheet!C$67,IF($D54=Worksheet!$A$68,Worksheet!D288,IF($D54=Worksheet!$A$69,Worksheet!D288,IF($D54=Worksheet!$A$70,Worksheet!D288,IF($D54=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G54" s="236"/>
-      <c r="H54" s="258" t="str">
+      <c r="H54" s="276" t="str">
         <f>IF($D54=Worksheet!$A$59,Worksheet!D$59,IF($D54=Worksheet!$A$60,Worksheet!D$60,IF($D54=Worksheet!$A$61,Worksheet!D$61,IF($D54=Worksheet!$A$62,Worksheet!D$62,IF($D54=Worksheet!$A$63,Worksheet!D$63,IF($D54=Worksheet!$A$64,Worksheet!D$64,IF($D54=Worksheet!$A$65,Worksheet!D$65,IF($D54=Worksheet!$A$66,Worksheet!D$66,IF($D54=Worksheet!$A$67,Worksheet!D$67,IF($D54=Worksheet!$A$68,Worksheet!F288,IF($D54=Worksheet!$A$69,Worksheet!F288,IF($D54=Worksheet!$A$70,Worksheet!F288,IF($D54=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I54" s="259"/>
-      <c r="J54" s="258" t="str">
+      <c r="I54" s="277"/>
+      <c r="J54" s="276" t="str">
         <f>IF($D54=Worksheet!$A$59,Worksheet!E$59,IF($D54=Worksheet!$A$60,Worksheet!E$60,IF($D54=Worksheet!$A$61,Worksheet!E$61,IF($D54=Worksheet!$A$62,Worksheet!E$62,IF($D54=Worksheet!$A$63,Worksheet!E$63,IF($D54=Worksheet!$A$64,Worksheet!E$64,IF($D54=Worksheet!$A$65,Worksheet!E$65,IF($D54=Worksheet!$A$66,Worksheet!E$66,IF($D54=Worksheet!$A$67,Worksheet!E$67,IF($D54=Worksheet!$A$68,Worksheet!H288,IF($D54=Worksheet!$A$69,Worksheet!H288,IF($D54=Worksheet!$A$70,Worksheet!H288,IF($D54=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K54" s="259"/>
-      <c r="L54" s="258" t="str">
+      <c r="K54" s="277"/>
+      <c r="L54" s="276" t="str">
         <f>IF($D54=Worksheet!$A$59,Worksheet!F$59,IF($D54=Worksheet!$A$60,Worksheet!F$60,IF($D54=Worksheet!$A$61,Worksheet!F$61,IF($D54=Worksheet!$A$62,Worksheet!F$62,IF($D54=Worksheet!$A$63,Worksheet!F$63,IF($D54=Worksheet!$A$64,Worksheet!F$64,IF($D54=Worksheet!$A$65,Worksheet!F$65,IF($D54=Worksheet!$A$66,Worksheet!F$66,IF($D54=Worksheet!$A$67,Worksheet!F$67,IF($D54=Worksheet!$A$68,Worksheet!J288,IF($D54=Worksheet!$A$69,Worksheet!J288,IF($D54=Worksheet!$A$70,Worksheet!J288,IF($D54=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M54" s="259"/>
+      <c r="M54" s="277"/>
       <c r="N54" s="80">
         <f>IF(AND(D54="F-SMRA",N26=0),0,IF(AND(D54="F-SMRB",N26=0),0,IF(AND(D54="F-SMRC",N26=0),0,IF($D54=Worksheet!$A$68,Worksheet!B314,IF($D54=Worksheet!$A$69,Worksheet!B314,IF($D54=Worksheet!$A$70,Worksheet!B314,ROUND((Request!N26/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D54=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D54=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D54=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D54=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D54=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D54=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D54=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D54=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D54=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N26/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D54=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D54=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D54=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D54=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D54=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D54=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D54=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D54=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D54=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -16240,11 +16240,11 @@
       <c r="A55" s="162">
         <v>21</v>
       </c>
-      <c r="B55" s="260">
+      <c r="B55" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C55" s="261"/>
+      <c r="C55" s="231"/>
       <c r="D55" s="179" t="s">
         <v>54</v>
       </c>
@@ -16252,26 +16252,26 @@
         <f>IF($D55=Worksheet!$A$59,Worksheet!B$59,IF($D55=Worksheet!$A$60,Worksheet!B$60,IF($D55=Worksheet!$A$61,Worksheet!B$61,IF($D55=Worksheet!$A$62,Worksheet!B$62,IF($D55=Worksheet!$A$63,Worksheet!B$63,IF($D55=Worksheet!$A$64,Worksheet!B$64,IF($D55=Worksheet!$A$65,Worksheet!B$65,IF($D55=Worksheet!$A$66,Worksheet!B$66,IF($D55=Worksheet!$A$67,Worksheet!B$67,IF($D55=Worksheet!$A$68,Worksheet!B289,IF($D55=Worksheet!$A$69,Worksheet!B289,IF($D55=Worksheet!$A$70,Worksheet!B289,IF($D55=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F55" s="256" t="str">
+      <c r="F55" s="234" t="str">
         <f>IF($D55=Worksheet!$A$59,Worksheet!C$59,IF($D55=Worksheet!$A$60,Worksheet!C$60,IF($D55=Worksheet!$A$61,Worksheet!C$61,IF($D55=Worksheet!$A$62,Worksheet!C$62,IF($D55=Worksheet!$A$63,Worksheet!C$63,IF($D55=Worksheet!$A$64,Worksheet!C$64,IF($D55=Worksheet!$A$65,Worksheet!C$65,IF($D55=Worksheet!$A$66,Worksheet!C$66,IF($D55=Worksheet!$A$67,Worksheet!C$67,IF($D55=Worksheet!$A$68,Worksheet!D289,IF($D55=Worksheet!$A$69,Worksheet!D289,IF($D55=Worksheet!$A$70,Worksheet!D289,IF($D55=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G55" s="236"/>
-      <c r="H55" s="258" t="str">
+      <c r="H55" s="276" t="str">
         <f>IF($D55=Worksheet!$A$59,Worksheet!D$59,IF($D55=Worksheet!$A$60,Worksheet!D$60,IF($D55=Worksheet!$A$61,Worksheet!D$61,IF($D55=Worksheet!$A$62,Worksheet!D$62,IF($D55=Worksheet!$A$63,Worksheet!D$63,IF($D55=Worksheet!$A$64,Worksheet!D$64,IF($D55=Worksheet!$A$65,Worksheet!D$65,IF($D55=Worksheet!$A$66,Worksheet!D$66,IF($D55=Worksheet!$A$67,Worksheet!D$67,IF($D55=Worksheet!$A$68,Worksheet!F289,IF($D55=Worksheet!$A$69,Worksheet!F289,IF($D55=Worksheet!$A$70,Worksheet!F289,IF($D55=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I55" s="259"/>
-      <c r="J55" s="258" t="str">
+      <c r="I55" s="277"/>
+      <c r="J55" s="276" t="str">
         <f>IF($D55=Worksheet!$A$59,Worksheet!E$59,IF($D55=Worksheet!$A$60,Worksheet!E$60,IF($D55=Worksheet!$A$61,Worksheet!E$61,IF($D55=Worksheet!$A$62,Worksheet!E$62,IF($D55=Worksheet!$A$63,Worksheet!E$63,IF($D55=Worksheet!$A$64,Worksheet!E$64,IF($D55=Worksheet!$A$65,Worksheet!E$65,IF($D55=Worksheet!$A$66,Worksheet!E$66,IF($D55=Worksheet!$A$67,Worksheet!E$67,IF($D55=Worksheet!$A$68,Worksheet!H289,IF($D55=Worksheet!$A$69,Worksheet!H289,IF($D55=Worksheet!$A$70,Worksheet!H289,IF($D55=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K55" s="259"/>
-      <c r="L55" s="258" t="str">
+      <c r="K55" s="277"/>
+      <c r="L55" s="276" t="str">
         <f>IF($D55=Worksheet!$A$59,Worksheet!F$59,IF($D55=Worksheet!$A$60,Worksheet!F$60,IF($D55=Worksheet!$A$61,Worksheet!F$61,IF($D55=Worksheet!$A$62,Worksheet!F$62,IF($D55=Worksheet!$A$63,Worksheet!F$63,IF($D55=Worksheet!$A$64,Worksheet!F$64,IF($D55=Worksheet!$A$65,Worksheet!F$65,IF($D55=Worksheet!$A$66,Worksheet!F$66,IF($D55=Worksheet!$A$67,Worksheet!F$67,IF($D55=Worksheet!$A$68,Worksheet!J289,IF($D55=Worksheet!$A$69,Worksheet!J289,IF($D55=Worksheet!$A$70,Worksheet!J289,IF($D55=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M55" s="259"/>
+      <c r="M55" s="277"/>
       <c r="N55" s="80">
         <f>IF(AND(D55="F-SMRA",N27=0),0,IF(AND(D55="F-SMRB",N27=0),0,IF(AND(D55="F-SMRC",N27=0),0,IF($D55=Worksheet!$A$68,Worksheet!B315,IF($D55=Worksheet!$A$69,Worksheet!B315,IF($D55=Worksheet!$A$70,Worksheet!B315,ROUND((Request!N27/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D55=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D55=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D55=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D55=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D55=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D55=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D55=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D55=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D55=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N27/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D55=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D55=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D55=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D55=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D55=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D55=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D55=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D55=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D55=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -16306,11 +16306,11 @@
       <c r="A56" s="162">
         <v>22</v>
       </c>
-      <c r="B56" s="260">
+      <c r="B56" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C56" s="261"/>
+      <c r="C56" s="231"/>
       <c r="D56" s="179" t="s">
         <v>54</v>
       </c>
@@ -16318,26 +16318,26 @@
         <f>IF($D56=Worksheet!$A$59,Worksheet!B$59,IF($D56=Worksheet!$A$60,Worksheet!B$60,IF($D56=Worksheet!$A$61,Worksheet!B$61,IF($D56=Worksheet!$A$62,Worksheet!B$62,IF($D56=Worksheet!$A$63,Worksheet!B$63,IF($D56=Worksheet!$A$64,Worksheet!B$64,IF($D56=Worksheet!$A$65,Worksheet!B$65,IF($D56=Worksheet!$A$66,Worksheet!B$66,IF($D56=Worksheet!$A$67,Worksheet!B$67,IF($D56=Worksheet!$A$68,Worksheet!B290,IF($D56=Worksheet!$A$69,Worksheet!B290,IF($D56=Worksheet!$A$70,Worksheet!B290,IF($D56=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F56" s="256" t="str">
+      <c r="F56" s="234" t="str">
         <f>IF($D56=Worksheet!$A$59,Worksheet!C$59,IF($D56=Worksheet!$A$60,Worksheet!C$60,IF($D56=Worksheet!$A$61,Worksheet!C$61,IF($D56=Worksheet!$A$62,Worksheet!C$62,IF($D56=Worksheet!$A$63,Worksheet!C$63,IF($D56=Worksheet!$A$64,Worksheet!C$64,IF($D56=Worksheet!$A$65,Worksheet!C$65,IF($D56=Worksheet!$A$66,Worksheet!C$66,IF($D56=Worksheet!$A$67,Worksheet!C$67,IF($D56=Worksheet!$A$68,Worksheet!D290,IF($D56=Worksheet!$A$69,Worksheet!D290,IF($D56=Worksheet!$A$70,Worksheet!D290,IF($D56=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G56" s="236"/>
-      <c r="H56" s="258" t="str">
+      <c r="H56" s="276" t="str">
         <f>IF($D56=Worksheet!$A$59,Worksheet!D$59,IF($D56=Worksheet!$A$60,Worksheet!D$60,IF($D56=Worksheet!$A$61,Worksheet!D$61,IF($D56=Worksheet!$A$62,Worksheet!D$62,IF($D56=Worksheet!$A$63,Worksheet!D$63,IF($D56=Worksheet!$A$64,Worksheet!D$64,IF($D56=Worksheet!$A$65,Worksheet!D$65,IF($D56=Worksheet!$A$66,Worksheet!D$66,IF($D56=Worksheet!$A$67,Worksheet!D$67,IF($D56=Worksheet!$A$68,Worksheet!F290,IF($D56=Worksheet!$A$69,Worksheet!F290,IF($D56=Worksheet!$A$70,Worksheet!F290,IF($D56=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I56" s="259"/>
-      <c r="J56" s="258" t="str">
+      <c r="I56" s="277"/>
+      <c r="J56" s="276" t="str">
         <f>IF($D56=Worksheet!$A$59,Worksheet!E$59,IF($D56=Worksheet!$A$60,Worksheet!E$60,IF($D56=Worksheet!$A$61,Worksheet!E$61,IF($D56=Worksheet!$A$62,Worksheet!E$62,IF($D56=Worksheet!$A$63,Worksheet!E$63,IF($D56=Worksheet!$A$64,Worksheet!E$64,IF($D56=Worksheet!$A$65,Worksheet!E$65,IF($D56=Worksheet!$A$66,Worksheet!E$66,IF($D56=Worksheet!$A$67,Worksheet!E$67,IF($D56=Worksheet!$A$68,Worksheet!H290,IF($D56=Worksheet!$A$69,Worksheet!H290,IF($D56=Worksheet!$A$70,Worksheet!H290,IF($D56=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K56" s="259"/>
-      <c r="L56" s="258" t="str">
+      <c r="K56" s="277"/>
+      <c r="L56" s="276" t="str">
         <f>IF($D56=Worksheet!$A$59,Worksheet!F$59,IF($D56=Worksheet!$A$60,Worksheet!F$60,IF($D56=Worksheet!$A$61,Worksheet!F$61,IF($D56=Worksheet!$A$62,Worksheet!F$62,IF($D56=Worksheet!$A$63,Worksheet!F$63,IF($D56=Worksheet!$A$64,Worksheet!F$64,IF($D56=Worksheet!$A$65,Worksheet!F$65,IF($D56=Worksheet!$A$66,Worksheet!F$66,IF($D56=Worksheet!$A$67,Worksheet!F$67,IF($D56=Worksheet!$A$68,Worksheet!J290,IF($D56=Worksheet!$A$69,Worksheet!J290,IF($D56=Worksheet!$A$70,Worksheet!J290,IF($D56=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M56" s="259"/>
+      <c r="M56" s="277"/>
       <c r="N56" s="80">
         <f>IF(AND(D56="F-SMRA",N28=0),0,IF(AND(D56="F-SMRB",N28=0),0,IF(AND(D56="F-SMRC",N28=0),0,IF($D56=Worksheet!$A$68,Worksheet!B316,IF($D56=Worksheet!$A$69,Worksheet!B316,IF($D56=Worksheet!$A$70,Worksheet!B316,ROUND((Request!N28/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D56=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D56=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D56=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D56=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D56=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D56=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D56=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D56=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D56=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N28/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D56=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D56=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D56=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D56=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D56=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D56=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D56=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D56=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D56=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -16372,11 +16372,11 @@
       <c r="A57" s="162">
         <v>23</v>
       </c>
-      <c r="B57" s="260">
+      <c r="B57" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C57" s="261"/>
+      <c r="C57" s="231"/>
       <c r="D57" s="179" t="s">
         <v>54</v>
       </c>
@@ -16384,26 +16384,26 @@
         <f>IF($D57=Worksheet!$A$59,Worksheet!B$59,IF($D57=Worksheet!$A$60,Worksheet!B$60,IF($D57=Worksheet!$A$61,Worksheet!B$61,IF($D57=Worksheet!$A$62,Worksheet!B$62,IF($D57=Worksheet!$A$63,Worksheet!B$63,IF($D57=Worksheet!$A$64,Worksheet!B$64,IF($D57=Worksheet!$A$65,Worksheet!B$65,IF($D57=Worksheet!$A$66,Worksheet!B$66,IF($D57=Worksheet!$A$67,Worksheet!B$67,IF($D57=Worksheet!$A$68,Worksheet!B291,IF($D57=Worksheet!$A$69,Worksheet!B291,IF($D57=Worksheet!$A$70,Worksheet!B291,IF($D57=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F57" s="256" t="str">
+      <c r="F57" s="234" t="str">
         <f>IF($D57=Worksheet!$A$59,Worksheet!C$59,IF($D57=Worksheet!$A$60,Worksheet!C$60,IF($D57=Worksheet!$A$61,Worksheet!C$61,IF($D57=Worksheet!$A$62,Worksheet!C$62,IF($D57=Worksheet!$A$63,Worksheet!C$63,IF($D57=Worksheet!$A$64,Worksheet!C$64,IF($D57=Worksheet!$A$65,Worksheet!C$65,IF($D57=Worksheet!$A$66,Worksheet!C$66,IF($D57=Worksheet!$A$67,Worksheet!C$67,IF($D57=Worksheet!$A$68,Worksheet!D291,IF($D57=Worksheet!$A$69,Worksheet!D291,IF($D57=Worksheet!$A$70,Worksheet!D291,IF($D57=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G57" s="236"/>
-      <c r="H57" s="258" t="str">
+      <c r="H57" s="276" t="str">
         <f>IF($D57=Worksheet!$A$59,Worksheet!D$59,IF($D57=Worksheet!$A$60,Worksheet!D$60,IF($D57=Worksheet!$A$61,Worksheet!D$61,IF($D57=Worksheet!$A$62,Worksheet!D$62,IF($D57=Worksheet!$A$63,Worksheet!D$63,IF($D57=Worksheet!$A$64,Worksheet!D$64,IF($D57=Worksheet!$A$65,Worksheet!D$65,IF($D57=Worksheet!$A$66,Worksheet!D$66,IF($D57=Worksheet!$A$67,Worksheet!D$67,IF($D57=Worksheet!$A$68,Worksheet!F291,IF($D57=Worksheet!$A$69,Worksheet!F291,IF($D57=Worksheet!$A$70,Worksheet!F291,IF($D57=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I57" s="259"/>
-      <c r="J57" s="258" t="str">
+      <c r="I57" s="277"/>
+      <c r="J57" s="276" t="str">
         <f>IF($D57=Worksheet!$A$59,Worksheet!E$59,IF($D57=Worksheet!$A$60,Worksheet!E$60,IF($D57=Worksheet!$A$61,Worksheet!E$61,IF($D57=Worksheet!$A$62,Worksheet!E$62,IF($D57=Worksheet!$A$63,Worksheet!E$63,IF($D57=Worksheet!$A$64,Worksheet!E$64,IF($D57=Worksheet!$A$65,Worksheet!E$65,IF($D57=Worksheet!$A$66,Worksheet!E$66,IF($D57=Worksheet!$A$67,Worksheet!E$67,IF($D57=Worksheet!$A$68,Worksheet!H291,IF($D57=Worksheet!$A$69,Worksheet!H291,IF($D57=Worksheet!$A$70,Worksheet!H291,IF($D57=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K57" s="259"/>
-      <c r="L57" s="258" t="str">
+      <c r="K57" s="277"/>
+      <c r="L57" s="276" t="str">
         <f>IF($D57=Worksheet!$A$59,Worksheet!F$59,IF($D57=Worksheet!$A$60,Worksheet!F$60,IF($D57=Worksheet!$A$61,Worksheet!F$61,IF($D57=Worksheet!$A$62,Worksheet!F$62,IF($D57=Worksheet!$A$63,Worksheet!F$63,IF($D57=Worksheet!$A$64,Worksheet!F$64,IF($D57=Worksheet!$A$65,Worksheet!F$65,IF($D57=Worksheet!$A$66,Worksheet!F$66,IF($D57=Worksheet!$A$67,Worksheet!F$67,IF($D57=Worksheet!$A$68,Worksheet!J291,IF($D57=Worksheet!$A$69,Worksheet!J291,IF($D57=Worksheet!$A$70,Worksheet!J291,IF($D57=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M57" s="259"/>
+      <c r="M57" s="277"/>
       <c r="N57" s="80">
         <f>IF(AND(D57="F-SMRA",N29=0),0,IF(AND(D57="F-SMRB",N29=0),0,IF(AND(D57="F-SMRC",N29=0),0,IF($D57=Worksheet!$A$68,Worksheet!B317,IF($D57=Worksheet!$A$69,Worksheet!B317,IF($D57=Worksheet!$A$70,Worksheet!B317,ROUND((Request!N29/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D57=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D57=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D57=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D57=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D57=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D57=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D57=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D57=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D57=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N29/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D57=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D57=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D57=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D57=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D57=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D57=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D57=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D57=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D57=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -16438,11 +16438,11 @@
       <c r="A58" s="162">
         <v>24</v>
       </c>
-      <c r="B58" s="260">
+      <c r="B58" s="230">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C58" s="261"/>
+      <c r="C58" s="231"/>
       <c r="D58" s="180" t="s">
         <v>54</v>
       </c>
@@ -16450,26 +16450,26 @@
         <f>IF($D58=Worksheet!$A$59,Worksheet!B$59,IF($D58=Worksheet!$A$60,Worksheet!B$60,IF($D58=Worksheet!$A$61,Worksheet!B$61,IF($D58=Worksheet!$A$62,Worksheet!B$62,IF($D58=Worksheet!$A$63,Worksheet!B$63,IF($D58=Worksheet!$A$64,Worksheet!B$64,IF($D58=Worksheet!$A$65,Worksheet!B$65,IF($D58=Worksheet!$A$66,Worksheet!B$66,IF($D58=Worksheet!$A$67,Worksheet!B$67,IF($D58=Worksheet!$A$68,Worksheet!B292,IF($D58=Worksheet!$A$69,Worksheet!B292,IF($D58=Worksheet!$A$70,Worksheet!B292,IF($D58=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="F58" s="256" t="str">
+      <c r="F58" s="234" t="str">
         <f>IF($D58=Worksheet!$A$59,Worksheet!C$59,IF($D58=Worksheet!$A$60,Worksheet!C$60,IF($D58=Worksheet!$A$61,Worksheet!C$61,IF($D58=Worksheet!$A$62,Worksheet!C$62,IF($D58=Worksheet!$A$63,Worksheet!C$63,IF($D58=Worksheet!$A$64,Worksheet!C$64,IF($D58=Worksheet!$A$65,Worksheet!C$65,IF($D58=Worksheet!$A$66,Worksheet!C$66,IF($D58=Worksheet!$A$67,Worksheet!C$67,IF($D58=Worksheet!$A$68,Worksheet!D292,IF($D58=Worksheet!$A$69,Worksheet!D292,IF($D58=Worksheet!$A$70,Worksheet!D292,IF($D58=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
       <c r="G58" s="236"/>
-      <c r="H58" s="258" t="str">
+      <c r="H58" s="276" t="str">
         <f>IF($D58=Worksheet!$A$59,Worksheet!D$59,IF($D58=Worksheet!$A$60,Worksheet!D$60,IF($D58=Worksheet!$A$61,Worksheet!D$61,IF($D58=Worksheet!$A$62,Worksheet!D$62,IF($D58=Worksheet!$A$63,Worksheet!D$63,IF($D58=Worksheet!$A$64,Worksheet!D$64,IF($D58=Worksheet!$A$65,Worksheet!D$65,IF($D58=Worksheet!$A$66,Worksheet!D$66,IF($D58=Worksheet!$A$67,Worksheet!D$67,IF($D58=Worksheet!$A$68,Worksheet!F292,IF($D58=Worksheet!$A$69,Worksheet!F292,IF($D58=Worksheet!$A$70,Worksheet!F292,IF($D58=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="I58" s="259"/>
-      <c r="J58" s="258" t="str">
+      <c r="I58" s="277"/>
+      <c r="J58" s="276" t="str">
         <f>IF($D58=Worksheet!$A$59,Worksheet!E$59,IF($D58=Worksheet!$A$60,Worksheet!E$60,IF($D58=Worksheet!$A$61,Worksheet!E$61,IF($D58=Worksheet!$A$62,Worksheet!E$62,IF($D58=Worksheet!$A$63,Worksheet!E$63,IF($D58=Worksheet!$A$64,Worksheet!E$64,IF($D58=Worksheet!$A$65,Worksheet!E$65,IF($D58=Worksheet!$A$66,Worksheet!E$66,IF($D58=Worksheet!$A$67,Worksheet!E$67,IF($D58=Worksheet!$A$68,Worksheet!H292,IF($D58=Worksheet!$A$69,Worksheet!H292,IF($D58=Worksheet!$A$70,Worksheet!H292,IF($D58=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="K58" s="259"/>
-      <c r="L58" s="258" t="str">
+      <c r="K58" s="277"/>
+      <c r="L58" s="276" t="str">
         <f>IF($D58=Worksheet!$A$59,Worksheet!F$59,IF($D58=Worksheet!$A$60,Worksheet!F$60,IF($D58=Worksheet!$A$61,Worksheet!F$61,IF($D58=Worksheet!$A$62,Worksheet!F$62,IF($D58=Worksheet!$A$63,Worksheet!F$63,IF($D58=Worksheet!$A$64,Worksheet!F$64,IF($D58=Worksheet!$A$65,Worksheet!F$65,IF($D58=Worksheet!$A$66,Worksheet!F$66,IF($D58=Worksheet!$A$67,Worksheet!F$67,IF($D58=Worksheet!$A$68,Worksheet!J292,IF($D58=Worksheet!$A$69,Worksheet!J292,IF($D58=Worksheet!$A$70,Worksheet!J292,IF($D58=Worksheet!$A$71,"")))))))))))))</f>
         <v/>
       </c>
-      <c r="M58" s="259"/>
+      <c r="M58" s="277"/>
       <c r="N58" s="80">
         <f>IF(AND(D58="F-SMRA",N30=0),0,IF(AND(D58="F-SMRB",N30=0),0,IF(AND(D58="F-SMRC",N30=0),0,IF($D58=Worksheet!$A$68,Worksheet!B318,IF($D58=Worksheet!$A$69,Worksheet!B318,IF($D58=Worksheet!$A$70,Worksheet!B318,ROUND((Request!N30/Worksheet!$C$5*Worksheet!$C$9*(IF(Request!$D58=Worksheet!$A$47,Worksheet!B$47,IF(Request!$D58=Worksheet!$A$48,Worksheet!B$48,IF(Request!$D58=Worksheet!$A$49,Worksheet!B$49,IF(Request!$D58=Worksheet!$A$50,Worksheet!B$50,IF(Request!$D58=Worksheet!$A$51,Worksheet!B$51,IF(Request!$D58=Worksheet!$A$52,Worksheet!B$52,IF(Request!$D58=Worksheet!$A$53,Worksheet!B$53,IF(Request!$D58=Worksheet!$A$54,Worksheet!B$54,IF(Request!$D58=Worksheet!$A$55,Worksheet!B$55))))))))))),0)+ROUND(N30/Worksheet!$C$5*Worksheet!$C$10*(IF(Request!$D58=Worksheet!$A$47,Worksheet!C$47,IF(Request!$D58=Worksheet!$A$48,Worksheet!C$48,IF(Request!$D58=Worksheet!$A$49,Worksheet!C$49,IF(Request!$D58=Worksheet!$A$50,Worksheet!C$50,IF(Request!$D58=Worksheet!$A$51,Worksheet!C$51,IF(Request!$D58=Worksheet!$A$52,Worksheet!C$52,IF(Request!$D58=Worksheet!$A$53,Worksheet!C$53,IF(Request!$D58=Worksheet!$A$54,Worksheet!C$54,IF(Request!$D58=Worksheet!$A$55,Worksheet!C$55)))))))))),0)))))))</f>
         <v>0</v>
@@ -16501,21 +16501,21 @@
       <c r="X58" s="65"/>
     </row>
     <row r="59" spans="1:24">
-      <c r="A59" s="229" t="s">
+      <c r="A59" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="230"/>
-      <c r="C59" s="230"/>
-      <c r="D59" s="230"/>
-      <c r="E59" s="230"/>
-      <c r="F59" s="230"/>
-      <c r="G59" s="230"/>
-      <c r="H59" s="230"/>
-      <c r="I59" s="230"/>
-      <c r="J59" s="230"/>
-      <c r="K59" s="230"/>
-      <c r="L59" s="230"/>
-      <c r="M59" s="231"/>
+      <c r="B59" s="266"/>
+      <c r="C59" s="266"/>
+      <c r="D59" s="266"/>
+      <c r="E59" s="266"/>
+      <c r="F59" s="266"/>
+      <c r="G59" s="266"/>
+      <c r="H59" s="266"/>
+      <c r="I59" s="266"/>
+      <c r="J59" s="266"/>
+      <c r="K59" s="266"/>
+      <c r="L59" s="266"/>
+      <c r="M59" s="267"/>
       <c r="N59" s="171">
         <f>ROUND(SUM(N35:N58),0)</f>
         <v>10825</v>
@@ -16542,21 +16542,21 @@
       </c>
     </row>
     <row r="60" spans="1:24">
-      <c r="A60" s="229" t="s">
+      <c r="A60" s="265" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="230"/>
-      <c r="C60" s="230"/>
-      <c r="D60" s="230"/>
-      <c r="E60" s="230"/>
-      <c r="F60" s="230"/>
-      <c r="G60" s="230"/>
-      <c r="H60" s="230"/>
-      <c r="I60" s="230"/>
-      <c r="J60" s="230"/>
-      <c r="K60" s="230"/>
-      <c r="L60" s="230"/>
-      <c r="M60" s="231"/>
+      <c r="B60" s="266"/>
+      <c r="C60" s="266"/>
+      <c r="D60" s="266"/>
+      <c r="E60" s="266"/>
+      <c r="F60" s="266"/>
+      <c r="G60" s="266"/>
+      <c r="H60" s="266"/>
+      <c r="I60" s="266"/>
+      <c r="J60" s="266"/>
+      <c r="K60" s="266"/>
+      <c r="L60" s="266"/>
+      <c r="M60" s="267"/>
       <c r="N60" s="171">
         <f t="shared" ref="N60:S60" si="5">N31+N59</f>
         <v>100022</v>
@@ -16583,11 +16583,11 @@
       </c>
     </row>
     <row r="62" spans="1:24">
-      <c r="A62" s="247" t="s">
+      <c r="A62" s="260" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="248"/>
-      <c r="C62" s="248"/>
+      <c r="B62" s="261"/>
+      <c r="C62" s="261"/>
       <c r="D62" s="66"/>
       <c r="E62" s="66"/>
       <c r="F62" s="66"/>
@@ -16825,11 +16825,11 @@
       </c>
     </row>
     <row r="72" spans="1:19">
-      <c r="A72" s="247" t="s">
+      <c r="A72" s="260" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="248"/>
-      <c r="C72" s="248"/>
+      <c r="B72" s="261"/>
+      <c r="C72" s="261"/>
       <c r="D72" s="66"/>
       <c r="E72" s="66"/>
       <c r="F72" s="66"/>
@@ -16871,11 +16871,11 @@
       <c r="C73" s="77"/>
     </row>
     <row r="74" spans="1:19">
-      <c r="A74" s="247" t="s">
+      <c r="A74" s="260" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="248"/>
-      <c r="C74" s="248"/>
+      <c r="B74" s="261"/>
+      <c r="C74" s="261"/>
       <c r="D74" s="66"/>
       <c r="E74" s="66"/>
       <c r="F74" s="66"/>
@@ -16883,11 +16883,11 @@
       <c r="H74" s="66"/>
       <c r="I74" s="66"/>
       <c r="J74" s="66"/>
-      <c r="K74" s="291" t="s">
+      <c r="K74" s="249" t="s">
         <v>175</v>
       </c>
-      <c r="L74" s="291"/>
-      <c r="M74" s="292"/>
+      <c r="L74" s="249"/>
+      <c r="M74" s="250"/>
       <c r="N74" s="194"/>
       <c r="O74" s="194"/>
       <c r="P74" s="194"/>
@@ -17129,11 +17129,11 @@
       </c>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="247" t="s">
+      <c r="A84" s="260" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="248"/>
-      <c r="C84" s="248"/>
+      <c r="B84" s="261"/>
+      <c r="C84" s="261"/>
       <c r="D84" s="66"/>
       <c r="E84" s="66"/>
       <c r="F84" s="66"/>
@@ -17170,11 +17170,11 @@
       </c>
     </row>
     <row r="86" spans="1:19">
-      <c r="A86" s="247" t="s">
+      <c r="A86" s="260" t="s">
         <v>74</v>
       </c>
-      <c r="B86" s="248"/>
-      <c r="C86" s="248"/>
+      <c r="B86" s="261"/>
+      <c r="C86" s="261"/>
       <c r="D86" s="66"/>
       <c r="E86" s="66"/>
       <c r="F86" s="66"/>
@@ -17424,11 +17424,11 @@
       </c>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="247" t="s">
+      <c r="A96" s="260" t="s">
         <v>75</v>
       </c>
-      <c r="B96" s="248"/>
-      <c r="C96" s="248"/>
+      <c r="B96" s="261"/>
+      <c r="C96" s="261"/>
       <c r="D96" s="66"/>
       <c r="E96" s="66"/>
       <c r="F96" s="66"/>
@@ -17465,11 +17465,11 @@
       </c>
     </row>
     <row r="98" spans="1:19">
-      <c r="A98" s="247" t="s">
+      <c r="A98" s="260" t="s">
         <v>76</v>
       </c>
-      <c r="B98" s="248"/>
-      <c r="C98" s="248"/>
+      <c r="B98" s="261"/>
+      <c r="C98" s="261"/>
       <c r="D98" s="66"/>
       <c r="E98" s="66"/>
       <c r="F98" s="66"/>
@@ -17477,11 +17477,11 @@
       <c r="H98" s="66"/>
       <c r="I98" s="66"/>
       <c r="J98" s="66"/>
-      <c r="K98" s="253" t="s">
+      <c r="K98" s="293" t="s">
         <v>78</v>
       </c>
-      <c r="L98" s="254"/>
-      <c r="M98" s="255"/>
+      <c r="L98" s="294"/>
+      <c r="M98" s="295"/>
       <c r="N98" s="194"/>
       <c r="O98" s="194"/>
       <c r="P98" s="194"/>
@@ -17503,10 +17503,10 @@
       <c r="H99" s="68"/>
       <c r="I99" s="68"/>
       <c r="J99" s="68"/>
-      <c r="K99" s="256" t="s">
+      <c r="K99" s="234" t="s">
         <v>129</v>
       </c>
-      <c r="L99" s="257"/>
+      <c r="L99" s="235"/>
       <c r="M99" s="236"/>
       <c r="N99" s="151"/>
       <c r="O99" s="151"/>
@@ -17529,10 +17529,10 @@
       <c r="H100" s="68"/>
       <c r="I100" s="68"/>
       <c r="J100" s="68"/>
-      <c r="K100" s="256" t="s">
+      <c r="K100" s="234" t="s">
         <v>129</v>
       </c>
-      <c r="L100" s="257"/>
+      <c r="L100" s="235"/>
       <c r="M100" s="236"/>
       <c r="N100" s="151"/>
       <c r="O100" s="151"/>
@@ -17555,11 +17555,11 @@
       <c r="H101" s="68"/>
       <c r="I101" s="68"/>
       <c r="J101" s="68"/>
-      <c r="K101" s="250" t="s">
+      <c r="K101" s="278" t="s">
         <v>129</v>
       </c>
-      <c r="L101" s="251"/>
-      <c r="M101" s="252"/>
+      <c r="L101" s="279"/>
+      <c r="M101" s="280"/>
       <c r="N101" s="151"/>
       <c r="O101" s="151"/>
       <c r="P101" s="151"/>
@@ -17581,11 +17581,11 @@
       <c r="H102" s="68"/>
       <c r="I102" s="68"/>
       <c r="J102" s="68"/>
-      <c r="K102" s="250" t="s">
+      <c r="K102" s="278" t="s">
         <v>129</v>
       </c>
-      <c r="L102" s="251"/>
-      <c r="M102" s="252"/>
+      <c r="L102" s="279"/>
+      <c r="M102" s="280"/>
       <c r="N102" s="151"/>
       <c r="O102" s="151"/>
       <c r="P102" s="151"/>
@@ -17607,11 +17607,11 @@
       <c r="H103" s="68"/>
       <c r="I103" s="68"/>
       <c r="J103" s="68"/>
-      <c r="K103" s="250" t="s">
+      <c r="K103" s="278" t="s">
         <v>129</v>
       </c>
-      <c r="L103" s="251"/>
-      <c r="M103" s="252"/>
+      <c r="L103" s="279"/>
+      <c r="M103" s="280"/>
       <c r="N103" s="151"/>
       <c r="O103" s="151"/>
       <c r="P103" s="151"/>
@@ -17633,11 +17633,11 @@
       <c r="H104" s="68"/>
       <c r="I104" s="68"/>
       <c r="J104" s="68"/>
-      <c r="K104" s="250" t="s">
+      <c r="K104" s="278" t="s">
         <v>129</v>
       </c>
-      <c r="L104" s="251"/>
-      <c r="M104" s="252"/>
+      <c r="L104" s="279"/>
+      <c r="M104" s="280"/>
       <c r="N104" s="151"/>
       <c r="O104" s="151"/>
       <c r="P104" s="151"/>
@@ -17659,11 +17659,11 @@
       <c r="H105" s="68"/>
       <c r="I105" s="68"/>
       <c r="J105" s="68"/>
-      <c r="K105" s="250" t="s">
+      <c r="K105" s="278" t="s">
         <v>128</v>
       </c>
-      <c r="L105" s="251"/>
-      <c r="M105" s="252"/>
+      <c r="L105" s="279"/>
+      <c r="M105" s="280"/>
       <c r="N105" s="151"/>
       <c r="O105" s="151"/>
       <c r="P105" s="151"/>
@@ -17685,11 +17685,11 @@
       <c r="H106" s="68"/>
       <c r="I106" s="68"/>
       <c r="J106" s="68"/>
-      <c r="K106" s="250" t="s">
+      <c r="K106" s="278" t="s">
         <v>129</v>
       </c>
-      <c r="L106" s="251"/>
-      <c r="M106" s="252"/>
+      <c r="L106" s="279"/>
+      <c r="M106" s="280"/>
       <c r="N106" s="151"/>
       <c r="O106" s="151"/>
       <c r="P106" s="151"/>
@@ -17711,11 +17711,11 @@
       <c r="H107" s="68"/>
       <c r="I107" s="68"/>
       <c r="J107" s="68"/>
-      <c r="K107" s="250" t="s">
+      <c r="K107" s="278" t="s">
         <v>129</v>
       </c>
-      <c r="L107" s="251"/>
-      <c r="M107" s="252"/>
+      <c r="L107" s="279"/>
+      <c r="M107" s="280"/>
       <c r="N107" s="151"/>
       <c r="O107" s="151"/>
       <c r="P107" s="151"/>
@@ -17737,11 +17737,11 @@
       <c r="H108" s="68"/>
       <c r="I108" s="68"/>
       <c r="J108" s="68"/>
-      <c r="K108" s="250" t="s">
+      <c r="K108" s="278" t="s">
         <v>129</v>
       </c>
-      <c r="L108" s="251"/>
-      <c r="M108" s="252"/>
+      <c r="L108" s="279"/>
+      <c r="M108" s="280"/>
       <c r="N108" s="151"/>
       <c r="O108" s="151"/>
       <c r="P108" s="151"/>
@@ -17763,11 +17763,11 @@
       <c r="H109" s="68"/>
       <c r="I109" s="68"/>
       <c r="J109" s="68"/>
-      <c r="K109" s="250" t="s">
+      <c r="K109" s="278" t="s">
         <v>128</v>
       </c>
-      <c r="L109" s="251"/>
-      <c r="M109" s="252"/>
+      <c r="L109" s="279"/>
+      <c r="M109" s="280"/>
       <c r="N109" s="151"/>
       <c r="O109" s="151"/>
       <c r="P109" s="151"/>
@@ -17789,11 +17789,11 @@
       <c r="H110" s="68"/>
       <c r="I110" s="68"/>
       <c r="J110" s="68"/>
-      <c r="K110" s="250" t="s">
+      <c r="K110" s="278" t="s">
         <v>129</v>
       </c>
-      <c r="L110" s="251"/>
-      <c r="M110" s="252"/>
+      <c r="L110" s="279"/>
+      <c r="M110" s="280"/>
       <c r="N110" s="151"/>
       <c r="O110" s="151"/>
       <c r="P110" s="151"/>
@@ -17815,11 +17815,11 @@
       <c r="H111" s="68"/>
       <c r="I111" s="68"/>
       <c r="J111" s="68"/>
-      <c r="K111" s="250" t="s">
+      <c r="K111" s="278" t="s">
         <v>128</v>
       </c>
-      <c r="L111" s="251"/>
-      <c r="M111" s="252"/>
+      <c r="L111" s="279"/>
+      <c r="M111" s="280"/>
       <c r="N111" s="151"/>
       <c r="O111" s="151"/>
       <c r="P111" s="151"/>
@@ -17841,11 +17841,11 @@
       <c r="H112" s="68"/>
       <c r="I112" s="68"/>
       <c r="J112" s="68"/>
-      <c r="K112" s="250" t="s">
+      <c r="K112" s="278" t="s">
         <v>129</v>
       </c>
-      <c r="L112" s="251"/>
-      <c r="M112" s="252"/>
+      <c r="L112" s="279"/>
+      <c r="M112" s="280"/>
       <c r="N112" s="151"/>
       <c r="O112" s="151"/>
       <c r="P112" s="151"/>
@@ -17867,11 +17867,11 @@
       <c r="H113" s="68"/>
       <c r="I113" s="68"/>
       <c r="J113" s="68"/>
-      <c r="K113" s="250" t="s">
+      <c r="K113" s="278" t="s">
         <v>128</v>
       </c>
-      <c r="L113" s="251"/>
-      <c r="M113" s="252"/>
+      <c r="L113" s="279"/>
+      <c r="M113" s="280"/>
       <c r="N113" s="151"/>
       <c r="O113" s="151"/>
       <c r="P113" s="151"/>
@@ -17883,11 +17883,11 @@
       </c>
     </row>
     <row r="114" spans="1:19">
-      <c r="A114" s="247" t="s">
+      <c r="A114" s="260" t="s">
         <v>77</v>
       </c>
-      <c r="B114" s="248"/>
-      <c r="C114" s="248"/>
+      <c r="B114" s="261"/>
+      <c r="C114" s="261"/>
       <c r="D114" s="66"/>
       <c r="E114" s="66"/>
       <c r="F114" s="66"/>
@@ -18248,11 +18248,11 @@
       </c>
     </row>
     <row r="129" spans="1:20">
-      <c r="A129" s="247" t="s">
+      <c r="A129" s="260" t="s">
         <v>82</v>
       </c>
-      <c r="B129" s="248"/>
-      <c r="C129" s="248"/>
+      <c r="B129" s="261"/>
+      <c r="C129" s="261"/>
       <c r="D129" s="54"/>
       <c r="E129" s="54"/>
       <c r="F129" s="54"/>
@@ -18308,22 +18308,22 @@
       <c r="S130" s="70"/>
     </row>
     <row r="131" spans="1:20">
-      <c r="A131" s="293" t="s">
+      <c r="A131" s="255" t="s">
         <v>88</v>
       </c>
-      <c r="B131" s="294"/>
-      <c r="C131" s="294"/>
-      <c r="D131" s="295"/>
+      <c r="B131" s="256"/>
+      <c r="C131" s="256"/>
+      <c r="D131" s="257"/>
       <c r="E131" s="182" t="s">
         <v>85</v>
       </c>
       <c r="F131" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="G131" s="249" t="s">
+      <c r="G131" s="292" t="s">
         <v>86</v>
       </c>
-      <c r="H131" s="249"/>
+      <c r="H131" s="292"/>
       <c r="I131" s="44" t="s">
         <v>93</v>
       </c>
@@ -18370,19 +18370,19 @@
         <v>83</v>
       </c>
       <c r="C132" s="76"/>
-      <c r="D132" s="275" t="s">
+      <c r="D132" s="252" t="s">
         <v>177</v>
       </c>
       <c r="E132" s="176">
         <v>0.1</v>
       </c>
-      <c r="F132" s="275" t="s">
+      <c r="F132" s="252" t="s">
         <v>153</v>
       </c>
-      <c r="G132" s="273">
+      <c r="G132" s="262">
         <v>16541</v>
       </c>
-      <c r="H132" s="274"/>
+      <c r="H132" s="263"/>
       <c r="I132" s="60">
         <v>0</v>
       </c>
@@ -18415,19 +18415,19 @@
     </row>
     <row r="133" spans="1:20">
       <c r="A133" s="74"/>
-      <c r="B133" s="260" t="s">
+      <c r="B133" s="230" t="s">
         <v>84</v>
       </c>
-      <c r="C133" s="261"/>
-      <c r="D133" s="276"/>
+      <c r="C133" s="231"/>
+      <c r="D133" s="253"/>
       <c r="E133" s="176">
         <v>0.1</v>
       </c>
-      <c r="F133" s="276"/>
-      <c r="G133" s="273">
+      <c r="F133" s="253"/>
+      <c r="G133" s="262">
         <v>31643</v>
       </c>
-      <c r="H133" s="274"/>
+      <c r="H133" s="263"/>
       <c r="I133" s="60"/>
       <c r="J133" s="60"/>
       <c r="K133" s="60"/>
@@ -18460,20 +18460,20 @@
     </row>
     <row r="134" spans="1:20">
       <c r="A134" s="74"/>
-      <c r="B134" s="260" t="s">
+      <c r="B134" s="230" t="s">
         <v>94</v>
       </c>
-      <c r="C134" s="261"/>
-      <c r="D134" s="277"/>
+      <c r="C134" s="231"/>
+      <c r="D134" s="254"/>
       <c r="E134" s="176">
         <v>0.1</v>
       </c>
-      <c r="F134" s="277"/>
-      <c r="G134" s="273">
+      <c r="F134" s="254"/>
+      <c r="G134" s="262">
         <f>16541/2</f>
         <v>8270.5</v>
       </c>
-      <c r="H134" s="274"/>
+      <c r="H134" s="263"/>
       <c r="I134" s="60"/>
       <c r="J134" s="60"/>
       <c r="K134" s="60"/>
@@ -18513,17 +18513,17 @@
       <c r="D135" s="66"/>
       <c r="E135" s="66"/>
       <c r="F135" s="66"/>
-      <c r="G135" s="245" t="s">
+      <c r="G135" s="290" t="s">
         <v>135</v>
       </c>
-      <c r="H135" s="246"/>
-      <c r="I135" s="232" t="s">
+      <c r="H135" s="291"/>
+      <c r="I135" s="281" t="s">
         <v>178</v>
       </c>
-      <c r="J135" s="233"/>
-      <c r="K135" s="233"/>
-      <c r="L135" s="233"/>
-      <c r="M135" s="234"/>
+      <c r="J135" s="282"/>
+      <c r="K135" s="282"/>
+      <c r="L135" s="282"/>
+      <c r="M135" s="283"/>
       <c r="N135" s="67"/>
       <c r="O135" s="67"/>
       <c r="P135" s="67"/>
@@ -19177,20 +19177,20 @@
       </c>
       <c r="B162" s="68"/>
       <c r="C162" s="68"/>
-      <c r="D162" s="240" t="s">
+      <c r="D162" s="233" t="s">
         <v>103</v>
       </c>
-      <c r="E162" s="241"/>
-      <c r="F162" s="278" t="s">
+      <c r="E162" s="251"/>
+      <c r="F162" s="229" t="s">
         <v>105</v>
       </c>
-      <c r="G162" s="260"/>
-      <c r="H162" s="260"/>
-      <c r="I162" s="260"/>
-      <c r="J162" s="260"/>
-      <c r="K162" s="260"/>
-      <c r="L162" s="260"/>
-      <c r="M162" s="261"/>
+      <c r="G162" s="230"/>
+      <c r="H162" s="230"/>
+      <c r="I162" s="230"/>
+      <c r="J162" s="230"/>
+      <c r="K162" s="230"/>
+      <c r="L162" s="230"/>
+      <c r="M162" s="231"/>
       <c r="N162" s="80">
         <f>IF($H$164&lt;&gt;"Custom",(IF(F162&lt;&gt;Worksheet!A91,Worksheet!C157,IF(Request!H164="MTDC",Worksheet!C157,IF(Request!H164="TDC",Worksheet!C158,IF(Request!H164="TC",Worksheet!C159))))),0)</f>
         <v>109978</v>
@@ -19221,17 +19221,17 @@
         <v>118</v>
       </c>
       <c r="D163" s="81"/>
-      <c r="E163" s="242" t="s">
+      <c r="E163" s="287" t="s">
         <v>119</v>
       </c>
-      <c r="F163" s="243"/>
-      <c r="G163" s="243"/>
-      <c r="H163" s="243"/>
-      <c r="I163" s="243"/>
-      <c r="J163" s="243"/>
-      <c r="K163" s="243"/>
-      <c r="L163" s="243"/>
-      <c r="M163" s="244"/>
+      <c r="F163" s="288"/>
+      <c r="G163" s="288"/>
+      <c r="H163" s="288"/>
+      <c r="I163" s="288"/>
+      <c r="J163" s="288"/>
+      <c r="K163" s="288"/>
+      <c r="L163" s="288"/>
+      <c r="M163" s="289"/>
       <c r="N163" s="190"/>
       <c r="O163" s="190"/>
       <c r="P163" s="190"/>
@@ -19249,20 +19249,20 @@
       <c r="B164" s="82"/>
       <c r="C164" s="184"/>
       <c r="D164" s="184"/>
-      <c r="E164" s="239" t="s">
+      <c r="E164" s="232" t="s">
         <v>114</v>
       </c>
-      <c r="F164" s="240"/>
-      <c r="G164" s="241"/>
-      <c r="H164" s="237" t="s">
+      <c r="F164" s="233"/>
+      <c r="G164" s="251"/>
+      <c r="H164" s="285" t="s">
         <v>115</v>
       </c>
-      <c r="I164" s="238"/>
-      <c r="J164" s="239" t="s">
+      <c r="I164" s="286"/>
+      <c r="J164" s="232" t="s">
         <v>117</v>
       </c>
-      <c r="K164" s="240"/>
-      <c r="L164" s="235">
+      <c r="K164" s="233"/>
+      <c r="L164" s="284">
         <v>0.2</v>
       </c>
       <c r="M164" s="236"/>
@@ -19361,6 +19361,190 @@
     </row>
   </sheetData>
   <mergeCells count="208">
+    <mergeCell ref="A59:M59"/>
+    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="I135:M135"/>
+    <mergeCell ref="L164:M164"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="J164:K164"/>
+    <mergeCell ref="E164:G164"/>
+    <mergeCell ref="E163:M163"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="K113:M113"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="K111:M111"/>
+    <mergeCell ref="K112:M112"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="K109:M109"/>
+    <mergeCell ref="K110:M110"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="F1:S1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -19385,190 +19569,6 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A31:M31"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="K112:M112"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="K109:M109"/>
-    <mergeCell ref="K110:M110"/>
-    <mergeCell ref="A59:M59"/>
-    <mergeCell ref="A60:M60"/>
-    <mergeCell ref="I135:M135"/>
-    <mergeCell ref="L164:M164"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="J164:K164"/>
-    <mergeCell ref="E164:G164"/>
-    <mergeCell ref="E163:M163"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="K113:M113"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="K111:M111"/>
   </mergeCells>
   <conditionalFormatting sqref="M7:M30">
     <cfRule type="expression" dxfId="4" priority="7">
@@ -19732,13 +19732,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="310" t="s">
+      <c r="B2" s="303" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="311"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
-      <c r="F2" s="311"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
       <c r="G2" s="106"/>
       <c r="H2" s="106"/>
       <c r="I2" s="106"/>
@@ -19751,15 +19751,15 @@
       <c r="B3" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="312" t="s">
+      <c r="C3" s="305" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="312"/>
+      <c r="D3" s="305"/>
       <c r="E3" s="109"/>
-      <c r="F3" s="312" t="s">
+      <c r="F3" s="305" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="312"/>
+      <c r="G3" s="305"/>
       <c r="H3" s="110"/>
       <c r="I3" s="111" t="s">
         <v>158</v>
@@ -19798,22 +19798,22 @@
       <c r="B5" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="300">
+      <c r="C5" s="298">
         <f>Request!C1</f>
         <v>42186</v>
       </c>
-      <c r="D5" s="300"/>
+      <c r="D5" s="298"/>
       <c r="E5" s="147"/>
-      <c r="F5" s="313">
+      <c r="F5" s="306">
         <f>IF(Worksheet!B97=Worksheet!C97,Worksheet!C3,(IF(AND('F&amp;A Details'!C5&lt;Worksheet!C8,(OR(Request!F162=Worksheet!A77,Request!F162=Worksheet!A78,Request!F162=Worksheet!A75))),DATE(YEAR(Worksheet!C8),MONTH(Worksheet!C8),DAY(Worksheet!C8)-1),Worksheet!C3)))</f>
         <v>42551</v>
       </c>
-      <c r="G5" s="313"/>
-      <c r="H5" s="314">
+      <c r="G5" s="306"/>
+      <c r="H5" s="307">
         <f>IF(AND(F5&lt;&gt;"",F5&lt;Worksheet!C3),(Request!N162-SUM(Request!N136:'Request'!N140))/Worksheet!C5*Worksheet!C6,Request!N162-SUM(Request!N136:'Request'!N140))</f>
         <v>109978</v>
       </c>
-      <c r="I5" s="314"/>
+      <c r="I5" s="307"/>
       <c r="J5" s="118">
         <f>Worksheet!B97</f>
         <v>0.56499999999999995</v>
@@ -19835,22 +19835,22 @@
       <c r="B6" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="300" t="str">
+      <c r="C6" s="298" t="str">
         <f>IF(F5&lt;Worksheet!C3,DATE(YEAR('F&amp;A Details'!F5),MONTH('F&amp;A Details'!F5),DAY('F&amp;A Details'!F5)+1),"")</f>
         <v/>
       </c>
-      <c r="D6" s="300"/>
+      <c r="D6" s="298"/>
       <c r="E6" s="116"/>
-      <c r="F6" s="315" t="str">
+      <c r="F6" s="308" t="str">
         <f>IF(F5&lt;Worksheet!C3,Worksheet!C3,"")</f>
         <v/>
       </c>
-      <c r="G6" s="315"/>
-      <c r="H6" s="308">
+      <c r="G6" s="308"/>
+      <c r="H6" s="309">
         <f>IF(F5&lt;Worksheet!C3,Request!N162-'F&amp;A Details'!H7-'F&amp;A Details'!H5,0)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="308"/>
+      <c r="I6" s="309"/>
       <c r="J6" s="118" t="str">
         <f>IF(H6&lt;&gt;0,Worksheet!C97,"")</f>
         <v/>
@@ -19878,16 +19878,16 @@
         <v>42186</v>
       </c>
       <c r="E7" s="123"/>
-      <c r="F7" s="316">
+      <c r="F7" s="310">
         <f>Worksheet!C3</f>
         <v>42551</v>
       </c>
-      <c r="G7" s="316"/>
-      <c r="H7" s="306">
+      <c r="G7" s="310"/>
+      <c r="H7" s="317">
         <f>SUM(Request!N136:N140)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="306"/>
+      <c r="I7" s="317"/>
       <c r="J7" s="125">
         <f>IF(Request!I135="Federal",Worksheet!B92,Worksheet!B93)</f>
         <v>0.86</v>
@@ -19906,8 +19906,8 @@
       <c r="C8" s="130"/>
       <c r="D8" s="117"/>
       <c r="E8" s="116"/>
-      <c r="F8" s="307"/>
-      <c r="G8" s="307"/>
+      <c r="F8" s="318"/>
+      <c r="G8" s="318"/>
       <c r="H8" s="131"/>
       <c r="I8" s="131"/>
       <c r="K8" s="130"/>
@@ -19924,16 +19924,16 @@
         <v>42552</v>
       </c>
       <c r="E9" s="116"/>
-      <c r="F9" s="300">
+      <c r="F9" s="298">
         <f>IF(Worksheet!D97=Worksheet!E97,Worksheet!D3,(IF(AND('F&amp;A Details'!D9&lt;Worksheet!D8,(OR(Request!F162=Worksheet!A77,Request!F162=Worksheet!A78,Request!F162=Worksheet!A75))),DATE(YEAR(Worksheet!D8),MONTH(Worksheet!D8),DAY(Worksheet!D8)-1),Worksheet!D3)))</f>
         <v>42916</v>
       </c>
-      <c r="G9" s="300"/>
-      <c r="H9" s="308">
+      <c r="G9" s="298"/>
+      <c r="H9" s="309">
         <f>IF(AND(F9&lt;&gt;"",F9&lt;Worksheet!D3),(Request!O162-SUM(Request!O136:O140))/Worksheet!D5*Worksheet!D6,Request!O162-SUM(Request!O136:O140))</f>
         <v>112216</v>
       </c>
-      <c r="I9" s="308"/>
+      <c r="I9" s="309"/>
       <c r="J9" s="148">
         <f>Worksheet!D97</f>
         <v>0.56999999999999995</v>
@@ -19961,16 +19961,16 @@
         <v/>
       </c>
       <c r="E10" s="116"/>
-      <c r="F10" s="300" t="str">
+      <c r="F10" s="298" t="str">
         <f>IF(F9&lt;Worksheet!D3,Worksheet!D3,"")</f>
         <v/>
       </c>
-      <c r="G10" s="300"/>
-      <c r="H10" s="309">
+      <c r="G10" s="298"/>
+      <c r="H10" s="302">
         <f>IF(F9&lt;Worksheet!D3,Request!O162-'F&amp;A Details'!H11-'F&amp;A Details'!H9,0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="309"/>
+      <c r="I10" s="302"/>
       <c r="J10" s="118" t="str">
         <f>IF(H10&lt;&gt;0,Worksheet!E97,"")</f>
         <v/>
@@ -19998,16 +19998,16 @@
         <v>42552</v>
       </c>
       <c r="E11" s="123"/>
-      <c r="F11" s="296">
+      <c r="F11" s="300">
         <f>Worksheet!D3</f>
         <v>42916</v>
       </c>
-      <c r="G11" s="296"/>
-      <c r="H11" s="318">
+      <c r="G11" s="300"/>
+      <c r="H11" s="301">
         <f>SUM(Request!O136:O140)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="318"/>
+      <c r="I11" s="301"/>
       <c r="J11" s="125">
         <f>IF(Request!I135="Federal",Worksheet!E92,Worksheet!E93)</f>
         <v>0.86</v>
@@ -20045,16 +20045,16 @@
         <v>42917</v>
       </c>
       <c r="E13" s="116"/>
-      <c r="F13" s="300">
+      <c r="F13" s="298">
         <f>IF(Worksheet!F97=Worksheet!G97,Worksheet!E3,(IF(AND('F&amp;A Details'!D13&lt;Worksheet!E8,(OR(Request!F162=Worksheet!A77,Request!F162=Worksheet!A78,Request!F162=Worksheet!A75))),DATE(YEAR(Worksheet!E8),MONTH(Worksheet!E8),DAY(Worksheet!E8)-1),Worksheet!E3)))</f>
         <v>43281</v>
       </c>
-      <c r="G13" s="300"/>
-      <c r="H13" s="301">
+      <c r="G13" s="298"/>
+      <c r="H13" s="313">
         <f>IF(AND(F13&lt;&gt;"",F13&lt;Worksheet!E3),(Request!P162-SUM(Request!P136:P140))/Worksheet!E5*Worksheet!E6,Request!P162-SUM(Request!P136:P140))</f>
         <v>48184</v>
       </c>
-      <c r="I13" s="301"/>
+      <c r="I13" s="313"/>
       <c r="J13" s="118">
         <f>Worksheet!F97</f>
         <v>0.56999999999999995</v>
@@ -20082,16 +20082,16 @@
         <v/>
       </c>
       <c r="E14" s="116"/>
-      <c r="F14" s="300" t="str">
+      <c r="F14" s="298" t="str">
         <f>IF(F13&lt;Worksheet!E3,Worksheet!E3,"")</f>
         <v/>
       </c>
-      <c r="G14" s="300"/>
-      <c r="H14" s="301">
+      <c r="G14" s="298"/>
+      <c r="H14" s="313">
         <f>IF(F13&lt;Worksheet!E3,Request!P162-'F&amp;A Details'!H15-'F&amp;A Details'!H13,0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="301"/>
+      <c r="I14" s="313"/>
       <c r="J14" s="118" t="str">
         <f>IF(H14&lt;&gt;0,Worksheet!G97,"")</f>
         <v/>
@@ -20119,16 +20119,16 @@
         <v>42917</v>
       </c>
       <c r="E15" s="123"/>
-      <c r="F15" s="296">
+      <c r="F15" s="300">
         <f>Worksheet!E3</f>
         <v>43281</v>
       </c>
-      <c r="G15" s="296"/>
-      <c r="H15" s="302">
+      <c r="G15" s="300"/>
+      <c r="H15" s="314">
         <f>SUM(Request!P136:P140)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="302"/>
+      <c r="I15" s="314"/>
       <c r="J15" s="125">
         <f>IF(Request!I135="Federal",Worksheet!E92,Worksheet!E93)</f>
         <v>0.86</v>
@@ -20166,16 +20166,16 @@
         <v/>
       </c>
       <c r="E17" s="116"/>
-      <c r="F17" s="303" t="str">
+      <c r="F17" s="315" t="str">
         <f>IF(Worksheet!F3&lt;&gt;"",Worksheet!F3,"")</f>
         <v/>
       </c>
-      <c r="G17" s="304"/>
-      <c r="H17" s="305">
+      <c r="G17" s="316"/>
+      <c r="H17" s="299">
         <f>Request!Q162-'F&amp;A Details'!H18</f>
         <v>0</v>
       </c>
-      <c r="I17" s="305"/>
+      <c r="I17" s="299"/>
       <c r="J17" s="136">
         <f>IF(H17&lt;&gt;0,Worksheet!H97,0)</f>
         <v>0</v>
@@ -20203,11 +20203,11 @@
         <v/>
       </c>
       <c r="E18" s="123"/>
-      <c r="F18" s="317" t="str">
+      <c r="F18" s="296" t="str">
         <f>Worksheet!F3</f>
         <v/>
       </c>
-      <c r="G18" s="317"/>
+      <c r="G18" s="296"/>
       <c r="H18" s="297">
         <f>SUM(Request!Q136:Q140)</f>
         <v>0</v>
@@ -20253,16 +20253,16 @@
         <v/>
       </c>
       <c r="E20" s="116"/>
-      <c r="F20" s="300" t="str">
+      <c r="F20" s="298" t="str">
         <f>IF(Worksheet!G3&lt;&gt;"",Worksheet!G3,"")</f>
         <v/>
       </c>
-      <c r="G20" s="300"/>
-      <c r="H20" s="305">
+      <c r="G20" s="298"/>
+      <c r="H20" s="299">
         <f>Request!R162-'F&amp;A Details'!H21</f>
         <v>0</v>
       </c>
-      <c r="I20" s="305"/>
+      <c r="I20" s="299"/>
       <c r="J20" s="142">
         <f>IF(H20&lt;&gt;0,Worksheet!J97,0)</f>
         <v>0</v>
@@ -20290,11 +20290,11 @@
         <v/>
       </c>
       <c r="E21" s="123"/>
-      <c r="F21" s="296" t="str">
+      <c r="F21" s="300" t="str">
         <f>Worksheet!G3</f>
         <v/>
       </c>
-      <c r="G21" s="296"/>
+      <c r="G21" s="300"/>
       <c r="H21" s="297">
         <f>SUM(Request!R136:R140)</f>
         <v>0</v>
@@ -20315,17 +20315,17 @@
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="298" t="s">
+      <c r="B22" s="311" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
-      <c r="G22" s="299"/>
-      <c r="H22" s="299"/>
-      <c r="I22" s="299"/>
-      <c r="J22" s="299"/>
+      <c r="C22" s="312"/>
+      <c r="D22" s="312"/>
+      <c r="E22" s="312"/>
+      <c r="F22" s="312"/>
+      <c r="G22" s="312"/>
+      <c r="H22" s="312"/>
+      <c r="I22" s="312"/>
+      <c r="J22" s="312"/>
       <c r="K22" s="149">
         <f>SUM(K5:K21)</f>
         <v>153566</v>
@@ -20341,23 +20341,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="B22:J22"/>
@@ -20374,6 +20357,23 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
